--- a/BC Curation Template.xlsx
+++ b/BC Curation Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linda\Documents\CDISC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40385ADE-BEE1-4226-945A-A4EEFA3EE5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AC5DB6-F27A-48AB-8848-2667BD3862F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="1" xr2:uid="{FA29263D-F7AA-4D0C-AE9B-6B008D3B18BE}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{FA29263D-F7AA-4D0C-AE9B-6B008D3B18BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Conceptual VS BC" sheetId="6" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11689" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11715" uniqueCount="1102">
   <si>
     <t>C164634</t>
   </si>
@@ -3067,9 +3067,6 @@
     <t>C170443</t>
   </si>
   <si>
-    <t>C170569</t>
-  </si>
-  <si>
     <t>Qualifer</t>
   </si>
   <si>
@@ -3353,6 +3350,54 @@
   </si>
   <si>
     <t>Laboratory Tests</t>
+  </si>
+  <si>
+    <t>STUDY PARTICIPATION; STUDY TREATMENT</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>Urine Test Strip</t>
+  </si>
+  <si>
+    <t>ALT, SGPT</t>
+  </si>
+  <si>
+    <t>AST, SGOT</t>
+  </si>
+  <si>
+    <t>WBC</t>
+  </si>
+  <si>
+    <t>BMI; Quetelet Index</t>
+  </si>
+  <si>
+    <t>Vital Signs; VS</t>
+  </si>
+  <si>
+    <t>Potassium; K</t>
+  </si>
+  <si>
+    <t>Blood Test</t>
+  </si>
+  <si>
+    <t>Complete Blood Count; CBC; Full Blood Count; FBC</t>
+  </si>
+  <si>
+    <t>Chemistry Measurement</t>
+  </si>
+  <si>
+    <t>Sodium; NA</t>
+  </si>
+  <si>
+    <t>Urine Test; UA</t>
+  </si>
+  <si>
+    <t>Urine Glucose Dipstick</t>
+  </si>
+  <si>
+    <t>synonym</t>
   </si>
 </sst>
 </file>
@@ -4044,11 +4089,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B92937E-F1B4-4F44-9F47-44A7FBEED699}">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -4056,22 +4101,23 @@
     <col min="1" max="1" width="10.64453125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.234375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.9375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.17578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.29296875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="63" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.52734375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="12.46875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="7.87890625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.41015625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="21.5859375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.52734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.46875" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="26.87890625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.9375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.76171875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="63" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.52734375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="11.29296875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.87890625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.41015625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="21.5859375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.52734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="44.46875" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>788</v>
@@ -4083,36 +4129,39 @@
         <v>790</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>796</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>874</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>876</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>793</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>0</v>
@@ -4121,33 +4170,36 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="H2" s="50" t="s">
         <v>878</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="M2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>0</v>
@@ -4155,22 +4207,22 @@
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="37" t="s">
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>0</v>
@@ -4178,25 +4230,25 @@
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="37" t="s">
+      <c r="G4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="37" t="s">
         <v>604</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B5" s="37" t="s">
         <v>9</v>
@@ -4205,25 +4257,28 @@
         <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="H5" s="50" t="s">
         <v>878</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>9</v>
@@ -4232,23 +4287,24 @@
         <v>10</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="15"/>
-      <c r="J6" s="37" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="15"/>
+      <c r="K6" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B7" s="37" t="s">
         <v>9</v>
@@ -4256,22 +4312,22 @@
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="37" t="s">
+      <c r="K7" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B8" s="37" t="s">
         <v>696</v>
@@ -4279,13 +4335,16 @@
       <c r="D8" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="86" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="86" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B9" s="37" t="s">
         <v>15</v>
@@ -4297,33 +4356,36 @@
         <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="H9" s="50" t="s">
         <v>878</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="9" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="K9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="9" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B10" s="37" t="s">
         <v>18</v>
@@ -4334,35 +4396,38 @@
       <c r="D10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="G10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="H10" s="50" t="s">
         <v>878</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="J10" s="9" t="s">
         <v>882</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="9" t="s">
         <v>3</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="16"/>
-    </row>
-    <row r="11" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="M10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="16"/>
+    </row>
+    <row r="11" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B11" s="37" t="s">
         <v>18</v>
@@ -4373,23 +4438,23 @@
       <c r="D11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="16"/>
-      <c r="J11" s="37" t="s">
+      <c r="G11" s="16"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="16"/>
+      <c r="K11" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="L11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="M11" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="M11" s="16"/>
-    </row>
-    <row r="12" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="N11" s="16"/>
+    </row>
+    <row r="12" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B12" s="37" t="s">
         <v>18</v>
@@ -4400,25 +4465,25 @@
       <c r="D12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="16"/>
-      <c r="J12" s="37" t="s">
+      <c r="G12" s="16"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="16"/>
+      <c r="K12" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="L12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="M12" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="N12" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B13" s="37" t="s">
         <v>18</v>
@@ -4429,25 +4494,25 @@
       <c r="D13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="16"/>
-      <c r="J13" s="37" t="s">
+      <c r="G13" s="16"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="16"/>
+      <c r="K13" s="37" t="s">
         <v>746</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="L13" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="M13" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="M13" s="16" t="s">
+      <c r="N13" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B14" s="37" t="s">
         <v>18</v>
@@ -4458,25 +4523,25 @@
       <c r="D14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="16"/>
-      <c r="J14" s="37" t="s">
+      <c r="G14" s="16"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="16"/>
+      <c r="K14" s="37" t="s">
         <v>708</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="L14" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="M14" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="M14" s="16" t="s">
+      <c r="N14" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="9" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:14" s="9" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B15" s="37" t="s">
         <v>18</v>
@@ -4487,25 +4552,25 @@
       <c r="D15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="16"/>
-      <c r="J15" s="37" t="s">
+      <c r="G15" s="16"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="16"/>
+      <c r="K15" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="L15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="M15" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="M15" s="16" t="s">
+      <c r="N15" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="9" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:14" s="9" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B16" s="37" t="s">
         <v>18</v>
@@ -4516,27 +4581,27 @@
       <c r="D16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="G16" s="16" t="s">
         <v>707</v>
       </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="16"/>
-      <c r="J16" s="37" t="s">
+      <c r="H16" s="49"/>
+      <c r="I16" s="16"/>
+      <c r="K16" s="37" t="s">
         <v>747</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="L16" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="M16" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="M16" s="16" t="s">
+      <c r="N16" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="9" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:14" s="9" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A17" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B17" s="37" t="s">
         <v>33</v>
@@ -4548,34 +4613,37 @@
         <v>34</v>
       </c>
       <c r="E17" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="G17" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="50" t="s">
+      <c r="H17" s="50" t="s">
         <v>878</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="J17" s="9" t="s">
         <v>883</v>
       </c>
-      <c r="J17" s="9" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="9" t="s">
         <v>3</v>
       </c>
       <c r="L17" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="16"/>
-    </row>
-    <row r="18" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="M17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="16"/>
+    </row>
+    <row r="18" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A18" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>33</v>
@@ -4586,23 +4654,23 @@
       <c r="D18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="16"/>
-      <c r="J18" s="37" t="s">
+      <c r="G18" s="16"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="16"/>
+      <c r="K18" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="L18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="M18" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="M18" s="16"/>
-    </row>
-    <row r="19" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="N18" s="16"/>
+    </row>
+    <row r="19" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A19" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B19" s="37" t="s">
         <v>33</v>
@@ -4613,25 +4681,25 @@
       <c r="D19" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="16"/>
-      <c r="J19" s="37" t="s">
+      <c r="G19" s="16"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="16"/>
+      <c r="K19" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="L19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="M19" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="M19" s="16" t="s">
+      <c r="N19" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A20" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B20" s="37" t="s">
         <v>33</v>
@@ -4642,25 +4710,25 @@
       <c r="D20" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="16"/>
-      <c r="J20" s="37" t="s">
+      <c r="G20" s="16"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="16"/>
+      <c r="K20" s="37" t="s">
         <v>746</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="L20" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="M20" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="M20" s="16" t="s">
+      <c r="N20" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A21" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B21" s="37" t="s">
         <v>33</v>
@@ -4671,25 +4739,25 @@
       <c r="D21" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="16"/>
-      <c r="J21" s="37" t="s">
+      <c r="G21" s="16"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="16"/>
+      <c r="K21" s="37" t="s">
         <v>708</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="L21" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="L21" s="9" t="s">
+      <c r="M21" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="M21" s="16" t="s">
+      <c r="N21" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="9" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:14" s="9" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B22" s="37" t="s">
         <v>33</v>
@@ -4700,25 +4768,25 @@
       <c r="D22" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="16"/>
-      <c r="J22" s="37" t="s">
+      <c r="G22" s="16"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="16"/>
+      <c r="K22" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="L22" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L22" s="9" t="s">
+      <c r="M22" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="M22" s="16" t="s">
+      <c r="N22" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="9" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:14" s="9" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
       <c r="A23" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B23" s="37" t="s">
         <v>33</v>
@@ -4729,25 +4797,25 @@
       <c r="D23" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="16"/>
-      <c r="J23" s="37" t="s">
+      <c r="G23" s="16"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="16"/>
+      <c r="K23" s="37" t="s">
         <v>747</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="L23" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="L23" s="9" t="s">
+      <c r="M23" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="M23" s="16" t="s">
+      <c r="N23" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="43" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:14" ht="43" x14ac:dyDescent="0.5">
       <c r="A24" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B24" s="37" t="s">
         <v>37</v>
@@ -4759,15 +4827,18 @@
         <v>38</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A25" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B25" s="37" t="s">
         <v>37</v>
@@ -4778,19 +4849,19 @@
       <c r="D25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J25" s="37" t="s">
+      <c r="K25" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="L25" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L25" s="9" t="s">
+      <c r="M25" s="9" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A26" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B26" s="37" t="s">
         <v>37</v>
@@ -4801,22 +4872,22 @@
       <c r="D26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J26" s="37" t="s">
+      <c r="K26" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="L26" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="M26" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="N26" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A27" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B27" s="37" t="s">
         <v>37</v>
@@ -4827,22 +4898,22 @@
       <c r="D27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J27" s="37" t="s">
+      <c r="K27" s="37" t="s">
         <v>746</v>
       </c>
-      <c r="K27" s="9" t="s">
+      <c r="L27" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="M27" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="N27" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A28" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B28" s="37" t="s">
         <v>37</v>
@@ -4853,22 +4924,22 @@
       <c r="D28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J28" s="37" t="s">
+      <c r="K28" s="37" t="s">
         <v>708</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="L28" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="M28" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="M28" s="16" t="s">
+      <c r="N28" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A29" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B29" s="37" t="s">
         <v>37</v>
@@ -4879,22 +4950,22 @@
       <c r="D29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J29" s="37" t="s">
+      <c r="K29" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="K29" s="9" t="s">
+      <c r="L29" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="M29" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:14" ht="57.35" x14ac:dyDescent="0.5">
       <c r="A30" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B30" s="37" t="s">
         <v>37</v>
@@ -4905,22 +4976,22 @@
       <c r="D30" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J30" s="37" t="s">
+      <c r="K30" s="37" t="s">
         <v>747</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="L30" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="M30" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="M30" s="16" t="s">
+      <c r="N30" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A31" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B31" s="37" t="s">
         <v>46</v>
@@ -4929,24 +5000,27 @@
         <v>47</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G31" s="50" t="s">
+      <c r="H31" s="50" t="s">
         <v>878</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A32" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B32" s="37" t="s">
         <v>46</v>
@@ -4954,19 +5028,19 @@
       <c r="D32" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J32" s="37" t="s">
+      <c r="K32" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="L32" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="M32" s="2" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A33" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B33" s="37" t="s">
         <v>46</v>
@@ -4974,22 +5048,22 @@
       <c r="D33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J33" s="37" t="s">
+      <c r="K33" s="37" t="s">
         <v>609</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="L33" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="M33" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="N33" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="29.1" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A34" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B34" s="37" t="s">
         <v>50</v>
@@ -4997,19 +5071,19 @@
       <c r="D34" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="M34" s="2" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A35" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B35" s="37" t="s">
         <v>50</v>
@@ -5017,22 +5091,25 @@
       <c r="D35" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J35" s="37" t="s">
+      <c r="E35" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="K35" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="L35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="M35" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="N35" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A36" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B36" s="37" t="s">
         <v>54</v>
@@ -5043,25 +5120,25 @@
       <c r="D36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G36" s="50" t="s">
+      <c r="H36" s="50" t="s">
         <v>878</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A37" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B37" s="37" t="s">
         <v>54</v>
@@ -5072,19 +5149,19 @@
       <c r="D37" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J37" s="37" t="s">
+      <c r="K37" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="K37" s="9" t="s">
+      <c r="L37" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L37" s="9" t="s">
+      <c r="M37" s="9" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A38" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B38" s="37" t="s">
         <v>54</v>
@@ -5095,22 +5172,22 @@
       <c r="D38" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J38" s="37" t="s">
+      <c r="K38" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="K38" s="9" t="s">
+      <c r="L38" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="M38" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="N38" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A39" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B39" s="37" t="s">
         <v>54</v>
@@ -5121,22 +5198,22 @@
       <c r="D39" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J39" s="37" t="s">
+      <c r="K39" s="37" t="s">
         <v>746</v>
       </c>
-      <c r="K39" s="9" t="s">
+      <c r="L39" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="M39" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="N39" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A40" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B40" s="37" t="s">
         <v>54</v>
@@ -5147,22 +5224,22 @@
       <c r="D40" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J40" s="37" t="s">
+      <c r="K40" s="37" t="s">
         <v>708</v>
       </c>
-      <c r="K40" s="9" t="s">
+      <c r="L40" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="M40" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="M40" s="16" t="s">
+      <c r="N40" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A41" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B41" s="37" t="s">
         <v>54</v>
@@ -5173,22 +5250,22 @@
       <c r="D41" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J41" s="37" t="s">
+      <c r="K41" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="K41" s="9" t="s">
+      <c r="L41" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="M41" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="N41" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:14" ht="57.35" x14ac:dyDescent="0.5">
       <c r="A42" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B42" s="37" t="s">
         <v>54</v>
@@ -5199,22 +5276,22 @@
       <c r="D42" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J42" s="37" t="s">
+      <c r="K42" s="37" t="s">
         <v>747</v>
       </c>
-      <c r="K42" s="9" t="s">
+      <c r="L42" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="M42" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="M42" s="16" t="s">
+      <c r="N42" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A43" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B43" s="37" t="s">
         <v>510</v>
@@ -5226,24 +5303,27 @@
         <v>509</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="G43" s="50" t="s">
+      <c r="H43" s="50" t="s">
         <v>878</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="I43" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="J43" s="2" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A44" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B44" s="37" t="s">
         <v>510</v>
@@ -5254,19 +5334,19 @@
       <c r="D44" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="J44" s="37" t="s">
+      <c r="K44" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="L44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="M44" s="2" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A45" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B45" s="37" t="s">
         <v>510</v>
@@ -5277,22 +5357,22 @@
       <c r="D45" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="J45" s="37" t="s">
+      <c r="K45" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="L45" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="M45" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="N45" s="3" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A46" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B46" s="37" t="s">
         <v>510</v>
@@ -5303,22 +5383,22 @@
       <c r="D46" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="J46" s="37" t="s">
+      <c r="K46" s="37" t="s">
         <v>746</v>
       </c>
-      <c r="K46" s="9" t="s">
+      <c r="L46" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="M46" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="M46" s="3" t="s">
+      <c r="N46" s="3" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:14" ht="57.35" x14ac:dyDescent="0.5">
       <c r="A47" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B47" s="37" t="s">
         <v>530</v>
@@ -5326,25 +5406,25 @@
       <c r="D47" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="G47" s="50" t="s">
+      <c r="H47" s="50" t="s">
         <v>878</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="J47" s="2" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A48" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B48" s="37" t="s">
         <v>530</v>
@@ -5352,19 +5432,19 @@
       <c r="D48" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="J48" s="37" t="s">
+      <c r="K48" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="L48" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L48" s="9" t="s">
+      <c r="M48" s="9" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A49" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B49" s="37" t="s">
         <v>530</v>
@@ -5372,19 +5452,19 @@
       <c r="D49" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="J49" s="37" t="s">
+      <c r="K49" s="37" t="s">
         <v>748</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="L49" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="M49" s="2" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A50" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B50" s="37" t="s">
         <v>530</v>
@@ -5392,22 +5472,22 @@
       <c r="D50" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="J50" s="37" t="s">
+      <c r="K50" s="37" t="s">
         <v>710</v>
       </c>
-      <c r="K50" s="9" t="s">
+      <c r="L50" s="9" t="s">
         <v>709</v>
       </c>
-      <c r="L50" s="2" t="s">
+      <c r="M50" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="M50" s="3" t="s">
+      <c r="N50" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A51" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B51" s="37" t="s">
         <v>765</v>
@@ -5418,25 +5498,25 @@
       <c r="D51" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="G51" s="50" t="s">
+      <c r="H51" s="50" t="s">
         <v>878</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="J51" s="2" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A52" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B52" s="37" t="s">
         <v>765</v>
@@ -5447,19 +5527,19 @@
       <c r="D52" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="J52" s="37" t="s">
+      <c r="K52" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="9" t="s">
+      <c r="L52" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L52" s="9" t="s">
+      <c r="M52" s="9" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A53" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B53" s="37" t="s">
         <v>765</v>
@@ -5470,16 +5550,16 @@
       <c r="D53" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="J53" s="37" t="s">
+      <c r="K53" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="K53" s="9" t="s">
+      <c r="L53" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L53" s="2" t="s">
+      <c r="M53" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="M53" s="3" t="s">
+      <c r="N53" s="3" t="s">
         <v>767</v>
       </c>
     </row>
@@ -5498,19 +5578,19 @@
     <hyperlink ref="B43" r:id="rId10" xr:uid="{E5B83E73-E26D-46A5-B1AD-3606990F0861}"/>
     <hyperlink ref="B47" r:id="rId11" xr:uid="{870019A2-6BED-493D-8CA2-38D6AB5594C8}"/>
     <hyperlink ref="C36" r:id="rId12" xr:uid="{F6AFD527-2D2A-4859-844E-D98E77E683D1}"/>
-    <hyperlink ref="J4" r:id="rId13" xr:uid="{F9D2B536-39E0-49CF-9F3A-80279F2AD8E2}"/>
-    <hyperlink ref="J7" r:id="rId14" xr:uid="{731C565E-9FF8-4BA7-BD20-0995AB99D2F6}"/>
-    <hyperlink ref="J12" r:id="rId15" xr:uid="{64794624-6BB5-4D50-9751-CEEFDE339B42}"/>
-    <hyperlink ref="J3" r:id="rId16" xr:uid="{35E5F179-C8E9-4B3F-B1CC-74F00087514E}"/>
-    <hyperlink ref="J14" r:id="rId17" xr:uid="{1D054DF0-A656-4A68-849D-13E15A627D32}"/>
-    <hyperlink ref="J15" r:id="rId18" xr:uid="{A039CCF5-21B3-4424-8F97-E5E076877D01}"/>
-    <hyperlink ref="J26" r:id="rId19" xr:uid="{B387514D-27DD-4E39-953C-AC3CDF2D8521}"/>
-    <hyperlink ref="J41" r:id="rId20" xr:uid="{38E6A048-6D88-4D79-91B6-FEA4EE3EFB22}"/>
-    <hyperlink ref="J33" r:id="rId21" xr:uid="{121F5EAD-4B09-48B1-A583-2990B6C5C3E3}"/>
-    <hyperlink ref="J45" r:id="rId22" xr:uid="{BB36FE3C-ACA8-416C-8820-EFBE75879750}"/>
-    <hyperlink ref="J49" r:id="rId23" xr:uid="{DD8F614C-3984-4816-9DED-B9D393991107}"/>
-    <hyperlink ref="J50" r:id="rId24" xr:uid="{59F16379-2644-4DBA-9C94-39ADF2DD8BA2}"/>
-    <hyperlink ref="J16" r:id="rId25" xr:uid="{CECFBFF8-CBFA-4D9B-8A7A-178A8DEA61FB}"/>
+    <hyperlink ref="K4" r:id="rId13" xr:uid="{F9D2B536-39E0-49CF-9F3A-80279F2AD8E2}"/>
+    <hyperlink ref="K7" r:id="rId14" xr:uid="{731C565E-9FF8-4BA7-BD20-0995AB99D2F6}"/>
+    <hyperlink ref="K12" r:id="rId15" xr:uid="{64794624-6BB5-4D50-9751-CEEFDE339B42}"/>
+    <hyperlink ref="K3" r:id="rId16" xr:uid="{35E5F179-C8E9-4B3F-B1CC-74F00087514E}"/>
+    <hyperlink ref="K14" r:id="rId17" xr:uid="{1D054DF0-A656-4A68-849D-13E15A627D32}"/>
+    <hyperlink ref="K15" r:id="rId18" xr:uid="{A039CCF5-21B3-4424-8F97-E5E076877D01}"/>
+    <hyperlink ref="K26" r:id="rId19" xr:uid="{B387514D-27DD-4E39-953C-AC3CDF2D8521}"/>
+    <hyperlink ref="K41" r:id="rId20" xr:uid="{38E6A048-6D88-4D79-91B6-FEA4EE3EFB22}"/>
+    <hyperlink ref="K33" r:id="rId21" xr:uid="{121F5EAD-4B09-48B1-A583-2990B6C5C3E3}"/>
+    <hyperlink ref="K45" r:id="rId22" xr:uid="{BB36FE3C-ACA8-416C-8820-EFBE75879750}"/>
+    <hyperlink ref="K49" r:id="rId23" xr:uid="{DD8F614C-3984-4816-9DED-B9D393991107}"/>
+    <hyperlink ref="K50" r:id="rId24" xr:uid="{59F16379-2644-4DBA-9C94-39ADF2DD8BA2}"/>
+    <hyperlink ref="K16" r:id="rId25" xr:uid="{CECFBFF8-CBFA-4D9B-8A7A-178A8DEA61FB}"/>
     <hyperlink ref="B2" r:id="rId26" xr:uid="{40B1097C-2196-4D8C-9952-C6454A7B7D36}"/>
     <hyperlink ref="B3:B4" r:id="rId27" display="C164634" xr:uid="{BA62F9C1-2B84-4424-A3B1-8740DC69BEB7}"/>
     <hyperlink ref="B6" r:id="rId28" xr:uid="{BF08FCB6-F520-45B5-8D80-DCE4F27D1EF2}"/>
@@ -5530,47 +5610,47 @@
     <hyperlink ref="C37:C42" r:id="rId42" display="C49672" xr:uid="{047BEEF4-ED2D-420A-94CC-4DB2BCB70C51}"/>
     <hyperlink ref="B44:B46" r:id="rId43" display=" C174446" xr:uid="{2D956545-867D-4556-A1D4-56FCA9AA1679}"/>
     <hyperlink ref="B48:B50" r:id="rId44" display="C100948" xr:uid="{2486A63A-670D-417B-87A8-CFFE5BEBD85C}"/>
-    <hyperlink ref="J11" r:id="rId45" xr:uid="{0DFCD05A-866F-4659-8380-F0BC12A37FE6}"/>
-    <hyperlink ref="J18" r:id="rId46" xr:uid="{5DBD4A24-7C03-474E-9C38-ADEE76F4317D}"/>
-    <hyperlink ref="J25" r:id="rId47" xr:uid="{C1664227-13B6-4CED-A7A7-F7AFAFCC1702}"/>
-    <hyperlink ref="J37" r:id="rId48" xr:uid="{79CB479B-4CF5-4D00-9FC6-2478A37B5450}"/>
-    <hyperlink ref="J44" r:id="rId49" xr:uid="{622B0A8C-9302-41B0-933F-5EBC224404B3}"/>
-    <hyperlink ref="J48" r:id="rId50" xr:uid="{47A098FB-A8FA-4151-AA0B-EDD7953468F1}"/>
-    <hyperlink ref="J6" r:id="rId51" xr:uid="{76B443C7-02CD-459D-BF99-B0CC639BE725}"/>
-    <hyperlink ref="J21" r:id="rId52" xr:uid="{80D4A696-9E58-4F9C-AB38-7F0455C967F0}"/>
-    <hyperlink ref="J28" r:id="rId53" xr:uid="{C4CC4568-ACD2-4835-AEE0-607A3AC8A68C}"/>
-    <hyperlink ref="J40" r:id="rId54" xr:uid="{3AA3249A-D63B-49BE-AAAF-5F4039FB2019}"/>
-    <hyperlink ref="J13" r:id="rId55" xr:uid="{5F50E2B7-FBCC-449E-A80B-6D262A018906}"/>
-    <hyperlink ref="J20" r:id="rId56" xr:uid="{289F6AF7-C0D2-4ADF-AF5B-FD7A96FBF1EF}"/>
-    <hyperlink ref="J27" r:id="rId57" xr:uid="{4885CFEC-76E0-4B97-AF74-05FDDF2DA42E}"/>
-    <hyperlink ref="J39" r:id="rId58" xr:uid="{A8E15659-2F56-4E56-A73D-8E059D92238B}"/>
-    <hyperlink ref="J22" r:id="rId59" xr:uid="{65BAA28C-3020-43A9-BCF4-CFE051697085}"/>
-    <hyperlink ref="J29" r:id="rId60" xr:uid="{CEFE05E5-F6B0-4AB4-9B99-4739571C2454}"/>
-    <hyperlink ref="J23" r:id="rId61" xr:uid="{E2F268EF-1B34-40F1-B5B9-809443849DD3}"/>
-    <hyperlink ref="J30" r:id="rId62" xr:uid="{2A898038-766A-41AF-857E-C8E666BECBE4}"/>
-    <hyperlink ref="J42" r:id="rId63" xr:uid="{39C687A1-058F-4642-B51B-A07792AE46FE}"/>
-    <hyperlink ref="J19" r:id="rId64" xr:uid="{7A5DB527-D5B8-4641-B803-FB949A8CA4A0}"/>
-    <hyperlink ref="J38" r:id="rId65" xr:uid="{09694CEA-3584-4130-BF9A-C6BE2273C1F1}"/>
-    <hyperlink ref="J35" r:id="rId66" xr:uid="{7C0F13C3-1972-409E-9F58-D53D32B4E83C}"/>
-    <hyperlink ref="J46" r:id="rId67" xr:uid="{71B7B75A-22B6-497A-A4DF-8615DE245204}"/>
+    <hyperlink ref="K11" r:id="rId45" xr:uid="{0DFCD05A-866F-4659-8380-F0BC12A37FE6}"/>
+    <hyperlink ref="K18" r:id="rId46" xr:uid="{5DBD4A24-7C03-474E-9C38-ADEE76F4317D}"/>
+    <hyperlink ref="K25" r:id="rId47" xr:uid="{C1664227-13B6-4CED-A7A7-F7AFAFCC1702}"/>
+    <hyperlink ref="K37" r:id="rId48" xr:uid="{79CB479B-4CF5-4D00-9FC6-2478A37B5450}"/>
+    <hyperlink ref="K44" r:id="rId49" xr:uid="{622B0A8C-9302-41B0-933F-5EBC224404B3}"/>
+    <hyperlink ref="K48" r:id="rId50" xr:uid="{47A098FB-A8FA-4151-AA0B-EDD7953468F1}"/>
+    <hyperlink ref="K6" r:id="rId51" xr:uid="{76B443C7-02CD-459D-BF99-B0CC639BE725}"/>
+    <hyperlink ref="K21" r:id="rId52" xr:uid="{80D4A696-9E58-4F9C-AB38-7F0455C967F0}"/>
+    <hyperlink ref="K28" r:id="rId53" xr:uid="{C4CC4568-ACD2-4835-AEE0-607A3AC8A68C}"/>
+    <hyperlink ref="K40" r:id="rId54" xr:uid="{3AA3249A-D63B-49BE-AAAF-5F4039FB2019}"/>
+    <hyperlink ref="K13" r:id="rId55" xr:uid="{5F50E2B7-FBCC-449E-A80B-6D262A018906}"/>
+    <hyperlink ref="K20" r:id="rId56" xr:uid="{289F6AF7-C0D2-4ADF-AF5B-FD7A96FBF1EF}"/>
+    <hyperlink ref="K27" r:id="rId57" xr:uid="{4885CFEC-76E0-4B97-AF74-05FDDF2DA42E}"/>
+    <hyperlink ref="K39" r:id="rId58" xr:uid="{A8E15659-2F56-4E56-A73D-8E059D92238B}"/>
+    <hyperlink ref="K22" r:id="rId59" xr:uid="{65BAA28C-3020-43A9-BCF4-CFE051697085}"/>
+    <hyperlink ref="K29" r:id="rId60" xr:uid="{CEFE05E5-F6B0-4AB4-9B99-4739571C2454}"/>
+    <hyperlink ref="K23" r:id="rId61" xr:uid="{E2F268EF-1B34-40F1-B5B9-809443849DD3}"/>
+    <hyperlink ref="K30" r:id="rId62" xr:uid="{2A898038-766A-41AF-857E-C8E666BECBE4}"/>
+    <hyperlink ref="K42" r:id="rId63" xr:uid="{39C687A1-058F-4642-B51B-A07792AE46FE}"/>
+    <hyperlink ref="K19" r:id="rId64" xr:uid="{7A5DB527-D5B8-4641-B803-FB949A8CA4A0}"/>
+    <hyperlink ref="K38" r:id="rId65" xr:uid="{09694CEA-3584-4130-BF9A-C6BE2273C1F1}"/>
+    <hyperlink ref="K35" r:id="rId66" xr:uid="{7C0F13C3-1972-409E-9F58-D53D32B4E83C}"/>
+    <hyperlink ref="K46" r:id="rId67" xr:uid="{71B7B75A-22B6-497A-A4DF-8615DE245204}"/>
     <hyperlink ref="B51" r:id="rId68" xr:uid="{F1E64931-8DDA-4DF6-ACEC-118F5D488143}"/>
     <hyperlink ref="C51" r:id="rId69" xr:uid="{3292C39E-EF62-4C63-B845-9CE71A8EE68E}"/>
-    <hyperlink ref="J52" r:id="rId70" xr:uid="{83A82BCB-2F85-4CA1-8972-FD1C6C810AF9}"/>
-    <hyperlink ref="J53" r:id="rId71" xr:uid="{66B66DFD-B4B7-410F-A3F9-3F967DDA1DCA}"/>
+    <hyperlink ref="K52" r:id="rId70" xr:uid="{83A82BCB-2F85-4CA1-8972-FD1C6C810AF9}"/>
+    <hyperlink ref="K53" r:id="rId71" xr:uid="{66B66DFD-B4B7-410F-A3F9-3F967DDA1DCA}"/>
     <hyperlink ref="C52:C53" r:id="rId72" display="C49672" xr:uid="{88C54627-90D9-47F9-9BDC-51F657A588BA}"/>
     <hyperlink ref="B52:B53" r:id="rId73" display="C49678" xr:uid="{D1584AB2-59FA-4F69-96AB-859074F0F00E}"/>
     <hyperlink ref="C43:C46" r:id="rId74" display="C49672" xr:uid="{695D953F-D8D6-4145-B023-10D09D1B4539}"/>
-    <hyperlink ref="G2" r:id="rId75" xr:uid="{8CB89712-C671-4519-A349-B66D166A0782}"/>
-    <hyperlink ref="G5" r:id="rId76" xr:uid="{C960D51A-B598-4DDB-B3F1-4045E9BF5327}"/>
-    <hyperlink ref="G9" r:id="rId77" xr:uid="{1CEC6B7C-F88C-4F9A-AFB6-9D39C09B8D1E}"/>
-    <hyperlink ref="G10" r:id="rId78" xr:uid="{90296AB7-6362-422A-8CA1-A5C0959C0994}"/>
-    <hyperlink ref="G17" r:id="rId79" xr:uid="{9452E83D-366D-41A6-BB04-BCCC8394CC37}"/>
-    <hyperlink ref="G31" r:id="rId80" xr:uid="{2B5B79DC-609F-4135-94DD-937A3A6B9A0E}"/>
-    <hyperlink ref="G36" r:id="rId81" xr:uid="{33E6585C-B025-48BF-8E27-54D1F21FFCC2}"/>
-    <hyperlink ref="G43" r:id="rId82" xr:uid="{77C764F4-6F6B-46B1-A716-36875B89847C}"/>
-    <hyperlink ref="G47" r:id="rId83" xr:uid="{F83B0DD3-DF5D-4B25-8493-9089DB2B7366}"/>
-    <hyperlink ref="G51" r:id="rId84" xr:uid="{977EA399-34DA-4F32-A1BD-C5BDFA6590AC}"/>
-    <hyperlink ref="J32" r:id="rId85" xr:uid="{A2D2E9E3-9EE3-4110-9AFC-25241060161E}"/>
+    <hyperlink ref="H2" r:id="rId75" xr:uid="{8CB89712-C671-4519-A349-B66D166A0782}"/>
+    <hyperlink ref="H5" r:id="rId76" xr:uid="{C960D51A-B598-4DDB-B3F1-4045E9BF5327}"/>
+    <hyperlink ref="H9" r:id="rId77" xr:uid="{1CEC6B7C-F88C-4F9A-AFB6-9D39C09B8D1E}"/>
+    <hyperlink ref="H10" r:id="rId78" xr:uid="{90296AB7-6362-422A-8CA1-A5C0959C0994}"/>
+    <hyperlink ref="H17" r:id="rId79" xr:uid="{9452E83D-366D-41A6-BB04-BCCC8394CC37}"/>
+    <hyperlink ref="H31" r:id="rId80" xr:uid="{2B5B79DC-609F-4135-94DD-937A3A6B9A0E}"/>
+    <hyperlink ref="H36" r:id="rId81" xr:uid="{33E6585C-B025-48BF-8E27-54D1F21FFCC2}"/>
+    <hyperlink ref="H43" r:id="rId82" xr:uid="{77C764F4-6F6B-46B1-A716-36875B89847C}"/>
+    <hyperlink ref="H47" r:id="rId83" xr:uid="{F83B0DD3-DF5D-4B25-8493-9089DB2B7366}"/>
+    <hyperlink ref="H51" r:id="rId84" xr:uid="{977EA399-34DA-4F32-A1BD-C5BDFA6590AC}"/>
+    <hyperlink ref="K32" r:id="rId85" xr:uid="{A2D2E9E3-9EE3-4110-9AFC-25241060161E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId86"/>
@@ -5581,7 +5661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2110127A-6DB5-413E-8873-1BEF9F2EE846}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" workbookViewId="0">
+    <sheetView topLeftCell="B28" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -5605,7 +5685,7 @@
         <v>788</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>789</v>
@@ -5646,7 +5726,7 @@
         <v>861</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D2" s="57" t="s">
         <v>936</v>
@@ -5661,7 +5741,7 @@
         <v>846</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C3" s="38" t="s">
         <v>861</v>
@@ -5681,7 +5761,7 @@
         <v>846</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C4" s="38" t="s">
         <v>861</v>
@@ -5704,7 +5784,7 @@
         <v>846</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>861</v>
@@ -5730,7 +5810,7 @@
         <v>846</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C6" s="38" t="s">
         <v>861</v>
@@ -5753,7 +5833,7 @@
         <v>846</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C7" s="38" t="s">
         <v>861</v>
@@ -5776,7 +5856,7 @@
         <v>911</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C8" s="38" t="s">
         <v>861</v>
@@ -5796,7 +5876,7 @@
         <v>911</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C9" s="38" t="s">
         <v>861</v>
@@ -5819,7 +5899,7 @@
         <v>911</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C10" s="38" t="s">
         <v>861</v>
@@ -5845,7 +5925,7 @@
         <v>911</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C11" s="38" t="s">
         <v>861</v>
@@ -5868,7 +5948,7 @@
         <v>911</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C12" s="38" t="s">
         <v>861</v>
@@ -5891,7 +5971,7 @@
         <v>916</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C13" s="38" t="s">
         <v>861</v>
@@ -5911,7 +5991,7 @@
         <v>916</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C14" s="38" t="s">
         <v>861</v>
@@ -5934,7 +6014,7 @@
         <v>916</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C15" s="38" t="s">
         <v>861</v>
@@ -5960,7 +6040,7 @@
         <v>916</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C16" s="38" t="s">
         <v>861</v>
@@ -5983,7 +6063,7 @@
         <v>916</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C17" s="38" t="s">
         <v>861</v>
@@ -6006,7 +6086,7 @@
         <v>924</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D18" s="60" t="s">
         <v>923</v>
@@ -6021,7 +6101,7 @@
         <v>922</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>924</v>
@@ -6041,7 +6121,7 @@
         <v>922</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C20" s="47" t="s">
         <v>924</v>
@@ -6064,7 +6144,7 @@
         <v>922</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C21" s="47" t="s">
         <v>924</v>
@@ -6090,7 +6170,7 @@
         <v>922</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C22" s="47" t="s">
         <v>924</v>
@@ -6113,7 +6193,7 @@
         <v>922</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C23" s="47" t="s">
         <v>924</v>
@@ -6136,7 +6216,7 @@
         <v>931</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C24" s="47" t="s">
         <v>924</v>
@@ -6156,7 +6236,7 @@
         <v>931</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C25" s="47" t="s">
         <v>924</v>
@@ -6179,7 +6259,7 @@
         <v>931</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C26" s="47" t="s">
         <v>924</v>
@@ -6205,7 +6285,7 @@
         <v>931</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C27" s="47" t="s">
         <v>924</v>
@@ -6228,7 +6308,7 @@
         <v>931</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C28" s="47" t="s">
         <v>924</v>
@@ -6251,7 +6331,7 @@
         <v>939</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C29" s="47" t="s">
         <v>924</v>
@@ -6271,7 +6351,7 @@
         <v>939</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C30" s="47" t="s">
         <v>924</v>
@@ -6294,7 +6374,7 @@
         <v>939</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C31" s="47" t="s">
         <v>924</v>
@@ -6320,7 +6400,7 @@
         <v>939</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C32" s="47" t="s">
         <v>924</v>
@@ -6343,7 +6423,7 @@
         <v>939</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C33" s="47" t="s">
         <v>924</v>
@@ -6366,7 +6446,7 @@
         <v>946</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D34" s="60" t="s">
         <v>945</v>
@@ -6381,7 +6461,7 @@
         <v>949</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C35" s="59" t="s">
         <v>946</v>
@@ -6401,7 +6481,7 @@
         <v>949</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C36" s="59" t="s">
         <v>946</v>
@@ -6424,7 +6504,7 @@
         <v>949</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C37" s="59" t="s">
         <v>946</v>
@@ -6450,7 +6530,7 @@
         <v>949</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C38" s="59" t="s">
         <v>946</v>
@@ -6473,7 +6553,7 @@
         <v>949</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C39" s="59" t="s">
         <v>946</v>
@@ -6496,7 +6576,7 @@
         <v>956</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C40" s="59" t="s">
         <v>946</v>
@@ -6516,7 +6596,7 @@
         <v>956</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C41" s="59" t="s">
         <v>946</v>
@@ -6539,7 +6619,7 @@
         <v>956</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C42" s="59" t="s">
         <v>946</v>
@@ -6565,7 +6645,7 @@
         <v>956</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C43" s="59" t="s">
         <v>946</v>
@@ -6588,7 +6668,7 @@
         <v>956</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C44" s="59" t="s">
         <v>946</v>
@@ -6611,7 +6691,7 @@
         <v>963</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C45" s="59" t="s">
         <v>946</v>
@@ -6631,7 +6711,7 @@
         <v>963</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C46" s="59" t="s">
         <v>946</v>
@@ -6654,7 +6734,7 @@
         <v>963</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C47" s="59" t="s">
         <v>946</v>
@@ -6680,7 +6760,7 @@
         <v>963</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C48" s="59" t="s">
         <v>946</v>
@@ -6703,7 +6783,7 @@
         <v>963</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C49" s="59" t="s">
         <v>946</v>
@@ -6808,14 +6888,14 @@
   <dimension ref="A1:AH20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="A17" sqref="A17:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="6" max="6" width="9.87890625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.52734375" customWidth="1"/>
-    <col min="8" max="8" width="12.46875" customWidth="1"/>
+    <col min="7" max="7" width="10.64453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1171875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.3515625" customWidth="1"/>
     <col min="12" max="12" width="17.76171875" customWidth="1"/>
     <col min="13" max="13" width="7.29296875" customWidth="1"/>
@@ -6849,7 +6929,7 @@
         <v>801</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>873</v>
@@ -6926,35 +7006,35 @@
     </row>
     <row r="2" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A2" s="47" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C2" s="63" t="s">
         <v>773</v>
       </c>
       <c r="E2" s="64" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F2" s="64" t="s">
         <v>1014</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="G2" s="64" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H2" s="64" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I2" s="64" t="s">
         <v>1015</v>
-      </c>
-      <c r="G2" s="64" t="s">
-        <v>1020</v>
-      </c>
-      <c r="H2" s="64" t="s">
-        <v>1074</v>
-      </c>
-      <c r="I2" s="64" t="s">
-        <v>1016</v>
       </c>
       <c r="J2" s="36"/>
       <c r="Q2" s="64" t="s">
         <v>101</v>
       </c>
       <c r="R2" s="64" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="S2" s="64" t="s">
         <v>851</v>
@@ -6963,7 +7043,7 @@
         <v>660</v>
       </c>
       <c r="U2" s="64" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="Z2" s="64" t="s">
         <v>97</v>
@@ -6974,56 +7054,56 @@
     </row>
     <row r="3" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A3" s="47" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C3" s="63" t="s">
         <v>773</v>
       </c>
       <c r="E3" s="64" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F3" s="64" t="s">
         <v>1014</v>
       </c>
-      <c r="F3" s="64" t="s">
-        <v>1015</v>
-      </c>
       <c r="G3" s="64" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H3" s="64" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I3" s="64" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="J3"/>
       <c r="K3" s="64" t="s">
+        <v>1018</v>
+      </c>
+      <c r="L3" s="64" t="s">
+        <v>1016</v>
+      </c>
+      <c r="O3" s="64" t="s">
+        <v>992</v>
+      </c>
+      <c r="P3" s="64" t="s">
         <v>1019</v>
-      </c>
-      <c r="L3" s="64" t="s">
-        <v>1017</v>
-      </c>
-      <c r="O3" s="64" t="s">
-        <v>993</v>
-      </c>
-      <c r="P3" s="64" t="s">
-        <v>1020</v>
       </c>
       <c r="Q3" s="64" t="s">
         <v>101</v>
       </c>
       <c r="R3" s="64" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="S3" s="64" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="T3" s="64" t="s">
         <v>847</v>
       </c>
       <c r="U3" s="64" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="V3" s="64" t="s">
         <v>606</v>
@@ -7046,7 +7126,7 @@
     </row>
     <row r="4" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A4" s="47" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B4" s="47" t="s">
         <v>857</v>
@@ -7055,32 +7135,32 @@
         <v>773</v>
       </c>
       <c r="E4" s="64" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F4" s="64" t="s">
         <v>1014</v>
       </c>
-      <c r="F4" s="64" t="s">
-        <v>1015</v>
-      </c>
       <c r="G4" s="64" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H4" s="64" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I4" s="64" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="J4" s="36"/>
       <c r="Q4" s="64" t="s">
         <v>95</v>
       </c>
       <c r="R4" s="64" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="S4" s="64" t="s">
         <v>968</v>
       </c>
       <c r="U4" s="64" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="V4" s="64" t="s">
         <v>606</v>
@@ -7100,35 +7180,35 @@
     </row>
     <row r="5" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A5" s="47" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C5" s="63" t="s">
         <v>773</v>
       </c>
       <c r="E5" s="64" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F5" s="64" t="s">
         <v>1014</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="G5" s="64" t="s">
+        <v>1072</v>
+      </c>
+      <c r="H5" s="64" t="s">
+        <v>1074</v>
+      </c>
+      <c r="I5" s="64" t="s">
         <v>1015</v>
-      </c>
-      <c r="G5" s="64" t="s">
-        <v>1073</v>
-      </c>
-      <c r="H5" s="64" t="s">
-        <v>1075</v>
-      </c>
-      <c r="I5" s="64" t="s">
-        <v>1016</v>
       </c>
       <c r="J5" s="36"/>
       <c r="Q5" s="64" t="s">
         <v>101</v>
       </c>
       <c r="R5" s="64" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="S5" s="64" t="s">
         <v>851</v>
@@ -7137,7 +7217,7 @@
         <v>660</v>
       </c>
       <c r="U5" s="64" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="Z5" s="64" t="s">
         <v>97</v>
@@ -7148,56 +7228,56 @@
     </row>
     <row r="6" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A6" s="47" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C6" s="63" t="s">
         <v>773</v>
       </c>
       <c r="E6" s="64" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F6" s="64" t="s">
         <v>1014</v>
       </c>
-      <c r="F6" s="64" t="s">
-        <v>1015</v>
-      </c>
       <c r="G6" s="64" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="H6" s="64" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I6" s="64" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="J6"/>
       <c r="K6" s="64" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="L6" s="64" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="O6" s="64" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="P6" s="64" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="Q6" s="64" t="s">
         <v>101</v>
       </c>
       <c r="R6" s="64" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="S6" s="64" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="T6" s="64" t="s">
         <v>847</v>
       </c>
       <c r="U6" s="64" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="V6" s="64" t="s">
         <v>606</v>
@@ -7220,7 +7300,7 @@
     </row>
     <row r="7" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A7" s="47" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B7" s="47" t="s">
         <v>857</v>
@@ -7229,32 +7309,32 @@
         <v>773</v>
       </c>
       <c r="E7" s="64" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F7" s="64" t="s">
         <v>1014</v>
       </c>
-      <c r="F7" s="64" t="s">
-        <v>1015</v>
-      </c>
       <c r="G7" s="64" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="H7" s="64" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I7" s="64" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="J7" s="36"/>
       <c r="Q7" s="64" t="s">
         <v>95</v>
       </c>
       <c r="R7" s="64" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="S7" s="64" t="s">
         <v>968</v>
       </c>
       <c r="U7" s="64" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="V7" s="64" t="s">
         <v>606</v>
@@ -7274,35 +7354,35 @@
     </row>
     <row r="8" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="47" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C8" s="63" t="s">
         <v>773</v>
       </c>
       <c r="E8" s="64" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F8" s="64" t="s">
         <v>1014</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="G8" s="64" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H8" s="64" t="s">
+        <v>1075</v>
+      </c>
+      <c r="I8" s="64" t="s">
         <v>1015</v>
-      </c>
-      <c r="G8" s="64" t="s">
-        <v>1022</v>
-      </c>
-      <c r="H8" s="64" t="s">
-        <v>1076</v>
-      </c>
-      <c r="I8" s="64" t="s">
-        <v>1016</v>
       </c>
       <c r="J8" s="36"/>
       <c r="Q8" s="64" t="s">
         <v>101</v>
       </c>
       <c r="R8" s="64" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="S8" s="64" t="s">
         <v>851</v>
@@ -7311,7 +7391,7 @@
         <v>660</v>
       </c>
       <c r="U8" s="64" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="Z8" s="64" t="s">
         <v>97</v>
@@ -7322,56 +7402,56 @@
     </row>
     <row r="9" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A9" s="47" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C9" s="63" t="s">
         <v>773</v>
       </c>
       <c r="E9" s="64" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F9" s="64" t="s">
         <v>1014</v>
       </c>
-      <c r="F9" s="64" t="s">
-        <v>1015</v>
-      </c>
       <c r="G9" s="64" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H9" s="64" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I9" s="64" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="J9"/>
       <c r="K9" s="64" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="L9" s="64" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="O9" s="64" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="P9" s="64" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="Q9" s="64" t="s">
         <v>101</v>
       </c>
       <c r="R9" s="64" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="S9" s="64" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="T9" s="64" t="s">
         <v>847</v>
       </c>
       <c r="U9" s="64" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="V9" s="64" t="s">
         <v>606</v>
@@ -7394,7 +7474,7 @@
     </row>
     <row r="10" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A10" s="47" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B10" s="47" t="s">
         <v>857</v>
@@ -7403,32 +7483,32 @@
         <v>773</v>
       </c>
       <c r="E10" s="64" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F10" s="64" t="s">
         <v>1014</v>
       </c>
-      <c r="F10" s="64" t="s">
-        <v>1015</v>
-      </c>
       <c r="G10" s="64" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H10" s="64" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I10" s="64" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="J10" s="36"/>
       <c r="Q10" s="64" t="s">
         <v>95</v>
       </c>
       <c r="R10" s="64" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="S10" s="64" t="s">
         <v>968</v>
       </c>
       <c r="U10" s="64" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="V10" s="64" t="s">
         <v>606</v>
@@ -7448,35 +7528,35 @@
     </row>
     <row r="11" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A11" s="47" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C11" s="63" t="s">
         <v>773</v>
       </c>
       <c r="E11" s="64" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F11" s="64" t="s">
         <v>1014</v>
       </c>
-      <c r="F11" s="64" t="s">
+      <c r="G11" s="64" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H11" s="64" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I11" s="64" t="s">
         <v>1015</v>
-      </c>
-      <c r="G11" s="64" t="s">
-        <v>1024</v>
-      </c>
-      <c r="H11" s="64" t="s">
-        <v>1009</v>
-      </c>
-      <c r="I11" s="64" t="s">
-        <v>1016</v>
       </c>
       <c r="J11" s="36"/>
       <c r="Q11" s="64" t="s">
         <v>101</v>
       </c>
       <c r="R11" s="64" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="S11" s="64" t="s">
         <v>851</v>
@@ -7485,7 +7565,7 @@
         <v>660</v>
       </c>
       <c r="U11" s="64" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="Z11" s="64" t="s">
         <v>97</v>
@@ -7496,56 +7576,56 @@
     </row>
     <row r="12" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A12" s="47" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C12" s="63" t="s">
         <v>773</v>
       </c>
       <c r="E12" s="64" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F12" s="64" t="s">
         <v>1014</v>
       </c>
-      <c r="F12" s="64" t="s">
-        <v>1015</v>
-      </c>
       <c r="G12" s="64" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H12" s="64" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="I12" s="64" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="J12"/>
       <c r="K12" s="64" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="L12" s="64" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="O12" s="64" t="s">
+        <v>1022</v>
+      </c>
+      <c r="P12" s="64" t="s">
         <v>1023</v>
-      </c>
-      <c r="P12" s="64" t="s">
-        <v>1024</v>
       </c>
       <c r="Q12" s="64" t="s">
         <v>101</v>
       </c>
       <c r="R12" s="64" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="S12" s="64" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="T12" s="64" t="s">
         <v>847</v>
       </c>
       <c r="U12" s="64" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="V12" s="64" t="s">
         <v>606</v>
@@ -7568,7 +7648,7 @@
     </row>
     <row r="13" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A13" s="47" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B13" s="47" t="s">
         <v>857</v>
@@ -7577,32 +7657,32 @@
         <v>773</v>
       </c>
       <c r="E13" s="64" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F13" s="64" t="s">
         <v>1014</v>
       </c>
-      <c r="F13" s="64" t="s">
-        <v>1015</v>
-      </c>
       <c r="G13" s="64" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H13" s="64" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="I13" s="64" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="J13" s="36"/>
       <c r="Q13" s="64" t="s">
         <v>95</v>
       </c>
       <c r="R13" s="64" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="S13" s="64" t="s">
         <v>968</v>
       </c>
       <c r="U13" s="64" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="V13" s="64" t="s">
         <v>606</v>
@@ -7622,35 +7702,35 @@
     </row>
     <row r="14" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A14" s="47" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C14" s="63" t="s">
         <v>773</v>
       </c>
       <c r="E14" s="64" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F14" s="64" t="s">
         <v>1014</v>
       </c>
-      <c r="F14" s="64" t="s">
+      <c r="G14" s="64" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H14" s="64" t="s">
+        <v>1076</v>
+      </c>
+      <c r="I14" s="64" t="s">
         <v>1015</v>
-      </c>
-      <c r="G14" s="64" t="s">
-        <v>1025</v>
-      </c>
-      <c r="H14" s="64" t="s">
-        <v>1077</v>
-      </c>
-      <c r="I14" s="64" t="s">
-        <v>1016</v>
       </c>
       <c r="J14" s="36"/>
       <c r="Q14" s="64" t="s">
         <v>101</v>
       </c>
       <c r="R14" s="64" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="S14" s="64" t="s">
         <v>851</v>
@@ -7659,7 +7739,7 @@
         <v>660</v>
       </c>
       <c r="U14" s="64" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="Z14" s="64" t="s">
         <v>97</v>
@@ -7670,56 +7750,56 @@
     </row>
     <row r="15" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A15" s="47" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C15" s="63" t="s">
         <v>773</v>
       </c>
       <c r="E15" s="64" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F15" s="64" t="s">
         <v>1014</v>
       </c>
-      <c r="F15" s="64" t="s">
-        <v>1015</v>
-      </c>
       <c r="G15" s="64" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H15" s="64" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="I15" s="64" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="J15"/>
       <c r="K15" s="64" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="L15" s="64" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="O15" s="64" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="P15" s="64" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="Q15" s="64" t="s">
         <v>101</v>
       </c>
       <c r="R15" s="64" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="S15" s="64" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="T15" s="64" t="s">
         <v>847</v>
       </c>
       <c r="U15" s="64" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="V15" s="64" t="s">
         <v>606</v>
@@ -7742,7 +7822,7 @@
     </row>
     <row r="16" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A16" s="47" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B16" s="47" t="s">
         <v>857</v>
@@ -7751,32 +7831,32 @@
         <v>773</v>
       </c>
       <c r="E16" s="64" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F16" s="64" t="s">
         <v>1014</v>
       </c>
-      <c r="F16" s="64" t="s">
-        <v>1015</v>
-      </c>
       <c r="G16" s="64" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H16" s="64" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="I16" s="64" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="J16" s="36"/>
       <c r="Q16" s="64" t="s">
         <v>95</v>
       </c>
       <c r="R16" s="64" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="S16" s="64" t="s">
         <v>968</v>
       </c>
       <c r="U16" s="64" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="V16" s="64" t="s">
         <v>606</v>
@@ -7796,29 +7876,29 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A17" s="47" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C17" s="63" t="s">
         <v>773</v>
       </c>
       <c r="D17" s="36"/>
       <c r="E17" s="36" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F17" s="36" t="s">
         <v>1014</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="G17" s="36" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I17" s="36" t="s">
         <v>1015</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>1071</v>
-      </c>
-      <c r="H17" s="36" t="s">
-        <v>1078</v>
-      </c>
-      <c r="I17" s="36" t="s">
-        <v>1016</v>
       </c>
       <c r="J17" s="36"/>
       <c r="K17" s="36"/>
@@ -7831,7 +7911,7 @@
         <v>101</v>
       </c>
       <c r="R17" s="36" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="S17" s="36" t="s">
         <v>851</v>
@@ -7840,7 +7920,7 @@
         <v>660</v>
       </c>
       <c r="U17" s="36" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="V17" s="36"/>
       <c r="W17" s="36"/>
@@ -7862,59 +7942,59 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A18" s="47" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C18" s="63" t="s">
         <v>773</v>
       </c>
       <c r="D18" s="36"/>
       <c r="E18" s="36" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F18" s="36" t="s">
         <v>1014</v>
       </c>
-      <c r="F18" s="36" t="s">
-        <v>1015</v>
-      </c>
       <c r="G18" s="36" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="J18" s="36"/>
       <c r="K18" s="36" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="L18" s="36" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="M18" s="36"/>
       <c r="N18" s="36"/>
       <c r="O18" s="54" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="P18" s="36" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="Q18" s="36" t="s">
         <v>101</v>
       </c>
       <c r="R18" s="36" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="S18" s="36" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="T18" s="36" t="s">
         <v>847</v>
       </c>
       <c r="U18" s="36" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="V18" s="36" t="s">
         <v>606</v>
@@ -7944,7 +8024,7 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A19" s="47" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B19" s="47" t="s">
         <v>857</v>
@@ -7954,19 +8034,19 @@
       </c>
       <c r="D19" s="36"/>
       <c r="E19" s="36" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F19" s="36" t="s">
         <v>1014</v>
       </c>
-      <c r="F19" s="36" t="s">
-        <v>1015</v>
-      </c>
       <c r="G19" s="36" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
@@ -7979,14 +8059,14 @@
         <v>95</v>
       </c>
       <c r="R19" s="36" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="S19" s="36" t="s">
         <v>968</v>
       </c>
       <c r="T19" s="36"/>
       <c r="U19" s="36" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="V19" s="36" t="s">
         <v>606</v>
@@ -8090,10 +8170,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45B9C2F-507D-45AA-A848-5675066405EC}">
   <dimension ref="A1:AF93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomLeft" activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -8108,7 +8188,7 @@
     <col min="11" max="11" width="8.17578125" customWidth="1"/>
     <col min="12" max="12" width="16.8203125" customWidth="1"/>
     <col min="13" max="13" width="13.3515625" customWidth="1"/>
-    <col min="14" max="14" width="10.64453125" customWidth="1"/>
+    <col min="14" max="14" width="35.17578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.17578125" customWidth="1"/>
     <col min="16" max="16" width="34.703125" customWidth="1"/>
     <col min="19" max="19" width="35.5859375" bestFit="1" customWidth="1"/>
@@ -8142,7 +8222,7 @@
         <v>801</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>873</v>
@@ -8237,7 +8317,7 @@
         <v>920</v>
       </c>
       <c r="H2" s="64" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I2" s="64" t="s">
         <v>838</v>
@@ -8297,7 +8377,7 @@
         <v>920</v>
       </c>
       <c r="H3" s="64" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I3" s="64" t="s">
         <v>839</v>
@@ -8322,7 +8402,7 @@
         <v>839</v>
       </c>
       <c r="S3" s="64" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="T3" s="64" t="s">
         <v>847</v>
@@ -8340,10 +8420,10 @@
         <v>97</v>
       </c>
       <c r="AA3" s="64" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="AB3" s="64" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AC3" s="64" t="s">
         <v>753</v>
@@ -8375,7 +8455,7 @@
         <v>920</v>
       </c>
       <c r="H4" s="64" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I4" s="64" t="s">
         <v>840</v>
@@ -8406,7 +8486,7 @@
         <v>97</v>
       </c>
       <c r="AB4" s="64" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AC4" s="64" t="s">
         <v>753</v>
@@ -8432,7 +8512,7 @@
         <v>967</v>
       </c>
       <c r="H5" s="64" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I5" s="64" t="s">
         <v>838</v>
@@ -8492,7 +8572,7 @@
         <v>967</v>
       </c>
       <c r="H6" s="64" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I6" s="64" t="s">
         <v>839</v>
@@ -8517,7 +8597,7 @@
         <v>839</v>
       </c>
       <c r="S6" s="64" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="T6" s="64" t="s">
         <v>847</v>
@@ -8535,10 +8615,10 @@
         <v>97</v>
       </c>
       <c r="AA6" s="64" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="AB6" s="64" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AC6" s="64" t="s">
         <v>753</v>
@@ -8570,7 +8650,7 @@
         <v>967</v>
       </c>
       <c r="H7" s="64" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I7" s="64" t="s">
         <v>840</v>
@@ -8601,7 +8681,7 @@
         <v>97</v>
       </c>
       <c r="AB7" s="64" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AC7" s="64" t="s">
         <v>753</v>
@@ -8627,7 +8707,7 @@
         <v>918</v>
       </c>
       <c r="H8" s="64" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="I8" s="64" t="s">
         <v>838</v>
@@ -8687,7 +8767,7 @@
         <v>918</v>
       </c>
       <c r="H9" s="64" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="I9" s="64" t="s">
         <v>839</v>
@@ -8712,7 +8792,7 @@
         <v>839</v>
       </c>
       <c r="S9" s="64" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="T9" s="64" t="s">
         <v>847</v>
@@ -8730,10 +8810,10 @@
         <v>97</v>
       </c>
       <c r="AA9" s="64" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="AB9" s="64" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AC9" s="64" t="s">
         <v>753</v>
@@ -8765,7 +8845,7 @@
         <v>918</v>
       </c>
       <c r="H10" s="64" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="I10" s="64" t="s">
         <v>840</v>
@@ -8796,7 +8876,7 @@
         <v>97</v>
       </c>
       <c r="AB10" s="64" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AC10" s="64" t="s">
         <v>753</v>
@@ -8822,7 +8902,7 @@
         <v>982</v>
       </c>
       <c r="H11" s="64" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I11" s="64" t="s">
         <v>838</v>
@@ -8882,7 +8962,7 @@
         <v>982</v>
       </c>
       <c r="H12" s="64" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I12" s="64" t="s">
         <v>839</v>
@@ -8907,7 +8987,7 @@
         <v>839</v>
       </c>
       <c r="S12" s="64" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="T12" s="64" t="s">
         <v>847</v>
@@ -8925,10 +9005,10 @@
         <v>97</v>
       </c>
       <c r="AA12" s="64" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="AB12" s="64" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AC12" s="64" t="s">
         <v>753</v>
@@ -8960,7 +9040,7 @@
         <v>982</v>
       </c>
       <c r="H13" s="64" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I13" s="64" t="s">
         <v>840</v>
@@ -8991,7 +9071,7 @@
         <v>97</v>
       </c>
       <c r="AB13" s="64" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AC13" s="64" t="s">
         <v>753</v>
@@ -9017,7 +9097,7 @@
         <v>933</v>
       </c>
       <c r="H14" s="64" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="I14" s="64" t="s">
         <v>838</v>
@@ -9077,7 +9157,7 @@
         <v>933</v>
       </c>
       <c r="H15" s="64" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="I15" s="64" t="s">
         <v>839</v>
@@ -9102,7 +9182,7 @@
         <v>839</v>
       </c>
       <c r="S15" s="64" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="T15" s="64" t="s">
         <v>847</v>
@@ -9123,7 +9203,7 @@
         <v>97</v>
       </c>
       <c r="AB15" s="64" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AC15" s="64" t="s">
         <v>753</v>
@@ -9155,7 +9235,7 @@
         <v>933</v>
       </c>
       <c r="H16" s="64" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="I16" s="64" t="s">
         <v>840</v>
@@ -9186,7 +9266,7 @@
         <v>97</v>
       </c>
       <c r="AB16" s="64" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AC16" s="64" t="s">
         <v>753</v>
@@ -9212,7 +9292,7 @@
         <v>986</v>
       </c>
       <c r="H17" s="64" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="I17" s="64" t="s">
         <v>838</v>
@@ -9272,7 +9352,7 @@
         <v>986</v>
       </c>
       <c r="H18" s="64" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="I18" s="64" t="s">
         <v>839</v>
@@ -9297,7 +9377,7 @@
         <v>839</v>
       </c>
       <c r="S18" s="64" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="T18" s="64" t="s">
         <v>847</v>
@@ -9318,7 +9398,7 @@
         <v>97</v>
       </c>
       <c r="AB18" s="64" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AC18" s="64" t="s">
         <v>753</v>
@@ -9350,7 +9430,7 @@
         <v>986</v>
       </c>
       <c r="H19" s="64" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="I19" s="64" t="s">
         <v>840</v>
@@ -9381,7 +9461,7 @@
         <v>97</v>
       </c>
       <c r="AB19" s="64" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AC19" s="64" t="s">
         <v>753</v>
@@ -9477,14 +9557,11 @@
       <c r="L21" s="36" t="s">
         <v>969</v>
       </c>
-      <c r="O21" s="36" t="s">
+      <c r="N21" s="36" t="s">
+        <v>1086</v>
+      </c>
+      <c r="Q21" s="36" t="s">
         <v>991</v>
-      </c>
-      <c r="P21" s="36" t="s">
-        <v>988</v>
-      </c>
-      <c r="Q21" s="36" t="s">
-        <v>992</v>
       </c>
       <c r="R21" s="36" t="s">
         <v>969</v>
@@ -9552,7 +9629,7 @@
         <v>839</v>
       </c>
       <c r="S22" s="36" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="T22" s="36" t="s">
         <v>847</v>
@@ -9661,7 +9738,7 @@
         <v>959</v>
       </c>
       <c r="H24" s="36" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I24" s="36" t="s">
         <v>838</v>
@@ -9721,7 +9798,7 @@
         <v>959</v>
       </c>
       <c r="H25" s="36" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I25" s="36" t="s">
         <v>969</v>
@@ -9732,14 +9809,11 @@
       <c r="L25" s="36" t="s">
         <v>969</v>
       </c>
-      <c r="O25" s="36" t="s">
+      <c r="N25" s="36" t="s">
+        <v>1086</v>
+      </c>
+      <c r="Q25" s="36" t="s">
         <v>991</v>
-      </c>
-      <c r="P25" s="36" t="s">
-        <v>988</v>
-      </c>
-      <c r="Q25" s="36" t="s">
-        <v>992</v>
       </c>
       <c r="R25" s="36" t="s">
         <v>969</v>
@@ -9782,7 +9856,7 @@
         <v>959</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I26" s="36" t="s">
         <v>839</v>
@@ -9806,7 +9880,7 @@
         <v>839</v>
       </c>
       <c r="S26" s="36" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="T26" s="36" t="s">
         <v>847</v>
@@ -9859,7 +9933,7 @@
         <v>959</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I27" s="36" t="s">
         <v>840</v>
@@ -9986,14 +10060,11 @@
       <c r="L29" s="36" t="s">
         <v>969</v>
       </c>
-      <c r="O29" s="36" t="s">
+      <c r="N29" s="36" t="s">
+        <v>1086</v>
+      </c>
+      <c r="Q29" s="36" t="s">
         <v>991</v>
-      </c>
-      <c r="P29" s="36" t="s">
-        <v>988</v>
-      </c>
-      <c r="Q29" s="36" t="s">
-        <v>992</v>
       </c>
       <c r="R29" s="36" t="s">
         <v>969</v>
@@ -10059,7 +10130,7 @@
         <v>839</v>
       </c>
       <c r="S30" s="36" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="T30" s="36" t="s">
         <v>847</v>
@@ -11995,12 +12066,12 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" s="3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
   </sheetData>
@@ -12010,34 +12081,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6575D01-805D-0E4D-89C4-3AB8EBDBFBB8}">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A68"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.9375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="35.9375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="22.64453125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="68.76171875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.29296875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.3515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="7.52734375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.1171875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="31.29296875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.87890625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="13.9375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.87890625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.76171875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.87890625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.64453125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="68.76171875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.64453125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.5859375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.52734375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.1171875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="31.29296875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.87890625" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>788</v>
@@ -12049,36 +12121,39 @@
         <v>790</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>796</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>874</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>876</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>793</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="30" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:14" s="30" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A2" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>686</v>
@@ -12086,17 +12161,20 @@
       <c r="D2" s="31" t="s">
         <v>687</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33" t="s">
+      <c r="E2" s="31" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33" t="s">
         <v>688</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="32"/>
-      <c r="M2" s="32"/>
-    </row>
-    <row r="3" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="H2" s="51"/>
+      <c r="I2" s="32"/>
+      <c r="N2" s="32"/>
+    </row>
+    <row r="3" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A3" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>683</v>
@@ -12107,19 +12185,20 @@
       <c r="D3" s="31" t="s">
         <v>684</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="31"/>
+      <c r="F3" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="G3" s="33" t="s">
         <v>685</v>
       </c>
-      <c r="G3" s="33"/>
       <c r="H3" s="33"/>
-      <c r="M3" s="32"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="I3" s="33"/>
+      <c r="N3" s="32"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>57</v>
@@ -12130,16 +12209,19 @@
       <c r="D4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="9" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A5" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B5" s="37" t="s">
         <v>57</v>
@@ -12150,20 +12232,21 @@
       <c r="D5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="E5" s="9"/>
+      <c r="K5" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="L5" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="M5" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="M5" s="16"/>
-    </row>
-    <row r="6" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="N5" s="16"/>
+    </row>
+    <row r="6" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A6" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>57</v>
@@ -12174,20 +12257,21 @@
       <c r="D6" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="E6" s="9"/>
+      <c r="K6" s="37" t="s">
         <v>740</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="L6" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="M6" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="M6" s="16"/>
-    </row>
-    <row r="7" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="N6" s="16"/>
+    </row>
+    <row r="7" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A7" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B7" s="37" t="s">
         <v>57</v>
@@ -12198,22 +12282,23 @@
       <c r="D7" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="37" t="s">
+      <c r="E7" s="9"/>
+      <c r="K7" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="L7" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="M7" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="M7" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="N7" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B8" s="37" t="s">
         <v>57</v>
@@ -12224,22 +12309,23 @@
       <c r="D8" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="E8" s="9"/>
+      <c r="K8" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="L8" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="M8" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="N8" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A9" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B9" s="37" t="s">
         <v>70</v>
@@ -12250,16 +12336,19 @@
       <c r="D9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A10" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B10" s="37" t="s">
         <v>70</v>
@@ -12270,20 +12359,21 @@
       <c r="D10" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="E10" s="9"/>
+      <c r="K10" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="L10" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="M10" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="M10" s="16"/>
-    </row>
-    <row r="11" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="N10" s="16"/>
+    </row>
+    <row r="11" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A11" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B11" s="37" t="s">
         <v>70</v>
@@ -12294,20 +12384,21 @@
       <c r="D11" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="37" t="s">
+      <c r="E11" s="9"/>
+      <c r="K11" s="37" t="s">
         <v>740</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="L11" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="M11" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="M11" s="16"/>
-    </row>
-    <row r="12" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="N11" s="16"/>
+    </row>
+    <row r="12" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A12" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B12" s="37" t="s">
         <v>70</v>
@@ -12318,20 +12409,21 @@
       <c r="D12" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="E12" s="9"/>
+      <c r="K12" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="L12" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="M12" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="M12" s="16"/>
-    </row>
-    <row r="13" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="N12" s="16"/>
+    </row>
+    <row r="13" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A13" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B13" s="37" t="s">
         <v>70</v>
@@ -12342,22 +12434,23 @@
       <c r="D13" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="E13" s="9"/>
+      <c r="K13" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="L13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="M13" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="N13" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:14" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B14" s="37" t="s">
         <v>79</v>
@@ -12368,16 +12461,19 @@
       <c r="D14" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A15" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B15" s="37" t="s">
         <v>79</v>
@@ -12388,20 +12484,21 @@
       <c r="D15" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="J15" s="37" t="s">
+      <c r="E15" s="9"/>
+      <c r="K15" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="L15" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="M15" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="M15" s="16"/>
-    </row>
-    <row r="16" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="N15" s="16"/>
+    </row>
+    <row r="16" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A16" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B16" s="37" t="s">
         <v>79</v>
@@ -12412,20 +12509,21 @@
       <c r="D16" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="J16" s="37" t="s">
+      <c r="E16" s="9"/>
+      <c r="K16" s="37" t="s">
         <v>740</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="L16" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="M16" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="M16" s="16"/>
-    </row>
-    <row r="17" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="N16" s="16"/>
+    </row>
+    <row r="17" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A17" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B17" s="37" t="s">
         <v>79</v>
@@ -12436,22 +12534,23 @@
       <c r="D17" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="E17" s="9"/>
+      <c r="K17" s="8" t="s">
         <v>836</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="L17" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="M17" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="M17" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="N17" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A18" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>79</v>
@@ -12462,22 +12561,23 @@
       <c r="D18" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="J18" s="37" t="s">
+      <c r="E18" s="9"/>
+      <c r="K18" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="L18" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="M18" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="M18" s="9" t="s">
+      <c r="N18" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A19" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B19" s="37" t="s">
         <v>83</v>
@@ -12489,26 +12589,29 @@
         <v>84</v>
       </c>
       <c r="E19" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="J19" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="I19" s="3"/>
       <c r="K19" s="9" t="s">
         <v>3</v>
       </c>
       <c r="L19" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="M19" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A20" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B20" s="37" t="s">
         <v>83</v>
@@ -12519,19 +12622,19 @@
       <c r="D20" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J20" s="37" t="s">
+      <c r="K20" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="L20" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="M20" s="9" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A21" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B21" s="37" t="s">
         <v>83</v>
@@ -12542,19 +12645,19 @@
       <c r="D21" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J21" s="37" t="s">
+      <c r="K21" s="37" t="s">
         <v>740</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="L21" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="L21" s="9" t="s">
+      <c r="M21" s="9" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A22" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B22" s="37" t="s">
         <v>83</v>
@@ -12565,22 +12668,22 @@
       <c r="D22" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="K22" s="8" t="s">
         <v>836</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="L22" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="L22" s="9" t="s">
+      <c r="M22" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="M22" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="N22" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A23" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B23" s="37" t="s">
         <v>83</v>
@@ -12591,22 +12694,22 @@
       <c r="D23" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J23" s="37" t="s">
+      <c r="K23" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="L23" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L23" s="9" t="s">
+      <c r="M23" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="M23" s="9" t="s">
+      <c r="N23" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A24" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B24" s="37" t="s">
         <v>702</v>
@@ -12617,13 +12720,16 @@
       <c r="D24" s="9" t="s">
         <v>703</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="E24" s="9" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="9" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:14" s="9" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A25" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B25" s="37" t="s">
         <v>699</v>
@@ -12634,15 +12740,18 @@
       <c r="D25" s="9" t="s">
         <v>700</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="E25" s="9" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G25" s="16" t="s">
         <v>701</v>
       </c>
-      <c r="G25" s="16"/>
       <c r="H25" s="16"/>
-    </row>
-    <row r="26" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="I25" s="16"/>
+    </row>
+    <row r="26" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A26" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>785</v>
@@ -12654,31 +12763,34 @@
         <v>705</v>
       </c>
       <c r="E26" s="9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="50" t="s">
+      <c r="G26" s="16"/>
+      <c r="H26" s="50" t="s">
         <v>878</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="I26" s="16" t="s">
         <v>877</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="J26" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="J26" s="9" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="9" t="s">
         <v>3</v>
       </c>
       <c r="L26" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="M26" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A27" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>785</v>
@@ -12689,19 +12801,19 @@
       <c r="D27" s="9" t="s">
         <v>705</v>
       </c>
-      <c r="J27" s="37" t="s">
+      <c r="K27" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="K27" s="9" t="s">
+      <c r="L27" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="L27" s="9" t="s">
+      <c r="M27" s="9" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A28" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>785</v>
@@ -12712,19 +12824,19 @@
       <c r="D28" s="9" t="s">
         <v>705</v>
       </c>
-      <c r="J28" s="37" t="s">
+      <c r="K28" s="37" t="s">
         <v>740</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="L28" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="L28" s="9" t="s">
+      <c r="M28" s="9" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A29" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>785</v>
@@ -12735,25 +12847,25 @@
       <c r="D29" s="9" t="s">
         <v>705</v>
       </c>
-      <c r="F29" s="20"/>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
-      <c r="J29" s="37" t="s">
+      <c r="I29" s="20"/>
+      <c r="K29" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="K29" s="9" t="s">
+      <c r="L29" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L29" s="9" t="s">
+      <c r="M29" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="M29" s="9" t="s">
+      <c r="N29" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A30" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>785</v>
@@ -12764,22 +12876,22 @@
       <c r="D30" s="9" t="s">
         <v>705</v>
       </c>
-      <c r="J30" s="37" t="s">
+      <c r="K30" s="37" t="s">
         <v>742</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="L30" s="9" t="s">
         <v>743</v>
       </c>
-      <c r="L30" s="9" t="s">
+      <c r="M30" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="M30" s="9" t="s">
+      <c r="N30" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:14" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A31" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B31" s="37" t="s">
         <v>693</v>
@@ -12790,18 +12902,18 @@
       <c r="D31" s="9" t="s">
         <v>694</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="F31" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="G31" s="16" t="s">
         <v>695</v>
       </c>
-      <c r="G31" s="16"/>
       <c r="H31" s="16"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="I31" s="16"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A32" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B32" s="37" t="s">
         <v>556</v>
@@ -12812,25 +12924,28 @@
       <c r="D32" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="9" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="G32" s="50" t="s">
+      <c r="H32" s="50" t="s">
         <v>878</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="I32" s="16" t="s">
         <v>877</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A33" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B33" s="37" t="s">
         <v>556</v>
@@ -12841,20 +12956,21 @@
       <c r="D33" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="J33" s="37" t="s">
+      <c r="E33" s="9"/>
+      <c r="K33" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="K33" s="9" t="s">
+      <c r="L33" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="L33" s="9" t="s">
+      <c r="M33" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="M33" s="16"/>
-    </row>
-    <row r="34" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="N33" s="16"/>
+    </row>
+    <row r="34" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A34" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B34" s="37" t="s">
         <v>556</v>
@@ -12865,20 +12981,21 @@
       <c r="D34" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="J34" s="37" t="s">
+      <c r="E34" s="9"/>
+      <c r="K34" s="37" t="s">
         <v>740</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="L34" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="L34" s="9" t="s">
+      <c r="M34" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="M34" s="16"/>
-    </row>
-    <row r="35" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="N34" s="16"/>
+    </row>
+    <row r="35" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A35" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B35" s="37" t="s">
         <v>556</v>
@@ -12889,22 +13006,23 @@
       <c r="D35" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="J35" s="37" t="s">
+      <c r="E35" s="9"/>
+      <c r="K35" s="37" t="s">
         <v>581</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="L35" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="L35" s="9" t="s">
+      <c r="M35" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="M35" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="N35" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A36" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B36" s="37" t="s">
         <v>556</v>
@@ -12915,22 +13033,23 @@
       <c r="D36" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="J36" s="37" t="s">
+      <c r="E36" s="9"/>
+      <c r="K36" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="K36" s="9" t="s">
+      <c r="L36" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L36" s="9" t="s">
+      <c r="M36" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="M36" s="9" t="s">
+      <c r="N36" s="9" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:14" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A37" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B37" s="37" t="s">
         <v>583</v>
@@ -12941,25 +13060,28 @@
       <c r="D37" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="9" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="G37" s="50" t="s">
+      <c r="H37" s="50" t="s">
         <v>878</v>
       </c>
-      <c r="H37" s="16" t="s">
+      <c r="I37" s="16" t="s">
         <v>877</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A38" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B38" s="37" t="s">
         <v>583</v>
@@ -12970,20 +13092,21 @@
       <c r="D38" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="J38" s="37" t="s">
+      <c r="E38" s="9"/>
+      <c r="K38" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="K38" s="9" t="s">
+      <c r="L38" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="L38" s="9" t="s">
+      <c r="M38" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="M38" s="16"/>
-    </row>
-    <row r="39" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="N38" s="16"/>
+    </row>
+    <row r="39" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A39" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B39" s="37" t="s">
         <v>583</v>
@@ -12994,20 +13117,21 @@
       <c r="D39" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="J39" s="37" t="s">
+      <c r="E39" s="9"/>
+      <c r="K39" s="37" t="s">
         <v>740</v>
       </c>
-      <c r="K39" s="9" t="s">
+      <c r="L39" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="L39" s="9" t="s">
+      <c r="M39" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="M39" s="16"/>
-    </row>
-    <row r="40" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="N39" s="16"/>
+    </row>
+    <row r="40" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A40" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B40" s="37" t="s">
         <v>583</v>
@@ -13018,22 +13142,23 @@
       <c r="D40" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="J40" s="37" t="s">
+      <c r="E40" s="9"/>
+      <c r="K40" s="37" t="s">
         <v>581</v>
       </c>
-      <c r="K40" s="9" t="s">
+      <c r="L40" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="L40" s="9" t="s">
+      <c r="M40" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="M40" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="N40" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A41" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B41" s="37" t="s">
         <v>583</v>
@@ -13044,22 +13169,23 @@
       <c r="D41" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="J41" s="37" t="s">
+      <c r="E41" s="9"/>
+      <c r="K41" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="K41" s="9" t="s">
+      <c r="L41" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L41" s="9" t="s">
+      <c r="M41" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="M41" s="9" t="s">
+      <c r="N41" s="9" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:14" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A42" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B42" s="37" t="s">
         <v>610</v>
@@ -13070,28 +13196,31 @@
       <c r="D42" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="G42" s="50" t="s">
+      <c r="H42" s="50" t="s">
         <v>878</v>
       </c>
-      <c r="H42" s="16" t="s">
+      <c r="I42" s="16" t="s">
         <v>877</v>
       </c>
-      <c r="I42" s="9" t="s">
+      <c r="J42" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A43" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B43" s="37" t="s">
         <v>610</v>
@@ -13103,20 +13232,21 @@
         <v>611</v>
       </c>
       <c r="E43" s="9"/>
-      <c r="J43" s="37" t="s">
+      <c r="F43" s="9"/>
+      <c r="K43" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="K43" s="9" t="s">
+      <c r="L43" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="L43" s="9" t="s">
+      <c r="M43" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="M43" s="16"/>
-    </row>
-    <row r="44" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="N43" s="16"/>
+    </row>
+    <row r="44" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A44" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B44" s="37" t="s">
         <v>610</v>
@@ -13127,20 +13257,21 @@
       <c r="D44" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="J44" s="37" t="s">
+      <c r="E44" s="9"/>
+      <c r="K44" s="37" t="s">
         <v>740</v>
       </c>
-      <c r="K44" s="9" t="s">
+      <c r="L44" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="L44" s="9" t="s">
+      <c r="M44" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="M44" s="16"/>
-    </row>
-    <row r="45" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="N44" s="16"/>
+    </row>
+    <row r="45" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A45" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B45" s="37" t="s">
         <v>610</v>
@@ -13151,22 +13282,23 @@
       <c r="D45" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="J45" s="37" t="s">
+      <c r="E45" s="9"/>
+      <c r="K45" s="37" t="s">
         <v>581</v>
       </c>
-      <c r="K45" s="9" t="s">
+      <c r="L45" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="L45" s="9" t="s">
+      <c r="M45" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="M45" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="N45" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A46" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B46" s="37" t="s">
         <v>610</v>
@@ -13177,22 +13309,23 @@
       <c r="D46" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="J46" s="37" t="s">
+      <c r="E46" s="9"/>
+      <c r="K46" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="K46" s="9" t="s">
+      <c r="L46" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L46" s="9" t="s">
+      <c r="M46" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="M46" s="9" t="s">
+      <c r="N46" s="9" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:14" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A47" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B47" s="37" t="s">
         <v>625</v>
@@ -13203,20 +13336,23 @@
       <c r="D47" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="I47" s="9"/>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="J47" s="9"/>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A48" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B48" s="37" t="s">
         <v>625</v>
@@ -13228,20 +13364,21 @@
         <v>627</v>
       </c>
       <c r="E48" s="9"/>
-      <c r="J48" s="37" t="s">
+      <c r="F48" s="9"/>
+      <c r="K48" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="K48" s="9" t="s">
+      <c r="L48" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="L48" s="9" t="s">
+      <c r="M48" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="M48" s="16"/>
-    </row>
-    <row r="49" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="N48" s="16"/>
+    </row>
+    <row r="49" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A49" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B49" s="37" t="s">
         <v>625</v>
@@ -13252,20 +13389,21 @@
       <c r="D49" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="J49" s="37" t="s">
+      <c r="E49" s="9"/>
+      <c r="K49" s="37" t="s">
         <v>740</v>
       </c>
-      <c r="K49" s="9" t="s">
+      <c r="L49" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="L49" s="9" t="s">
+      <c r="M49" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="M49" s="16"/>
-    </row>
-    <row r="50" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="N49" s="16"/>
+    </row>
+    <row r="50" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A50" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B50" s="37" t="s">
         <v>625</v>
@@ -13276,22 +13414,23 @@
       <c r="D50" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="J50" s="8" t="s">
+      <c r="E50" s="9"/>
+      <c r="K50" s="8" t="s">
         <v>836</v>
       </c>
-      <c r="K50" s="9" t="s">
+      <c r="L50" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="L50" s="9" t="s">
+      <c r="M50" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="M50" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="N50" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A51" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B51" s="37" t="s">
         <v>625</v>
@@ -13302,22 +13441,23 @@
       <c r="D51" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="J51" s="37" t="s">
+      <c r="E51" s="9"/>
+      <c r="K51" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="K51" s="9" t="s">
+      <c r="L51" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L51" s="9" t="s">
+      <c r="M51" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="M51" s="9" t="s">
+      <c r="N51" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="7" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:14" s="7" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A52" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B52" s="37" t="s">
         <v>691</v>
@@ -13326,19 +13466,22 @@
       <c r="D52" s="9" t="s">
         <v>692</v>
       </c>
-      <c r="F52" s="16" t="s">
+      <c r="E52" s="9" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G52" s="16" t="s">
         <v>835</v>
       </c>
-      <c r="G52" s="16"/>
       <c r="H52" s="16"/>
-      <c r="J52" s="9"/>
+      <c r="I52" s="16"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N52" s="9"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A53" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B53" s="37" t="s">
         <v>73</v>
@@ -13350,24 +13493,27 @@
         <v>74</v>
       </c>
       <c r="E53" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F53" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="G53" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="G53" s="50" t="s">
+      <c r="H53" s="50" t="s">
         <v>878</v>
       </c>
-      <c r="H53" s="16" t="s">
+      <c r="I53" s="16" t="s">
         <v>877</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="J53" s="2" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A54" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B54" s="37" t="s">
         <v>73</v>
@@ -13378,23 +13524,23 @@
       <c r="D54" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F54" s="16"/>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
-      <c r="J54" s="37" t="s">
+      <c r="I54" s="16"/>
+      <c r="K54" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="K54" s="9" t="s">
+      <c r="L54" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="L54" s="9" t="s">
+      <c r="M54" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="M54" s="9"/>
-    </row>
-    <row r="55" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A55" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B55" s="37" t="s">
         <v>73</v>
@@ -13405,23 +13551,24 @@
       <c r="D55" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F55" s="13"/>
+      <c r="E55" s="9"/>
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
-      <c r="J55" s="37" t="s">
+      <c r="I55" s="13"/>
+      <c r="K55" s="37" t="s">
         <v>740</v>
       </c>
-      <c r="K55" s="9" t="s">
+      <c r="L55" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="L55" s="9" t="s">
+      <c r="M55" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="M55" s="9"/>
-    </row>
-    <row r="56" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="N55" s="9"/>
+    </row>
+    <row r="56" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A56" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B56" s="37" t="s">
         <v>73</v>
@@ -13432,25 +13579,26 @@
       <c r="D56" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F56" s="13"/>
+      <c r="E56" s="9"/>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
-      <c r="J56" s="37" t="s">
+      <c r="I56" s="13"/>
+      <c r="K56" s="37" t="s">
         <v>656</v>
       </c>
-      <c r="K56" s="9" t="s">
+      <c r="L56" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="L56" s="9" t="s">
+      <c r="M56" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="M56" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="N56" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A57" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B57" s="37" t="s">
         <v>73</v>
@@ -13461,25 +13609,26 @@
       <c r="D57" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F57" s="13"/>
+      <c r="E57" s="9"/>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
-      <c r="J57" s="37" t="s">
+      <c r="I57" s="13"/>
+      <c r="K57" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="K57" s="9" t="s">
+      <c r="L57" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L57" s="9" t="s">
+      <c r="M57" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="M57" s="9" t="s">
+      <c r="N57" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="7" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:14" s="7" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A58" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B58" s="37" t="s">
         <v>680</v>
@@ -13490,19 +13639,22 @@
       <c r="D58" s="9" t="s">
         <v>681</v>
       </c>
-      <c r="F58" s="16" t="s">
+      <c r="E58" s="9" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G58" s="16" t="s">
         <v>682</v>
       </c>
-      <c r="G58" s="16"/>
       <c r="H58" s="16"/>
-      <c r="J58" s="9"/>
+      <c r="I58" s="16"/>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
-    </row>
-    <row r="59" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="N58" s="9"/>
+    </row>
+    <row r="59" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A59" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B59" s="37" t="s">
         <v>674</v>
@@ -13513,29 +13665,32 @@
       <c r="D59" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="9" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="G59" s="9" t="s">
         <v>675</v>
       </c>
-      <c r="G59" s="50" t="s">
+      <c r="H59" s="50" t="s">
         <v>878</v>
       </c>
-      <c r="H59" s="16" t="s">
+      <c r="I59" s="16" t="s">
         <v>877</v>
       </c>
-      <c r="I59" s="9" t="s">
+      <c r="J59" s="9" t="s">
         <v>889</v>
       </c>
-      <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
-    </row>
-    <row r="60" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="N59" s="9"/>
+    </row>
+    <row r="60" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A60" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B60" s="37" t="s">
         <v>674</v>
@@ -13546,24 +13701,25 @@
       <c r="D60" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="2"/>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
-      <c r="J60" s="37" t="s">
+      <c r="I60" s="9"/>
+      <c r="K60" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="K60" s="9" t="s">
+      <c r="L60" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="L60" s="9" t="s">
+      <c r="M60" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="M60" s="16"/>
-    </row>
-    <row r="61" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="N60" s="16"/>
+    </row>
+    <row r="61" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A61" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B61" s="37" t="s">
         <v>674</v>
@@ -13574,24 +13730,25 @@
       <c r="D61" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="2"/>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
-      <c r="J61" s="37" t="s">
+      <c r="I61" s="9"/>
+      <c r="K61" s="37" t="s">
         <v>740</v>
       </c>
-      <c r="K61" s="9" t="s">
+      <c r="L61" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="L61" s="9" t="s">
+      <c r="M61" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="M61" s="16"/>
-    </row>
-    <row r="62" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="N61" s="16"/>
+    </row>
+    <row r="62" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A62" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B62" s="37" t="s">
         <v>674</v>
@@ -13602,26 +13759,27 @@
       <c r="D62" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="2"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
-      <c r="J62" s="37" t="s">
+      <c r="I62" s="9"/>
+      <c r="K62" s="37" t="s">
         <v>652</v>
       </c>
-      <c r="K62" s="9" t="s">
+      <c r="L62" s="9" t="s">
         <v>644</v>
       </c>
-      <c r="L62" s="9" t="s">
+      <c r="M62" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="M62" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="N62" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A63" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B63" s="37" t="s">
         <v>674</v>
@@ -13632,26 +13790,27 @@
       <c r="D63" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="2"/>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
-      <c r="J63" s="37" t="s">
+      <c r="I63" s="9"/>
+      <c r="K63" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="K63" s="9" t="s">
+      <c r="L63" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L63" s="9" t="s">
+      <c r="M63" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="M63" s="9" t="s">
+      <c r="N63" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:14" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A64" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B64" s="37" t="s">
         <v>649</v>
@@ -13662,28 +13821,31 @@
       <c r="D64" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="G64" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="G64" s="50" t="s">
+      <c r="H64" s="50" t="s">
         <v>878</v>
       </c>
-      <c r="H64" s="16" t="s">
+      <c r="I64" s="16" t="s">
         <v>877</v>
       </c>
-      <c r="I64" s="9" t="s">
+      <c r="J64" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="M64" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="N64" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A65" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B65" s="37" t="s">
         <v>649</v>
@@ -13695,20 +13857,21 @@
         <v>650</v>
       </c>
       <c r="E65" s="9"/>
-      <c r="J65" s="37" t="s">
+      <c r="F65" s="9"/>
+      <c r="K65" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="K65" s="9" t="s">
+      <c r="L65" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="L65" s="9" t="s">
+      <c r="M65" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="M65" s="16"/>
-    </row>
-    <row r="66" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="N65" s="16"/>
+    </row>
+    <row r="66" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A66" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B66" s="37" t="s">
         <v>649</v>
@@ -13719,20 +13882,21 @@
       <c r="D66" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="J66" s="37" t="s">
+      <c r="E66" s="9"/>
+      <c r="K66" s="37" t="s">
         <v>740</v>
       </c>
-      <c r="K66" s="9" t="s">
+      <c r="L66" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="L66" s="9" t="s">
+      <c r="M66" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="M66" s="16"/>
-    </row>
-    <row r="67" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="N66" s="16"/>
+    </row>
+    <row r="67" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A67" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B67" s="37" t="s">
         <v>649</v>
@@ -13743,22 +13907,23 @@
       <c r="D67" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="J67" s="37" t="s">
+      <c r="E67" s="9"/>
+      <c r="K67" s="37" t="s">
         <v>652</v>
       </c>
-      <c r="K67" s="9" t="s">
+      <c r="L67" s="9" t="s">
         <v>644</v>
       </c>
-      <c r="L67" s="9" t="s">
+      <c r="M67" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="M67" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="N67" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A68" s="66" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B68" s="37" t="s">
         <v>649</v>
@@ -13769,16 +13934,17 @@
       <c r="D68" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="J68" s="37" t="s">
+      <c r="E68" s="9"/>
+      <c r="K68" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="K68" s="9" t="s">
+      <c r="L68" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L68" s="9" t="s">
+      <c r="M68" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="M68" s="9" t="s">
+      <c r="N68" s="9" t="s">
         <v>77</v>
       </c>
     </row>
@@ -13803,50 +13969,50 @@
     <hyperlink ref="B58" r:id="rId16" xr:uid="{A9043A1E-EA70-46FD-BDC1-1E6C22B05FCC}"/>
     <hyperlink ref="B59" r:id="rId17" xr:uid="{3ED70C6B-9716-4374-B277-0FA7386757D9}"/>
     <hyperlink ref="B64" r:id="rId18" xr:uid="{01F01697-82AF-4F6B-BA6D-A180FF3E2334}"/>
-    <hyperlink ref="J5" r:id="rId19" xr:uid="{69824DA4-6AB7-4281-82D7-4CDE2E823005}"/>
-    <hyperlink ref="J6" r:id="rId20" xr:uid="{2880705C-463C-4DFD-9CEB-F37271117FE0}"/>
-    <hyperlink ref="J7" r:id="rId21" xr:uid="{72E38D6B-CA15-4615-96ED-4823B74A3948}"/>
-    <hyperlink ref="J8" r:id="rId22" xr:uid="{E01554B0-3653-49CF-BB66-29CEF49C8DDA}"/>
-    <hyperlink ref="J10" r:id="rId23" xr:uid="{8DF340CF-F290-4916-A4B5-D68BE6C7899B}"/>
-    <hyperlink ref="J11" r:id="rId24" xr:uid="{70BBDAD8-C5A8-45AE-8F1E-136D5C351F4B}"/>
-    <hyperlink ref="J12" r:id="rId25" xr:uid="{35FF06C3-C33A-4C03-B473-81C8E0A387F5}"/>
-    <hyperlink ref="J13" r:id="rId26" xr:uid="{0BFD3511-33A5-4DB6-B47E-0507C425BD48}"/>
-    <hyperlink ref="J15" r:id="rId27" xr:uid="{4F67789A-00A6-47A7-B9DE-00E9E5098013}"/>
-    <hyperlink ref="J16" r:id="rId28" xr:uid="{2B7A8688-774C-42DB-B816-2E0DCEE33CBD}"/>
-    <hyperlink ref="J20" r:id="rId29" xr:uid="{6F09F55D-1109-4E78-8D45-FDA3A129B943}"/>
-    <hyperlink ref="J21" r:id="rId30" xr:uid="{3B68F12E-26F3-43EE-A645-247D6BDD143A}"/>
-    <hyperlink ref="J27" r:id="rId31" xr:uid="{E467BE62-FADA-442F-AE5D-A75D26296941}"/>
-    <hyperlink ref="J28" r:id="rId32" xr:uid="{ED0F671C-F46C-4CB7-81C2-6451F92FF21A}"/>
-    <hyperlink ref="J33" r:id="rId33" xr:uid="{395666B4-7C8C-4D15-9208-2DB48E418158}"/>
-    <hyperlink ref="J34" r:id="rId34" xr:uid="{50E70412-6388-4DF0-BBC1-F48C737E19C0}"/>
-    <hyperlink ref="J38" r:id="rId35" xr:uid="{CDFE54B7-1788-4D81-9ED1-EC4DA34E3C08}"/>
-    <hyperlink ref="J39" r:id="rId36" xr:uid="{4EE39B97-5EEC-4AD4-B448-1D07DC3F9303}"/>
-    <hyperlink ref="J43" r:id="rId37" xr:uid="{52F5B9AC-663D-4E09-8547-3B270AA34350}"/>
-    <hyperlink ref="J44" r:id="rId38" xr:uid="{2F6098B0-D766-4F99-89AC-491A81BF0CC1}"/>
-    <hyperlink ref="J48" r:id="rId39" xr:uid="{141E0419-6A96-49A6-B6D5-1D8D23664A53}"/>
-    <hyperlink ref="J49" r:id="rId40" xr:uid="{70F76379-EFD9-4142-9550-96425A963BAA}"/>
-    <hyperlink ref="J54" r:id="rId41" xr:uid="{D5DD4778-EBFB-4E6F-A5EC-03B35A98C226}"/>
-    <hyperlink ref="J55" r:id="rId42" xr:uid="{9A035BE6-55D2-49A9-9271-BC1B13CC432D}"/>
-    <hyperlink ref="J60" r:id="rId43" xr:uid="{92A6CAEA-1C06-4CA1-A3E5-12E69BFF6A4F}"/>
-    <hyperlink ref="J61" r:id="rId44" xr:uid="{9603B73A-20D1-48B3-802B-F9B3E64DF5F2}"/>
-    <hyperlink ref="J65" r:id="rId45" xr:uid="{924961A1-2BBD-4DF8-872E-E907882A9E38}"/>
-    <hyperlink ref="J66" r:id="rId46" xr:uid="{DA9BC18A-8B29-4683-AE30-BBD92F37F237}"/>
-    <hyperlink ref="J18" r:id="rId47" xr:uid="{1B8E80EF-7AA9-4663-90D1-664F607D7A8E}"/>
-    <hyperlink ref="J23" r:id="rId48" xr:uid="{621CD562-36D6-4AF6-A146-D492A911F479}"/>
-    <hyperlink ref="J29" r:id="rId49" xr:uid="{277CF2A1-7C62-4742-837F-F500045F1550}"/>
-    <hyperlink ref="J36" r:id="rId50" xr:uid="{B031A9BA-2516-466C-BA5D-23CC49C5E15D}"/>
-    <hyperlink ref="J41" r:id="rId51" xr:uid="{6286DC68-E45C-4894-8F83-A568D1481100}"/>
-    <hyperlink ref="J46" r:id="rId52" xr:uid="{12591B1E-D93E-4867-A21B-0FD5685BA571}"/>
-    <hyperlink ref="J51" r:id="rId53" xr:uid="{172AEF07-8500-4D50-9570-2393F65B73F7}"/>
-    <hyperlink ref="J57" r:id="rId54" xr:uid="{DEBFECC9-E210-423F-B18C-B325ADA08982}"/>
-    <hyperlink ref="J63" r:id="rId55" xr:uid="{2C2511AB-E185-4572-9690-C6BAD042768A}"/>
-    <hyperlink ref="J68" r:id="rId56" xr:uid="{34AB8288-0128-4217-8180-B798F015E2A4}"/>
-    <hyperlink ref="J30" r:id="rId57" xr:uid="{6C92B482-9043-4D5C-AB78-830D22F9F440}"/>
-    <hyperlink ref="J35" r:id="rId58" xr:uid="{CFD6A926-C213-46FD-BE9F-978FA354D314}"/>
-    <hyperlink ref="J40" r:id="rId59" xr:uid="{41F83D49-567D-4A1B-BC49-9AF47083995D}"/>
-    <hyperlink ref="J45" r:id="rId60" xr:uid="{00AC889F-6A99-4AE2-8DBF-9B728A43DE28}"/>
-    <hyperlink ref="J62" r:id="rId61" xr:uid="{DEF8F42C-3091-4B9B-9B14-F82EE6537575}"/>
-    <hyperlink ref="J67" r:id="rId62" xr:uid="{2292A88F-FA02-410E-A41A-2B6306491CCD}"/>
+    <hyperlink ref="K5" r:id="rId19" xr:uid="{69824DA4-6AB7-4281-82D7-4CDE2E823005}"/>
+    <hyperlink ref="K6" r:id="rId20" xr:uid="{2880705C-463C-4DFD-9CEB-F37271117FE0}"/>
+    <hyperlink ref="K7" r:id="rId21" xr:uid="{72E38D6B-CA15-4615-96ED-4823B74A3948}"/>
+    <hyperlink ref="K8" r:id="rId22" xr:uid="{E01554B0-3653-49CF-BB66-29CEF49C8DDA}"/>
+    <hyperlink ref="K10" r:id="rId23" xr:uid="{8DF340CF-F290-4916-A4B5-D68BE6C7899B}"/>
+    <hyperlink ref="K11" r:id="rId24" xr:uid="{70BBDAD8-C5A8-45AE-8F1E-136D5C351F4B}"/>
+    <hyperlink ref="K12" r:id="rId25" xr:uid="{35FF06C3-C33A-4C03-B473-81C8E0A387F5}"/>
+    <hyperlink ref="K13" r:id="rId26" xr:uid="{0BFD3511-33A5-4DB6-B47E-0507C425BD48}"/>
+    <hyperlink ref="K15" r:id="rId27" xr:uid="{4F67789A-00A6-47A7-B9DE-00E9E5098013}"/>
+    <hyperlink ref="K16" r:id="rId28" xr:uid="{2B7A8688-774C-42DB-B816-2E0DCEE33CBD}"/>
+    <hyperlink ref="K20" r:id="rId29" xr:uid="{6F09F55D-1109-4E78-8D45-FDA3A129B943}"/>
+    <hyperlink ref="K21" r:id="rId30" xr:uid="{3B68F12E-26F3-43EE-A645-247D6BDD143A}"/>
+    <hyperlink ref="K27" r:id="rId31" xr:uid="{E467BE62-FADA-442F-AE5D-A75D26296941}"/>
+    <hyperlink ref="K28" r:id="rId32" xr:uid="{ED0F671C-F46C-4CB7-81C2-6451F92FF21A}"/>
+    <hyperlink ref="K33" r:id="rId33" xr:uid="{395666B4-7C8C-4D15-9208-2DB48E418158}"/>
+    <hyperlink ref="K34" r:id="rId34" xr:uid="{50E70412-6388-4DF0-BBC1-F48C737E19C0}"/>
+    <hyperlink ref="K38" r:id="rId35" xr:uid="{CDFE54B7-1788-4D81-9ED1-EC4DA34E3C08}"/>
+    <hyperlink ref="K39" r:id="rId36" xr:uid="{4EE39B97-5EEC-4AD4-B448-1D07DC3F9303}"/>
+    <hyperlink ref="K43" r:id="rId37" xr:uid="{52F5B9AC-663D-4E09-8547-3B270AA34350}"/>
+    <hyperlink ref="K44" r:id="rId38" xr:uid="{2F6098B0-D766-4F99-89AC-491A81BF0CC1}"/>
+    <hyperlink ref="K48" r:id="rId39" xr:uid="{141E0419-6A96-49A6-B6D5-1D8D23664A53}"/>
+    <hyperlink ref="K49" r:id="rId40" xr:uid="{70F76379-EFD9-4142-9550-96425A963BAA}"/>
+    <hyperlink ref="K54" r:id="rId41" xr:uid="{D5DD4778-EBFB-4E6F-A5EC-03B35A98C226}"/>
+    <hyperlink ref="K55" r:id="rId42" xr:uid="{9A035BE6-55D2-49A9-9271-BC1B13CC432D}"/>
+    <hyperlink ref="K60" r:id="rId43" xr:uid="{92A6CAEA-1C06-4CA1-A3E5-12E69BFF6A4F}"/>
+    <hyperlink ref="K61" r:id="rId44" xr:uid="{9603B73A-20D1-48B3-802B-F9B3E64DF5F2}"/>
+    <hyperlink ref="K65" r:id="rId45" xr:uid="{924961A1-2BBD-4DF8-872E-E907882A9E38}"/>
+    <hyperlink ref="K66" r:id="rId46" xr:uid="{DA9BC18A-8B29-4683-AE30-BBD92F37F237}"/>
+    <hyperlink ref="K18" r:id="rId47" xr:uid="{1B8E80EF-7AA9-4663-90D1-664F607D7A8E}"/>
+    <hyperlink ref="K23" r:id="rId48" xr:uid="{621CD562-36D6-4AF6-A146-D492A911F479}"/>
+    <hyperlink ref="K29" r:id="rId49" xr:uid="{277CF2A1-7C62-4742-837F-F500045F1550}"/>
+    <hyperlink ref="K36" r:id="rId50" xr:uid="{B031A9BA-2516-466C-BA5D-23CC49C5E15D}"/>
+    <hyperlink ref="K41" r:id="rId51" xr:uid="{6286DC68-E45C-4894-8F83-A568D1481100}"/>
+    <hyperlink ref="K46" r:id="rId52" xr:uid="{12591B1E-D93E-4867-A21B-0FD5685BA571}"/>
+    <hyperlink ref="K51" r:id="rId53" xr:uid="{172AEF07-8500-4D50-9570-2393F65B73F7}"/>
+    <hyperlink ref="K57" r:id="rId54" xr:uid="{DEBFECC9-E210-423F-B18C-B325ADA08982}"/>
+    <hyperlink ref="K63" r:id="rId55" xr:uid="{2C2511AB-E185-4572-9690-C6BAD042768A}"/>
+    <hyperlink ref="K68" r:id="rId56" xr:uid="{34AB8288-0128-4217-8180-B798F015E2A4}"/>
+    <hyperlink ref="K30" r:id="rId57" xr:uid="{6C92B482-9043-4D5C-AB78-830D22F9F440}"/>
+    <hyperlink ref="K35" r:id="rId58" xr:uid="{CFD6A926-C213-46FD-BE9F-978FA354D314}"/>
+    <hyperlink ref="K40" r:id="rId59" xr:uid="{41F83D49-567D-4A1B-BC49-9AF47083995D}"/>
+    <hyperlink ref="K45" r:id="rId60" xr:uid="{00AC889F-6A99-4AE2-8DBF-9B728A43DE28}"/>
+    <hyperlink ref="K62" r:id="rId61" xr:uid="{DEF8F42C-3091-4B9B-9B14-F82EE6537575}"/>
+    <hyperlink ref="K67" r:id="rId62" xr:uid="{2292A88F-FA02-410E-A41A-2B6306491CCD}"/>
     <hyperlink ref="C14" r:id="rId63" xr:uid="{B8CA5474-9572-4861-B5CD-BE2490B3BBDC}"/>
     <hyperlink ref="C15:C24" r:id="rId64" display="C49237" xr:uid="{373E657F-9385-43EA-8D69-89C496E13683}"/>
     <hyperlink ref="C4" r:id="rId65" xr:uid="{6F663576-DD7F-46EB-8C3D-4356A1AC9693}"/>
@@ -13874,14 +14040,14 @@
     <hyperlink ref="C64" r:id="rId87" xr:uid="{A8790537-51B5-4D0B-8326-933F030F2328}"/>
     <hyperlink ref="C65:C68" r:id="rId88" display="C51948" xr:uid="{CC752FE5-EDBC-42F5-876C-8A0E85C93729}"/>
     <hyperlink ref="B65:B68" r:id="rId89" display="C64470" xr:uid="{BA4F6795-317E-4C15-940B-373C2826C916}"/>
-    <hyperlink ref="G26" r:id="rId90" xr:uid="{A5431D54-64B6-42FF-A701-B30AA3F802F4}"/>
-    <hyperlink ref="G32" r:id="rId91" xr:uid="{A8D000AA-D0DB-44CF-BB51-AD2BAC25C319}"/>
-    <hyperlink ref="G37" r:id="rId92" xr:uid="{6A1C8AB6-4F84-4D45-AFB6-EC2EDB9DA2BC}"/>
-    <hyperlink ref="G42" r:id="rId93" xr:uid="{B389F4CE-BE64-4F09-A27C-EB258626D2CB}"/>
-    <hyperlink ref="G53" r:id="rId94" xr:uid="{52C53BBD-C2CC-4747-A5B0-DDF31121D52D}"/>
-    <hyperlink ref="G59" r:id="rId95" xr:uid="{A9FA430D-6EB9-42D0-BD8A-34FB6B4F5A15}"/>
-    <hyperlink ref="G64" r:id="rId96" xr:uid="{18E16713-9834-4109-9650-8C3AFCC828F9}"/>
-    <hyperlink ref="J56" r:id="rId97" xr:uid="{34517A25-CAAF-4DAD-ACF1-2868CD8CF530}"/>
+    <hyperlink ref="H26" r:id="rId90" xr:uid="{A5431D54-64B6-42FF-A701-B30AA3F802F4}"/>
+    <hyperlink ref="H32" r:id="rId91" xr:uid="{A8D000AA-D0DB-44CF-BB51-AD2BAC25C319}"/>
+    <hyperlink ref="H37" r:id="rId92" xr:uid="{6A1C8AB6-4F84-4D45-AFB6-EC2EDB9DA2BC}"/>
+    <hyperlink ref="H42" r:id="rId93" xr:uid="{B389F4CE-BE64-4F09-A27C-EB258626D2CB}"/>
+    <hyperlink ref="H53" r:id="rId94" xr:uid="{52C53BBD-C2CC-4747-A5B0-DDF31121D52D}"/>
+    <hyperlink ref="H59" r:id="rId95" xr:uid="{A9FA430D-6EB9-42D0-BD8A-34FB6B4F5A15}"/>
+    <hyperlink ref="H64" r:id="rId96" xr:uid="{18E16713-9834-4109-9650-8C3AFCC828F9}"/>
+    <hyperlink ref="K56" r:id="rId97" xr:uid="{34517A25-CAAF-4DAD-ACF1-2868CD8CF530}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId98"/>
@@ -13893,8 +14059,8 @@
   <dimension ref="A1:AG90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -13952,7 +14118,7 @@
         <v>801</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>873</v>
@@ -14068,7 +14234,7 @@
         <v>91</v>
       </c>
       <c r="S2" s="49" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="T2" s="49" t="s">
         <v>657</v>
@@ -14568,7 +14734,7 @@
         <v>91</v>
       </c>
       <c r="S9" s="49" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="T9" s="11" t="s">
         <v>657</v>
@@ -15008,7 +15174,7 @@
         <v>91</v>
       </c>
       <c r="S16" s="49" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="T16" s="49" t="s">
         <v>657</v>
@@ -15508,7 +15674,7 @@
         <v>116</v>
       </c>
       <c r="L23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="M23" t="s">
         <v>115</v>
@@ -15526,7 +15692,7 @@
         <v>115</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="T23" s="11" t="s">
         <v>756</v>
@@ -15715,7 +15881,7 @@
         <v>91</v>
       </c>
       <c r="S26" s="49" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="T26" s="49" t="s">
         <v>657</v>
@@ -16212,7 +16378,7 @@
         <v>116</v>
       </c>
       <c r="L33" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="M33" t="s">
         <v>115</v>
@@ -16230,7 +16396,7 @@
         <v>115</v>
       </c>
       <c r="S33" s="11" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="T33" s="11" t="s">
         <v>756</v>
@@ -16398,7 +16564,7 @@
         <v>122</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="I36" s="36" t="s">
         <v>91</v>
@@ -16422,7 +16588,7 @@
         <v>91</v>
       </c>
       <c r="S36" s="49" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="T36" s="49" t="s">
         <v>657</v>
@@ -16472,7 +16638,7 @@
         <v>122</v>
       </c>
       <c r="H37" s="36" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="I37" t="s">
         <v>98</v>
@@ -16549,7 +16715,7 @@
         <v>122</v>
       </c>
       <c r="H38" s="36" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="I38" s="36" t="s">
         <v>102</v>
@@ -16626,7 +16792,7 @@
         <v>122</v>
       </c>
       <c r="H39" s="36" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="I39" t="s">
         <v>104</v>
@@ -16706,7 +16872,7 @@
         <v>122</v>
       </c>
       <c r="H40" s="36" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="I40" s="36" t="s">
         <v>907</v>
@@ -16774,7 +16940,7 @@
         <v>122</v>
       </c>
       <c r="H41" s="36" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="I41" t="s">
         <v>908</v>
@@ -16842,7 +17008,7 @@
         <v>122</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="I42" s="36" t="s">
         <v>909</v>
@@ -16910,7 +17076,7 @@
         <v>122</v>
       </c>
       <c r="H43" s="36" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="I43" t="s">
         <v>115</v>
@@ -16919,7 +17085,7 @@
         <v>116</v>
       </c>
       <c r="L43" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="M43" t="s">
         <v>115</v>
@@ -16940,7 +17106,7 @@
         <v>115</v>
       </c>
       <c r="S43" s="11" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="T43" s="11" t="s">
         <v>756</v>
@@ -16993,7 +17159,7 @@
         <v>122</v>
       </c>
       <c r="H44" s="36" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="I44" s="36" t="s">
         <v>117</v>
@@ -17052,7 +17218,7 @@
         <v>122</v>
       </c>
       <c r="H45" s="36" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="I45" t="s">
         <v>119</v>
@@ -17132,7 +17298,7 @@
         <v>91</v>
       </c>
       <c r="S46" s="49" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="T46" s="49" t="s">
         <v>657</v>
@@ -17614,7 +17780,7 @@
         <v>129</v>
       </c>
       <c r="H53" s="36" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="I53" t="s">
         <v>91</v>
@@ -17638,7 +17804,7 @@
         <v>91</v>
       </c>
       <c r="S53" s="11" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="T53" s="11" t="s">
         <v>657</v>
@@ -17688,7 +17854,7 @@
         <v>129</v>
       </c>
       <c r="H54" s="36" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="I54" s="36" t="s">
         <v>98</v>
@@ -17768,7 +17934,7 @@
         <v>129</v>
       </c>
       <c r="H55" s="36" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="I55" t="s">
         <v>102</v>
@@ -17854,7 +18020,7 @@
         <v>129</v>
       </c>
       <c r="H56" s="36" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="I56" s="36" t="s">
         <v>907</v>
@@ -17949,7 +18115,7 @@
         <v>91</v>
       </c>
       <c r="S57" s="49" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="T57" s="11" t="s">
         <v>657</v>
@@ -18449,7 +18615,7 @@
         <v>116</v>
       </c>
       <c r="L64" s="36" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="M64" s="36" t="s">
         <v>115</v>
@@ -18467,7 +18633,7 @@
         <v>115</v>
       </c>
       <c r="S64" s="11" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="T64" s="49" t="s">
         <v>756</v>
@@ -18653,7 +18819,7 @@
         <v>91</v>
       </c>
       <c r="S67" s="49" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="T67" s="11" t="s">
         <v>657</v>
@@ -19221,7 +19387,7 @@
         <v>91</v>
       </c>
       <c r="S75" s="49" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="T75" s="11" t="s">
         <v>657</v>
@@ -19795,7 +19961,7 @@
         <v>91</v>
       </c>
       <c r="S83" s="49" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="T83" s="11" t="s">
         <v>657</v>
@@ -20265,8 +20431,8 @@
   <dimension ref="A1:AF232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H222" sqref="H222:H232"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -20278,7 +20444,7 @@
     <col min="5" max="5" width="5.05859375" customWidth="1"/>
     <col min="6" max="6" width="12.1171875" customWidth="1"/>
     <col min="7" max="7" width="14.17578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.17578125" customWidth="1"/>
+    <col min="8" max="8" width="30.17578125" customWidth="1"/>
     <col min="9" max="9" width="15.29296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.703125" customWidth="1"/>
     <col min="11" max="11" width="11.703125" customWidth="1"/>
@@ -20326,7 +20492,7 @@
         <v>801</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>873</v>
@@ -20418,7 +20584,7 @@
         <v>132</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>133</v>
@@ -20442,7 +20608,7 @@
         <v>133</v>
       </c>
       <c r="S2" s="18" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="T2" s="18" t="s">
         <v>657</v>
@@ -20489,7 +20655,7 @@
         <v>132</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>135</v>
@@ -20566,7 +20732,7 @@
         <v>132</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>137</v>
@@ -20643,7 +20809,7 @@
         <v>132</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>139</v>
@@ -20723,7 +20889,7 @@
         <v>132</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>140</v>
@@ -20798,7 +20964,7 @@
         <v>132</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>760</v>
@@ -20873,7 +21039,7 @@
         <v>132</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>143</v>
@@ -20948,7 +21114,7 @@
         <v>132</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>144</v>
@@ -21014,7 +21180,7 @@
         <v>132</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>147</v>
@@ -21088,7 +21254,7 @@
         <v>132</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>149</v>
@@ -21162,7 +21328,7 @@
         <v>132</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>153</v>
@@ -21186,7 +21352,7 @@
         <v>153</v>
       </c>
       <c r="S12" s="39" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="T12" s="18" t="s">
         <v>756</v>
@@ -21218,7 +21384,7 @@
         <v>155</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="I13" s="17" t="s">
         <v>133</v>
@@ -21243,7 +21409,7 @@
         <v>133</v>
       </c>
       <c r="S13" s="19" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="T13" s="19" t="s">
         <v>657</v>
@@ -21293,7 +21459,7 @@
         <v>155</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>135</v>
@@ -21371,7 +21537,7 @@
         <v>155</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="I15" s="17" t="s">
         <v>137</v>
@@ -21449,7 +21615,7 @@
         <v>155</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="I16" s="17" t="s">
         <v>139</v>
@@ -21530,7 +21696,7 @@
         <v>155</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="I17" s="17" t="s">
         <v>140</v>
@@ -21604,7 +21770,7 @@
         <v>155</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="I18" s="17" t="s">
         <v>760</v>
@@ -21675,7 +21841,7 @@
         <v>155</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="I19" s="17" t="s">
         <v>143</v>
@@ -21746,7 +21912,7 @@
         <v>155</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="I20" s="17" t="s">
         <v>144</v>
@@ -21808,7 +21974,7 @@
         <v>155</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="I21" s="17" t="s">
         <v>147</v>
@@ -21882,7 +22048,7 @@
         <v>155</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="I22" s="17" t="s">
         <v>149</v>
@@ -21959,7 +22125,7 @@
         <v>155</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="I23" s="17" t="s">
         <v>153</v>
@@ -21983,7 +22149,7 @@
         <v>153</v>
       </c>
       <c r="S23" s="40" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="T23" s="19" t="s">
         <v>756</v>
@@ -22015,7 +22181,7 @@
         <v>159</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>133</v>
@@ -22039,7 +22205,7 @@
         <v>133</v>
       </c>
       <c r="S24" s="18" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="T24" s="18" t="s">
         <v>657</v>
@@ -22089,7 +22255,7 @@
         <v>159</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>135</v>
@@ -22166,7 +22332,7 @@
         <v>159</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>137</v>
@@ -22243,7 +22409,7 @@
         <v>159</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>139</v>
@@ -22323,7 +22489,7 @@
         <v>159</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>140</v>
@@ -22397,7 +22563,7 @@
         <v>159</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>760</v>
@@ -22468,7 +22634,7 @@
         <v>159</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>143</v>
@@ -22539,7 +22705,7 @@
         <v>159</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>144</v>
@@ -22602,7 +22768,7 @@
         <v>159</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>147</v>
@@ -22677,7 +22843,7 @@
         <v>159</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>149</v>
@@ -22752,7 +22918,7 @@
         <v>159</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>153</v>
@@ -22774,7 +22940,7 @@
         <v>153</v>
       </c>
       <c r="S34" s="39" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="T34" s="18" t="s">
         <v>756</v>
@@ -22806,7 +22972,7 @@
         <v>163</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I35" s="17" t="s">
         <v>133</v>
@@ -22831,7 +22997,7 @@
         <v>133</v>
       </c>
       <c r="S35" s="19" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="T35" s="19" t="s">
         <v>657</v>
@@ -22881,7 +23047,7 @@
         <v>163</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I36" s="17" t="s">
         <v>135</v>
@@ -22956,7 +23122,7 @@
         <v>163</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I37" s="17" t="s">
         <v>137</v>
@@ -23037,7 +23203,7 @@
         <v>163</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I38" s="17" t="s">
         <v>139</v>
@@ -23117,7 +23283,7 @@
         <v>163</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I39" s="17" t="s">
         <v>140</v>
@@ -23194,7 +23360,7 @@
         <v>163</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I40" s="17" t="s">
         <v>760</v>
@@ -23265,7 +23431,7 @@
         <v>163</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I41" s="17" t="s">
         <v>143</v>
@@ -23336,7 +23502,7 @@
         <v>163</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I42" s="17" t="s">
         <v>144</v>
@@ -23401,7 +23567,7 @@
         <v>163</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I43" s="17" t="s">
         <v>147</v>
@@ -23463,7 +23629,7 @@
         <v>163</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I44" s="17" t="s">
         <v>149</v>
@@ -23537,7 +23703,7 @@
         <v>163</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I45" s="17" t="s">
         <v>153</v>
@@ -23562,7 +23728,7 @@
         <v>153</v>
       </c>
       <c r="S45" s="40" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="T45" s="19" t="s">
         <v>756</v>
@@ -23606,7 +23772,7 @@
         <v>167</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>133</v>
@@ -23630,7 +23796,7 @@
         <v>133</v>
       </c>
       <c r="S46" s="18" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="T46" s="18" t="s">
         <v>657</v>
@@ -23680,7 +23846,7 @@
         <v>167</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>135</v>
@@ -23757,7 +23923,7 @@
         <v>167</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>137</v>
@@ -23834,7 +24000,7 @@
         <v>167</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>139</v>
@@ -23914,7 +24080,7 @@
         <v>167</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>140</v>
@@ -23989,7 +24155,7 @@
         <v>167</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>760</v>
@@ -24061,7 +24227,7 @@
         <v>167</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>143</v>
@@ -24133,7 +24299,7 @@
         <v>167</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>144</v>
@@ -24196,7 +24362,7 @@
         <v>167</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>147</v>
@@ -24271,7 +24437,7 @@
         <v>167</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>149</v>
@@ -24345,7 +24511,7 @@
         <v>167</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>153</v>
@@ -24366,7 +24532,7 @@
         <v>153</v>
       </c>
       <c r="S56" s="39" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="T56" s="18" t="s">
         <v>756</v>
@@ -24398,7 +24564,7 @@
         <v>169</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I57" s="17" t="s">
         <v>133</v>
@@ -24423,7 +24589,7 @@
         <v>133</v>
       </c>
       <c r="S57" s="19" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="T57" s="19" t="s">
         <v>657</v>
@@ -24473,7 +24639,7 @@
         <v>169</v>
       </c>
       <c r="H58" s="17" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I58" s="17" t="s">
         <v>135</v>
@@ -24551,7 +24717,7 @@
         <v>169</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I59" s="17" t="s">
         <v>137</v>
@@ -24629,7 +24795,7 @@
         <v>169</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I60" s="17" t="s">
         <v>139</v>
@@ -24710,7 +24876,7 @@
         <v>169</v>
       </c>
       <c r="H61" s="17" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I61" s="17" t="s">
         <v>140</v>
@@ -24785,7 +24951,7 @@
         <v>169</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I62" s="17" t="s">
         <v>760</v>
@@ -24857,7 +25023,7 @@
         <v>169</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I63" s="17" t="s">
         <v>143</v>
@@ -24929,7 +25095,7 @@
         <v>169</v>
       </c>
       <c r="H64" s="17" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I64" s="17" t="s">
         <v>144</v>
@@ -24992,7 +25158,7 @@
         <v>169</v>
       </c>
       <c r="H65" s="17" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I65" s="17" t="s">
         <v>147</v>
@@ -25067,7 +25233,7 @@
         <v>169</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I66" s="17" t="s">
         <v>149</v>
@@ -25142,7 +25308,7 @@
         <v>169</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I67" s="17" t="s">
         <v>153</v>
@@ -25164,7 +25330,7 @@
         <v>153</v>
       </c>
       <c r="S67" s="40" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="T67" s="19" t="s">
         <v>756</v>
@@ -25196,7 +25362,7 @@
         <v>171</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>133</v>
@@ -25224,7 +25390,7 @@
         <v>133</v>
       </c>
       <c r="S68" s="18" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="T68" s="18" t="s">
         <v>657</v>
@@ -25271,7 +25437,7 @@
         <v>171</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>135</v>
@@ -25349,7 +25515,7 @@
         <v>171</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>137</v>
@@ -25424,7 +25590,7 @@
         <v>171</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>139</v>
@@ -25499,7 +25665,7 @@
         <v>171</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>140</v>
@@ -25571,7 +25737,7 @@
         <v>171</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>760</v>
@@ -25640,7 +25806,7 @@
         <v>171</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>143</v>
@@ -25709,7 +25875,7 @@
         <v>171</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>144</v>
@@ -25772,7 +25938,7 @@
         <v>171</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>147</v>
@@ -25844,7 +26010,7 @@
         <v>171</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>149</v>
@@ -25916,7 +26082,7 @@
         <v>171</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>153</v>
@@ -25938,7 +26104,7 @@
         <v>153</v>
       </c>
       <c r="S78" s="39" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="T78" s="18" t="s">
         <v>756</v>
@@ -25970,7 +26136,7 @@
         <v>623</v>
       </c>
       <c r="H79" s="17" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="I79" s="17" t="s">
         <v>133</v>
@@ -25998,7 +26164,7 @@
         <v>133</v>
       </c>
       <c r="S79" s="19" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="T79" s="19" t="s">
         <v>657</v>
@@ -26045,7 +26211,7 @@
         <v>623</v>
       </c>
       <c r="H80" s="17" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="I80" s="17" t="s">
         <v>135</v>
@@ -26123,7 +26289,7 @@
         <v>623</v>
       </c>
       <c r="H81" s="17" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="I81" s="17" t="s">
         <v>137</v>
@@ -26198,7 +26364,7 @@
         <v>623</v>
       </c>
       <c r="H82" s="17" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="I82" s="17" t="s">
         <v>139</v>
@@ -26273,7 +26439,7 @@
         <v>623</v>
       </c>
       <c r="H83" s="17" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="I83" s="17" t="s">
         <v>140</v>
@@ -26345,7 +26511,7 @@
         <v>623</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="I84" s="17" t="s">
         <v>760</v>
@@ -26414,7 +26580,7 @@
         <v>623</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="I85" s="17" t="s">
         <v>143</v>
@@ -26483,7 +26649,7 @@
         <v>623</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="I86" s="17" t="s">
         <v>144</v>
@@ -26546,7 +26712,7 @@
         <v>623</v>
       </c>
       <c r="H87" s="17" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="I87" s="17" t="s">
         <v>147</v>
@@ -26618,7 +26784,7 @@
         <v>623</v>
       </c>
       <c r="H88" s="17" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="I88" s="17" t="s">
         <v>149</v>
@@ -26690,7 +26856,7 @@
         <v>623</v>
       </c>
       <c r="H89" s="17" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="I89" s="17" t="s">
         <v>193</v>
@@ -26747,7 +26913,7 @@
         <v>623</v>
       </c>
       <c r="H90" s="17" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="I90" s="17" t="s">
         <v>153</v>
@@ -26769,7 +26935,7 @@
         <v>153</v>
       </c>
       <c r="S90" s="40" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="T90" s="19" t="s">
         <v>756</v>
@@ -26798,7 +26964,7 @@
         <v>177</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I91" s="6" t="s">
         <v>133</v>
@@ -26826,7 +26992,7 @@
         <v>133</v>
       </c>
       <c r="S91" s="18" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="T91" s="18" t="s">
         <v>657</v>
@@ -26861,7 +27027,7 @@
         <v>177</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>135</v>
@@ -26921,7 +27087,7 @@
         <v>177</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>137</v>
@@ -26978,7 +27144,7 @@
         <v>177</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I94" s="6" t="s">
         <v>139</v>
@@ -27047,7 +27213,7 @@
         <v>177</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I95" s="6" t="s">
         <v>760</v>
@@ -27113,7 +27279,7 @@
         <v>177</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I96" s="6" t="s">
         <v>147</v>
@@ -27170,7 +27336,7 @@
         <v>177</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I97" s="6" t="s">
         <v>149</v>
@@ -27230,7 +27396,7 @@
         <v>177</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I98" s="6" t="s">
         <v>193</v>
@@ -27287,7 +27453,7 @@
         <v>177</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I99" s="6" t="s">
         <v>153</v>
@@ -27309,7 +27475,7 @@
         <v>153</v>
       </c>
       <c r="S99" s="39" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="T99" s="18" t="s">
         <v>756</v>
@@ -27338,7 +27504,7 @@
         <v>184</v>
       </c>
       <c r="H100" s="17" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I100" s="17" t="s">
         <v>133</v>
@@ -27363,7 +27529,7 @@
         <v>133</v>
       </c>
       <c r="S100" s="19" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="T100" s="19" t="s">
         <v>657</v>
@@ -27398,7 +27564,7 @@
         <v>184</v>
       </c>
       <c r="H101" s="17" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I101" s="17" t="s">
         <v>135</v>
@@ -27476,7 +27642,7 @@
         <v>184</v>
       </c>
       <c r="H102" s="17" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I102" s="17" t="s">
         <v>137</v>
@@ -27554,7 +27720,7 @@
         <v>184</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I103" s="17" t="s">
         <v>139</v>
@@ -27635,7 +27801,7 @@
         <v>184</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I104" s="17" t="s">
         <v>140</v>
@@ -27710,7 +27876,7 @@
         <v>184</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I105" s="17" t="s">
         <v>760</v>
@@ -27785,7 +27951,7 @@
         <v>184</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I106" s="17" t="s">
         <v>143</v>
@@ -27860,7 +28026,7 @@
         <v>184</v>
       </c>
       <c r="H107" s="17" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I107" s="17" t="s">
         <v>144</v>
@@ -27926,7 +28092,7 @@
         <v>184</v>
       </c>
       <c r="H108" s="17" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I108" s="17" t="s">
         <v>147</v>
@@ -28001,7 +28167,7 @@
         <v>184</v>
       </c>
       <c r="H109" s="17" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I109" s="17" t="s">
         <v>149</v>
@@ -28076,7 +28242,7 @@
         <v>184</v>
       </c>
       <c r="H110" s="17" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I110" s="17" t="s">
         <v>153</v>
@@ -28098,7 +28264,7 @@
         <v>153</v>
       </c>
       <c r="S110" s="40" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="T110" s="19" t="s">
         <v>756</v>
@@ -28130,7 +28296,7 @@
         <v>188</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I111" s="6" t="s">
         <v>133</v>
@@ -28155,7 +28321,7 @@
         <v>133</v>
       </c>
       <c r="S111" s="18" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="T111" s="18" t="s">
         <v>657</v>
@@ -28205,7 +28371,7 @@
         <v>188</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I112" s="6" t="s">
         <v>135</v>
@@ -28283,7 +28449,7 @@
         <v>188</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I113" s="6" t="s">
         <v>137</v>
@@ -28361,7 +28527,7 @@
         <v>188</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I114" s="6" t="s">
         <v>139</v>
@@ -28442,7 +28608,7 @@
         <v>188</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I115" s="6" t="s">
         <v>140</v>
@@ -28517,7 +28683,7 @@
         <v>188</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I116" s="6" t="s">
         <v>760</v>
@@ -28592,7 +28758,7 @@
         <v>188</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I117" s="6" t="s">
         <v>143</v>
@@ -28667,7 +28833,7 @@
         <v>188</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I118" s="6" t="s">
         <v>144</v>
@@ -28733,7 +28899,7 @@
         <v>188</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I119" s="6" t="s">
         <v>147</v>
@@ -28808,7 +28974,7 @@
         <v>188</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I120" s="6" t="s">
         <v>149</v>
@@ -28883,7 +29049,7 @@
         <v>188</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I121" s="6" t="s">
         <v>153</v>
@@ -28905,7 +29071,7 @@
         <v>153</v>
       </c>
       <c r="S121" s="39" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="T121" s="18" t="s">
         <v>756</v>
@@ -28937,7 +29103,7 @@
         <v>191</v>
       </c>
       <c r="H122" s="17" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I122" s="17" t="s">
         <v>133</v>
@@ -28962,7 +29128,7 @@
         <v>133</v>
       </c>
       <c r="S122" s="19" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="T122" s="19" t="s">
         <v>657</v>
@@ -29009,7 +29175,7 @@
         <v>191</v>
       </c>
       <c r="H123" s="17" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I123" s="17" t="s">
         <v>135</v>
@@ -29084,7 +29250,7 @@
         <v>191</v>
       </c>
       <c r="H124" s="17" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I124" s="17" t="s">
         <v>137</v>
@@ -29162,7 +29328,7 @@
         <v>191</v>
       </c>
       <c r="H125" s="17" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I125" s="17" t="s">
         <v>139</v>
@@ -29243,7 +29409,7 @@
         <v>191</v>
       </c>
       <c r="H126" s="17" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I126" s="17" t="s">
         <v>140</v>
@@ -29318,7 +29484,7 @@
         <v>191</v>
       </c>
       <c r="H127" s="17" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I127" s="17" t="s">
         <v>760</v>
@@ -29381,7 +29547,7 @@
         <v>191</v>
       </c>
       <c r="H128" s="17" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I128" s="17" t="s">
         <v>143</v>
@@ -29444,7 +29610,7 @@
         <v>191</v>
       </c>
       <c r="H129" s="17" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I129" s="17" t="s">
         <v>144</v>
@@ -29510,7 +29676,7 @@
         <v>191</v>
       </c>
       <c r="H130" s="17" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I130" s="17" t="s">
         <v>147</v>
@@ -29588,7 +29754,7 @@
         <v>191</v>
       </c>
       <c r="H131" s="17" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I131" s="17" t="s">
         <v>149</v>
@@ -29663,7 +29829,7 @@
         <v>191</v>
       </c>
       <c r="H132" s="17" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I132" s="17" t="s">
         <v>193</v>
@@ -29723,7 +29889,7 @@
         <v>191</v>
       </c>
       <c r="H133" s="17" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I133" s="17" t="s">
         <v>153</v>
@@ -29745,7 +29911,7 @@
         <v>153</v>
       </c>
       <c r="S133" s="40" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="T133" s="19" t="s">
         <v>756</v>
@@ -29777,7 +29943,7 @@
         <v>195</v>
       </c>
       <c r="H134" s="6" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I134" s="6" t="s">
         <v>133</v>
@@ -29802,7 +29968,7 @@
         <v>133</v>
       </c>
       <c r="S134" s="18" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="T134" s="18" t="s">
         <v>657</v>
@@ -29852,7 +30018,7 @@
         <v>195</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I135" s="6" t="s">
         <v>135</v>
@@ -29924,7 +30090,7 @@
         <v>195</v>
       </c>
       <c r="H136" s="6" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I136" s="6" t="s">
         <v>137</v>
@@ -30005,7 +30171,7 @@
         <v>195</v>
       </c>
       <c r="H137" s="6" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I137" s="6" t="s">
         <v>139</v>
@@ -30080,7 +30246,7 @@
         <v>195</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I138" s="6" t="s">
         <v>140</v>
@@ -30164,7 +30330,7 @@
         <v>195</v>
       </c>
       <c r="H139" s="6" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I139" s="6" t="s">
         <v>760</v>
@@ -30233,7 +30399,7 @@
         <v>195</v>
       </c>
       <c r="H140" s="6" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I140" s="6" t="s">
         <v>143</v>
@@ -30308,7 +30474,7 @@
         <v>195</v>
       </c>
       <c r="H141" s="6" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I141" s="6" t="s">
         <v>144</v>
@@ -30389,7 +30555,7 @@
         <v>195</v>
       </c>
       <c r="H142" s="6" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I142" s="6" t="s">
         <v>147</v>
@@ -30452,7 +30618,7 @@
         <v>195</v>
       </c>
       <c r="H143" s="6" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I143" s="6" t="s">
         <v>149</v>
@@ -30527,7 +30693,7 @@
         <v>195</v>
       </c>
       <c r="H144" s="6" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I144" s="6" t="s">
         <v>153</v>
@@ -30549,7 +30715,7 @@
         <v>153</v>
       </c>
       <c r="S144" s="39" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="T144" s="18" t="s">
         <v>756</v>
@@ -30590,7 +30756,7 @@
         <v>197</v>
       </c>
       <c r="H145" s="17" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="I145" s="17" t="s">
         <v>133</v>
@@ -30615,7 +30781,7 @@
         <v>133</v>
       </c>
       <c r="S145" s="19" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="T145" s="19" t="s">
         <v>657</v>
@@ -30665,7 +30831,7 @@
         <v>197</v>
       </c>
       <c r="H146" s="17" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="I146" s="17" t="s">
         <v>135</v>
@@ -30743,7 +30909,7 @@
         <v>197</v>
       </c>
       <c r="H147" s="17" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="I147" s="17" t="s">
         <v>137</v>
@@ -30821,7 +30987,7 @@
         <v>197</v>
       </c>
       <c r="H148" s="17" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="I148" s="17" t="s">
         <v>139</v>
@@ -30902,7 +31068,7 @@
         <v>197</v>
       </c>
       <c r="H149" s="17" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="I149" s="17" t="s">
         <v>140</v>
@@ -30977,7 +31143,7 @@
         <v>197</v>
       </c>
       <c r="H150" s="17" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="I150" s="17" t="s">
         <v>760</v>
@@ -31049,7 +31215,7 @@
         <v>197</v>
       </c>
       <c r="H151" s="17" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="I151" s="17" t="s">
         <v>143</v>
@@ -31121,7 +31287,7 @@
         <v>197</v>
       </c>
       <c r="H152" s="17" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="I152" s="17" t="s">
         <v>144</v>
@@ -31184,7 +31350,7 @@
         <v>197</v>
       </c>
       <c r="H153" s="17" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="I153" s="17" t="s">
         <v>147</v>
@@ -31259,7 +31425,7 @@
         <v>197</v>
       </c>
       <c r="H154" s="17" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="I154" s="17" t="s">
         <v>149</v>
@@ -31334,7 +31500,7 @@
         <v>197</v>
       </c>
       <c r="H155" s="17" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="I155" s="17" t="s">
         <v>153</v>
@@ -31356,7 +31522,7 @@
         <v>153</v>
       </c>
       <c r="S155" s="40" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="T155" s="19" t="s">
         <v>756</v>
@@ -31388,7 +31554,7 @@
         <v>204</v>
       </c>
       <c r="H156" s="6" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I156" s="6" t="s">
         <v>133</v>
@@ -31413,7 +31579,7 @@
         <v>133</v>
       </c>
       <c r="S156" s="18" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="T156" s="18" t="s">
         <v>657</v>
@@ -31463,7 +31629,7 @@
         <v>204</v>
       </c>
       <c r="H157" s="6" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I157" s="6" t="s">
         <v>135</v>
@@ -31541,7 +31707,7 @@
         <v>204</v>
       </c>
       <c r="H158" s="6" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I158" s="6" t="s">
         <v>137</v>
@@ -31619,7 +31785,7 @@
         <v>204</v>
       </c>
       <c r="H159" s="6" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I159" s="6" t="s">
         <v>139</v>
@@ -31700,7 +31866,7 @@
         <v>204</v>
       </c>
       <c r="H160" s="6" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I160" s="6" t="s">
         <v>140</v>
@@ -31775,7 +31941,7 @@
         <v>204</v>
       </c>
       <c r="H161" s="6" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I161" s="6" t="s">
         <v>760</v>
@@ -31847,7 +32013,7 @@
         <v>204</v>
       </c>
       <c r="H162" s="6" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I162" s="6" t="s">
         <v>143</v>
@@ -31919,7 +32085,7 @@
         <v>204</v>
       </c>
       <c r="H163" s="6" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I163" s="6" t="s">
         <v>144</v>
@@ -31982,7 +32148,7 @@
         <v>204</v>
       </c>
       <c r="H164" s="6" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I164" s="6" t="s">
         <v>147</v>
@@ -32057,7 +32223,7 @@
         <v>204</v>
       </c>
       <c r="H165" s="6" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I165" s="6" t="s">
         <v>149</v>
@@ -32132,7 +32298,7 @@
         <v>204</v>
       </c>
       <c r="H166" s="6" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I166" s="6" t="s">
         <v>153</v>
@@ -32154,7 +32320,7 @@
         <v>153</v>
       </c>
       <c r="S166" s="39" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="T166" s="18" t="s">
         <v>756</v>
@@ -32186,7 +32352,7 @@
         <v>560</v>
       </c>
       <c r="H167" s="17" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I167" s="17" t="s">
         <v>133</v>
@@ -32211,7 +32377,7 @@
         <v>133</v>
       </c>
       <c r="S167" s="19" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="T167" s="19" t="s">
         <v>657</v>
@@ -32261,7 +32427,7 @@
         <v>560</v>
       </c>
       <c r="H168" s="17" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I168" s="17" t="s">
         <v>135</v>
@@ -32339,7 +32505,7 @@
         <v>560</v>
       </c>
       <c r="H169" s="17" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I169" s="17" t="s">
         <v>137</v>
@@ -32417,7 +32583,7 @@
         <v>560</v>
       </c>
       <c r="H170" s="17" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I170" s="17" t="s">
         <v>139</v>
@@ -32498,7 +32664,7 @@
         <v>560</v>
       </c>
       <c r="H171" s="17" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I171" s="17" t="s">
         <v>140</v>
@@ -32573,7 +32739,7 @@
         <v>560</v>
       </c>
       <c r="H172" s="17" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I172" s="17" t="s">
         <v>760</v>
@@ -32648,7 +32814,7 @@
         <v>560</v>
       </c>
       <c r="H173" s="17" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I173" s="17" t="s">
         <v>143</v>
@@ -32723,7 +32889,7 @@
         <v>560</v>
       </c>
       <c r="H174" s="17" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I174" s="17" t="s">
         <v>144</v>
@@ -32789,7 +32955,7 @@
         <v>560</v>
       </c>
       <c r="H175" s="17" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I175" s="17" t="s">
         <v>147</v>
@@ -32864,7 +33030,7 @@
         <v>560</v>
       </c>
       <c r="H176" s="17" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I176" s="17" t="s">
         <v>149</v>
@@ -32939,7 +33105,7 @@
         <v>560</v>
       </c>
       <c r="H177" s="17" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I177" s="17" t="s">
         <v>153</v>
@@ -32961,7 +33127,7 @@
         <v>153</v>
       </c>
       <c r="S177" s="40" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="T177" s="19" t="s">
         <v>756</v>
@@ -32993,7 +33159,7 @@
         <v>586</v>
       </c>
       <c r="H178" s="6" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I178" s="6" t="s">
         <v>133</v>
@@ -33010,7 +33176,7 @@
         <v>583</v>
       </c>
       <c r="P178" s="6" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="Q178" s="6" t="s">
         <v>95</v>
@@ -33019,7 +33185,7 @@
         <v>133</v>
       </c>
       <c r="S178" s="18" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="T178" s="18" t="s">
         <v>657</v>
@@ -33069,7 +33235,7 @@
         <v>586</v>
       </c>
       <c r="H179" s="6" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I179" s="6" t="s">
         <v>135</v>
@@ -33147,7 +33313,7 @@
         <v>586</v>
       </c>
       <c r="H180" s="6" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I180" s="6" t="s">
         <v>137</v>
@@ -33225,7 +33391,7 @@
         <v>586</v>
       </c>
       <c r="H181" s="6" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I181" s="6" t="s">
         <v>139</v>
@@ -33306,7 +33472,7 @@
         <v>586</v>
       </c>
       <c r="H182" s="6" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I182" s="6" t="s">
         <v>140</v>
@@ -33381,7 +33547,7 @@
         <v>586</v>
       </c>
       <c r="H183" s="6" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I183" s="6" t="s">
         <v>760</v>
@@ -33456,7 +33622,7 @@
         <v>586</v>
       </c>
       <c r="H184" s="6" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I184" s="6" t="s">
         <v>143</v>
@@ -33531,7 +33697,7 @@
         <v>586</v>
       </c>
       <c r="H185" s="6" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I185" s="6" t="s">
         <v>144</v>
@@ -33597,7 +33763,7 @@
         <v>586</v>
       </c>
       <c r="H186" s="6" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I186" s="6" t="s">
         <v>147</v>
@@ -33672,7 +33838,7 @@
         <v>586</v>
       </c>
       <c r="H187" s="6" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I187" s="6" t="s">
         <v>149</v>
@@ -33747,7 +33913,7 @@
         <v>586</v>
       </c>
       <c r="H188" s="6" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I188" s="6" t="s">
         <v>153</v>
@@ -33769,7 +33935,7 @@
         <v>153</v>
       </c>
       <c r="S188" s="39" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="T188" s="18" t="s">
         <v>756</v>
@@ -33801,7 +33967,7 @@
         <v>613</v>
       </c>
       <c r="H189" s="17" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I189" s="17" t="s">
         <v>133</v>
@@ -33814,10 +33980,10 @@
         <v>133</v>
       </c>
       <c r="O189" s="17" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="P189" s="17" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="Q189" s="17" t="s">
         <v>95</v>
@@ -33826,7 +33992,7 @@
         <v>133</v>
       </c>
       <c r="S189" s="19" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="T189" s="19" t="s">
         <v>657</v>
@@ -33876,7 +34042,7 @@
         <v>613</v>
       </c>
       <c r="H190" s="17" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I190" s="17" t="s">
         <v>135</v>
@@ -33889,10 +34055,10 @@
         <v>135</v>
       </c>
       <c r="O190" s="17" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="P190" s="17" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="Q190" s="17" t="s">
         <v>101</v>
@@ -33954,7 +34120,7 @@
         <v>613</v>
       </c>
       <c r="H191" s="17" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I191" s="17" t="s">
         <v>137</v>
@@ -34032,7 +34198,7 @@
         <v>613</v>
       </c>
       <c r="H192" s="17" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I192" s="17" t="s">
         <v>139</v>
@@ -34113,7 +34279,7 @@
         <v>613</v>
       </c>
       <c r="H193" s="17" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I193" s="17" t="s">
         <v>140</v>
@@ -34188,7 +34354,7 @@
         <v>613</v>
       </c>
       <c r="H194" s="17" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I194" s="17" t="s">
         <v>760</v>
@@ -34263,7 +34429,7 @@
         <v>613</v>
       </c>
       <c r="H195" s="17" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I195" s="17" t="s">
         <v>143</v>
@@ -34338,7 +34504,7 @@
         <v>613</v>
       </c>
       <c r="H196" s="17" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I196" s="17" t="s">
         <v>144</v>
@@ -34404,7 +34570,7 @@
         <v>613</v>
       </c>
       <c r="H197" s="17" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I197" s="17" t="s">
         <v>147</v>
@@ -34479,7 +34645,7 @@
         <v>613</v>
       </c>
       <c r="H198" s="17" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I198" s="17" t="s">
         <v>149</v>
@@ -34554,7 +34720,7 @@
         <v>613</v>
       </c>
       <c r="H199" s="17" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I199" s="17" t="s">
         <v>153</v>
@@ -34576,7 +34742,7 @@
         <v>153</v>
       </c>
       <c r="S199" s="40" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="T199" s="19" t="s">
         <v>756</v>
@@ -34608,7 +34774,7 @@
         <v>624</v>
       </c>
       <c r="H200" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I200" s="6" t="s">
         <v>133</v>
@@ -34633,7 +34799,7 @@
         <v>133</v>
       </c>
       <c r="S200" s="18" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="T200" s="18" t="s">
         <v>657</v>
@@ -34683,7 +34849,7 @@
         <v>624</v>
       </c>
       <c r="H201" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I201" s="6" t="s">
         <v>135</v>
@@ -34761,7 +34927,7 @@
         <v>624</v>
       </c>
       <c r="H202" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I202" s="6" t="s">
         <v>137</v>
@@ -34839,7 +35005,7 @@
         <v>624</v>
       </c>
       <c r="H203" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I203" s="6" t="s">
         <v>139</v>
@@ -34920,7 +35086,7 @@
         <v>624</v>
       </c>
       <c r="H204" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I204" s="6" t="s">
         <v>140</v>
@@ -34995,7 +35161,7 @@
         <v>624</v>
       </c>
       <c r="H205" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I205" s="6" t="s">
         <v>760</v>
@@ -35070,7 +35236,7 @@
         <v>624</v>
       </c>
       <c r="H206" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I206" s="6" t="s">
         <v>143</v>
@@ -35145,7 +35311,7 @@
         <v>624</v>
       </c>
       <c r="H207" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I207" s="6" t="s">
         <v>144</v>
@@ -35211,7 +35377,7 @@
         <v>624</v>
       </c>
       <c r="H208" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I208" s="6" t="s">
         <v>147</v>
@@ -35283,7 +35449,7 @@
         <v>624</v>
       </c>
       <c r="H209" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I209" s="6" t="s">
         <v>149</v>
@@ -35358,7 +35524,7 @@
         <v>624</v>
       </c>
       <c r="H210" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I210" s="6" t="s">
         <v>153</v>
@@ -35380,7 +35546,7 @@
         <v>153</v>
       </c>
       <c r="S210" s="39" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="T210" s="18" t="s">
         <v>756</v>
@@ -35412,7 +35578,7 @@
         <v>631</v>
       </c>
       <c r="H211" s="17" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I211" s="17" t="s">
         <v>133</v>
@@ -35437,7 +35603,7 @@
         <v>133</v>
       </c>
       <c r="S211" s="19" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="T211" s="19" t="s">
         <v>657</v>
@@ -35487,7 +35653,7 @@
         <v>631</v>
       </c>
       <c r="H212" s="17" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I212" s="17" t="s">
         <v>135</v>
@@ -35565,7 +35731,7 @@
         <v>631</v>
       </c>
       <c r="H213" s="17" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I213" s="17" t="s">
         <v>137</v>
@@ -35643,7 +35809,7 @@
         <v>631</v>
       </c>
       <c r="H214" s="17" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I214" s="17" t="s">
         <v>139</v>
@@ -35724,7 +35890,7 @@
         <v>631</v>
       </c>
       <c r="H215" s="17" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I215" s="17" t="s">
         <v>140</v>
@@ -35799,7 +35965,7 @@
         <v>631</v>
       </c>
       <c r="H216" s="17" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I216" s="17" t="s">
         <v>760</v>
@@ -35874,7 +36040,7 @@
         <v>631</v>
       </c>
       <c r="H217" s="17" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I217" s="17" t="s">
         <v>143</v>
@@ -35949,7 +36115,7 @@
         <v>631</v>
       </c>
       <c r="H218" s="17" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I218" s="17" t="s">
         <v>144</v>
@@ -36015,7 +36181,7 @@
         <v>631</v>
       </c>
       <c r="H219" s="17" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I219" s="17" t="s">
         <v>147</v>
@@ -36090,7 +36256,7 @@
         <v>631</v>
       </c>
       <c r="H220" s="17" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I220" s="17" t="s">
         <v>149</v>
@@ -36165,7 +36331,7 @@
         <v>631</v>
       </c>
       <c r="H221" s="17" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I221" s="17" t="s">
         <v>153</v>
@@ -36187,7 +36353,7 @@
         <v>153</v>
       </c>
       <c r="S221" s="40" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="T221" s="19" t="s">
         <v>756</v>
@@ -36219,7 +36385,7 @@
         <v>671</v>
       </c>
       <c r="H222" s="6" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I222" s="6" t="s">
         <v>133</v>
@@ -36244,7 +36410,7 @@
         <v>133</v>
       </c>
       <c r="S222" s="18" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="T222" s="18" t="s">
         <v>657</v>
@@ -36294,7 +36460,7 @@
         <v>671</v>
       </c>
       <c r="H223" s="6" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I223" s="6" t="s">
         <v>135</v>
@@ -36372,7 +36538,7 @@
         <v>671</v>
       </c>
       <c r="H224" s="6" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I224" s="6" t="s">
         <v>137</v>
@@ -36450,7 +36616,7 @@
         <v>671</v>
       </c>
       <c r="H225" s="6" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I225" s="6" t="s">
         <v>139</v>
@@ -36531,7 +36697,7 @@
         <v>671</v>
       </c>
       <c r="H226" s="6" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I226" s="6" t="s">
         <v>140</v>
@@ -36606,7 +36772,7 @@
         <v>671</v>
       </c>
       <c r="H227" s="6" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I227" s="6" t="s">
         <v>760</v>
@@ -36681,7 +36847,7 @@
         <v>671</v>
       </c>
       <c r="H228" s="6" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I228" s="6" t="s">
         <v>143</v>
@@ -36756,7 +36922,7 @@
         <v>671</v>
       </c>
       <c r="H229" s="6" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I229" s="6" t="s">
         <v>144</v>
@@ -36822,7 +36988,7 @@
         <v>671</v>
       </c>
       <c r="H230" s="6" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I230" s="6" t="s">
         <v>147</v>
@@ -36897,7 +37063,7 @@
         <v>671</v>
       </c>
       <c r="H231" s="6" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I231" s="6" t="s">
         <v>149</v>
@@ -36972,7 +37138,7 @@
         <v>671</v>
       </c>
       <c r="H232" s="6" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I232" s="6" t="s">
         <v>153</v>
@@ -36994,7 +37160,7 @@
         <v>153</v>
       </c>
       <c r="S232" s="39" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="T232" s="18" t="s">
         <v>756</v>
@@ -38938,7 +39104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C383A680-A067-4176-A331-9A22446EB76E}">
   <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
     </sheetView>
@@ -43196,7 +43362,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD6"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -43238,12 +43404,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23F36E1-D7D8-4C67-84BE-780D147430B4}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A27" sqref="A27:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
+    <col min="1" max="1" width="16.41015625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.76171875" customWidth="1"/>
     <col min="4" max="4" width="22.5859375" customWidth="1"/>
     <col min="5" max="5" width="11.41015625" customWidth="1"/>
@@ -43258,7 +43425,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>788</v>
@@ -43304,33 +43471,33 @@
     </row>
     <row r="3" spans="1:13" ht="57.35" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E3" t="s">
         <v>862</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="J3" s="47"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C4" s="38"/>
       <c r="D4" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="J4" s="47" t="s">
         <v>857</v>
@@ -43344,44 +43511,44 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="J5" s="47" t="s">
+        <v>995</v>
+      </c>
+      <c r="K5" t="s">
         <v>996</v>
-      </c>
-      <c r="K5" t="s">
-        <v>997</v>
       </c>
       <c r="L5" t="s">
         <v>706</v>
       </c>
       <c r="M5" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C6" s="38"/>
       <c r="D6" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="J6" s="47" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="K6" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="L6" t="s">
         <v>706</v>
@@ -43389,20 +43556,20 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="J7" s="47" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="K7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="L7" t="s">
         <v>706</v>
@@ -43410,33 +43577,33 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E8" t="s">
         <v>862</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J9" s="47" t="s">
         <v>857</v>
@@ -43450,44 +43617,44 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C10" s="38"/>
       <c r="D10" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J10" s="47" t="s">
+        <v>995</v>
+      </c>
+      <c r="K10" t="s">
         <v>996</v>
-      </c>
-      <c r="K10" t="s">
-        <v>997</v>
       </c>
       <c r="L10" t="s">
         <v>706</v>
       </c>
       <c r="M10" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J11" s="47" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="K11" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="L11" t="s">
         <v>706</v>
@@ -43495,20 +43662,20 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C12" s="38"/>
       <c r="D12" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J12" s="47" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="K12" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="L12" t="s">
         <v>706</v>
@@ -43516,33 +43683,33 @@
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C13" s="38"/>
       <c r="D13" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E13" t="s">
         <v>862</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="J13" s="47"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C14" s="38"/>
       <c r="D14" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="J14" s="47" t="s">
         <v>857</v>
@@ -43556,44 +43723,44 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="J15" s="47" t="s">
+        <v>995</v>
+      </c>
+      <c r="K15" t="s">
         <v>996</v>
-      </c>
-      <c r="K15" t="s">
-        <v>997</v>
       </c>
       <c r="L15" t="s">
         <v>706</v>
       </c>
       <c r="M15" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="J16" s="47" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="K16" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="L16" t="s">
         <v>706</v>
@@ -43601,20 +43768,20 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="J17" s="47" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="K17" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="L17" t="s">
         <v>706</v>
@@ -43622,33 +43789,33 @@
     </row>
     <row r="18" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E18" t="s">
         <v>862</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J18" s="47"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="J19" s="47" t="s">
         <v>857</v>
@@ -43662,44 +43829,44 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="J20" s="47" t="s">
+        <v>995</v>
+      </c>
+      <c r="K20" t="s">
         <v>996</v>
-      </c>
-      <c r="K20" t="s">
-        <v>997</v>
       </c>
       <c r="L20" t="s">
         <v>706</v>
       </c>
       <c r="M20" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C21" s="38"/>
       <c r="D21" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="J21" s="47" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="K21" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="L21" t="s">
         <v>706</v>
@@ -43707,20 +43874,20 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C22" s="38"/>
       <c r="D22" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="J22" s="47" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="K22" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="L22" t="s">
         <v>706</v>
@@ -43728,33 +43895,33 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C23" s="38"/>
       <c r="D23" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E23" t="s">
         <v>862</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="J23" s="47"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C24" s="38"/>
       <c r="D24" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="J24" s="47" t="s">
         <v>857</v>
@@ -43768,44 +43935,44 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C25" s="38"/>
       <c r="D25" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="J25" s="47" t="s">
+        <v>995</v>
+      </c>
+      <c r="K25" t="s">
         <v>996</v>
-      </c>
-      <c r="K25" t="s">
-        <v>997</v>
       </c>
       <c r="L25" t="s">
         <v>706</v>
       </c>
       <c r="M25" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C26" s="38"/>
       <c r="D26" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="J26" s="47" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="K26" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="L26" t="s">
         <v>706</v>
@@ -43813,20 +43980,20 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="J27" s="47" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="K27" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="L27" t="s">
         <v>706</v>
@@ -43834,20 +44001,20 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C28" s="68"/>
       <c r="D28" s="69" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E28" s="69" t="s">
         <v>862</v>
       </c>
       <c r="F28" s="70" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="G28" s="71"/>
       <c r="H28" s="71"/>
@@ -43860,14 +44027,14 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C29" s="68"/>
       <c r="D29" s="69" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E29" s="69"/>
       <c r="F29" s="70"/>
@@ -43888,14 +44055,14 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C30" s="68"/>
       <c r="D30" s="69" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E30" s="69"/>
       <c r="F30" s="70"/>
@@ -43903,29 +44070,29 @@
       <c r="H30" s="71"/>
       <c r="I30" s="69"/>
       <c r="J30" s="47" t="s">
+        <v>995</v>
+      </c>
+      <c r="K30" s="69" t="s">
         <v>996</v>
-      </c>
-      <c r="K30" s="69" t="s">
-        <v>997</v>
       </c>
       <c r="L30" s="69" t="s">
         <v>706</v>
       </c>
       <c r="M30" s="69" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="N30" s="69"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C31" s="68"/>
       <c r="D31" s="69" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E31" s="69"/>
       <c r="F31" s="70"/>
@@ -43933,10 +44100,10 @@
       <c r="H31" s="71"/>
       <c r="I31" s="69"/>
       <c r="J31" s="47" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="K31" s="69" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="L31" s="69" t="s">
         <v>706</v>
@@ -43946,14 +44113,14 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C32" s="68"/>
       <c r="D32" s="69" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E32" s="69"/>
       <c r="F32" s="70"/>
@@ -43961,10 +44128,10 @@
       <c r="H32" s="71"/>
       <c r="I32" s="69"/>
       <c r="J32" s="47" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="K32" s="69" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="L32" s="69" t="s">
         <v>706</v>
@@ -44287,13 +44454,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AC6FE86-DEB8-4DB4-A767-CC556C7C155E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D285143-3FFD-4D69-8656-4C027ACCDCEF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91A2AB70-0F48-46F4-9875-0B133AE3F8BC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E186E731-93A8-401D-9E5E-E368505C16A6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E86F0610-31EC-46DD-8E51-87F500688CDC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5C14843-64DE-4E93-B64A-09A360458B3B}"/>
 </file>
--- a/BC Curation Template.xlsx
+++ b/BC Curation Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linda\Documents\CDISC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AC5DB6-F27A-48AB-8848-2667BD3862F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B37A6A-DDAB-4D71-9ED3-3870DD3C87B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{FA29263D-F7AA-4D0C-AE9B-6B008D3B18BE}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11715" uniqueCount="1102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11762" uniqueCount="1102">
   <si>
     <t>C164634</t>
   </si>
@@ -12084,7 +12084,7 @@
   <dimension ref="A1:N68"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -14059,8 +14059,8 @@
   <dimension ref="A1:AG90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -20431,8 +20431,8 @@
   <dimension ref="A1:AF232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H58" sqref="H58"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -37189,12 +37189,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D07318-37D9-4584-BDF7-2B2AF3921938}">
-  <dimension ref="A1:U90"/>
+  <dimension ref="A1:V90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="N27" sqref="N27"/>
-      <selection pane="bottomLeft" activeCell="R31" sqref="R31"/>
+      <selection pane="bottomLeft" activeCell="P1" sqref="P1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -37214,15 +37214,14 @@
     <col min="13" max="13" width="12.1171875" style="11" customWidth="1"/>
     <col min="14" max="14" width="23.52734375" style="11" customWidth="1"/>
     <col min="15" max="15" width="11.8203125" customWidth="1"/>
-    <col min="16" max="16" width="21.46875" customWidth="1"/>
-    <col min="17" max="17" width="14.29296875" customWidth="1"/>
-    <col min="18" max="18" width="21.52734375" customWidth="1"/>
-    <col min="19" max="19" width="22.8203125" style="11" customWidth="1"/>
-    <col min="20" max="20" width="16.76171875" customWidth="1"/>
-    <col min="21" max="21" width="16.87890625" customWidth="1"/>
+    <col min="16" max="16" width="7.05859375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.3515625" customWidth="1"/>
+    <col min="18" max="18" width="13.3515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.76171875" customWidth="1"/>
+    <col min="20" max="20" width="16.87890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>788</v>
       </c>
@@ -37233,7 +37232,7 @@
         <v>824</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>825</v>
+        <v>799</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>826</v>
@@ -37269,25 +37268,28 @@
         <v>832</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>833</v>
+        <v>802</v>
       </c>
       <c r="Q1" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="R1" s="10" t="s">
         <v>804</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>891</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>892</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>834</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:22" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
@@ -37328,11 +37330,11 @@
       <c r="O2" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="Q2" s="49"/>
       <c r="R2" s="49"/>
       <c r="S2" s="49"/>
-    </row>
-    <row r="3" spans="1:21" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="T2" s="49"/>
+    </row>
+    <row r="3" spans="1:22" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A3" s="36" t="s">
         <v>0</v>
       </c>
@@ -37375,20 +37377,23 @@
         <v>90</v>
       </c>
       <c r="P3" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q3" s="36" t="s">
         <v>867</v>
       </c>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49" t="s">
-        <v>213</v>
-      </c>
+      <c r="R3" s="49"/>
       <c r="S3" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="T3" s="36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="T3" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="U3" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="36" t="s">
         <v>9</v>
       </c>
@@ -37429,11 +37434,11 @@
       <c r="O4" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="Q4" s="49"/>
       <c r="R4" s="49"/>
       <c r="S4" s="49"/>
-    </row>
-    <row r="5" spans="1:21" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="T4" s="49"/>
+    </row>
+    <row r="5" spans="1:22" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A5" s="36" t="s">
         <v>9</v>
       </c>
@@ -37476,19 +37481,23 @@
         <v>106</v>
       </c>
       <c r="P5" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q5" s="36" t="s">
         <v>867</v>
       </c>
-      <c r="R5" s="49" t="s">
-        <v>109</v>
-      </c>
+      <c r="R5" s="49"/>
       <c r="S5" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="T5" s="36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="T5" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="U5" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="36" t="s">
         <v>18</v>
       </c>
@@ -37529,9 +37538,10 @@
       <c r="O6" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="S6" s="49"/>
-    </row>
-    <row r="7" spans="1:21" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="R6" s="49"/>
+      <c r="T6" s="49"/>
+    </row>
+    <row r="7" spans="1:22" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A7" s="36" t="s">
         <v>18</v>
       </c>
@@ -37571,18 +37581,21 @@
         <v>110</v>
       </c>
       <c r="P7" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q7" s="36" t="s">
         <v>867</v>
       </c>
-      <c r="Q7" s="49"/>
       <c r="R7" s="49"/>
-      <c r="S7" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="T7" s="36" t="s">
+      <c r="S7" s="49"/>
+      <c r="T7" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="36" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="36" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:22" s="36" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="A8" s="36" t="s">
         <v>18</v>
       </c>
@@ -37621,17 +37634,20 @@
         <v>110</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q8" s="36" t="s">
+        <v>1027</v>
+      </c>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49" t="s">
         <v>893</v>
       </c>
-      <c r="S8" s="49" t="s">
+      <c r="T8" s="49" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="36" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:22" s="36" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
       <c r="A9" s="36" t="s">
         <v>18</v>
       </c>
@@ -37671,17 +37687,20 @@
         <v>110</v>
       </c>
       <c r="P9" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q9" s="36" t="s">
         <v>868</v>
       </c>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49" t="s">
+      <c r="R9" s="49"/>
+      <c r="S9" s="49" t="s">
         <v>895</v>
       </c>
-      <c r="S9" s="49" t="s">
+      <c r="T9" s="49" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="36" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:22" s="36" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="A10" s="36" t="s">
         <v>18</v>
       </c>
@@ -37720,17 +37739,20 @@
         <v>110</v>
       </c>
       <c r="P10" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q10" s="36" t="s">
         <v>869</v>
       </c>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49" t="s">
+      <c r="R10" s="49"/>
+      <c r="S10" s="49" t="s">
         <v>897</v>
       </c>
-      <c r="S10" s="49" t="s">
+      <c r="T10" s="49" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:22" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="36" t="s">
         <v>33</v>
       </c>
@@ -37772,11 +37794,11 @@
       <c r="O11" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="Q11" s="49"/>
       <c r="R11" s="49"/>
       <c r="S11" s="49"/>
-    </row>
-    <row r="12" spans="1:21" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="T11" s="49"/>
+    </row>
+    <row r="12" spans="1:22" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A12" s="36" t="s">
         <v>33</v>
       </c>
@@ -37815,18 +37837,21 @@
         <v>121</v>
       </c>
       <c r="P12" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q12" s="36" t="s">
         <v>867</v>
       </c>
-      <c r="Q12" s="49"/>
       <c r="R12" s="49"/>
-      <c r="S12" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="T12" s="36" t="s">
+      <c r="S12" s="49"/>
+      <c r="T12" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="36" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="36" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:22" s="36" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="A13" s="36" t="s">
         <v>33</v>
       </c>
@@ -37866,17 +37891,20 @@
         <v>121</v>
       </c>
       <c r="P13" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q13" s="36" t="s">
+        <v>1027</v>
+      </c>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49" t="s">
         <v>893</v>
       </c>
-      <c r="S13" s="49" t="s">
+      <c r="T13" s="49" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="36" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:22" s="36" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
       <c r="A14" s="36" t="s">
         <v>33</v>
       </c>
@@ -37915,17 +37943,20 @@
         <v>121</v>
       </c>
       <c r="P14" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q14" s="36" t="s">
         <v>868</v>
       </c>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49" t="s">
+      <c r="R14" s="49"/>
+      <c r="S14" s="49" t="s">
         <v>895</v>
       </c>
-      <c r="S14" s="49" t="s">
+      <c r="T14" s="49" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="36" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:22" s="36" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="A15" s="36" t="s">
         <v>33</v>
       </c>
@@ -37965,17 +37996,20 @@
         <v>121</v>
       </c>
       <c r="P15" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q15" s="36" t="s">
         <v>869</v>
       </c>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49" t="s">
+      <c r="R15" s="49"/>
+      <c r="S15" s="49" t="s">
         <v>897</v>
       </c>
-      <c r="S15" s="49" t="s">
+      <c r="T15" s="49" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:22" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="36" t="s">
         <v>37</v>
       </c>
@@ -38016,11 +38050,11 @@
       <c r="O16" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="Q16" s="49"/>
       <c r="R16" s="49"/>
       <c r="S16" s="49"/>
-    </row>
-    <row r="17" spans="1:20" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="T16" s="49"/>
+    </row>
+    <row r="17" spans="1:21" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A17" s="36" t="s">
         <v>37</v>
       </c>
@@ -38060,18 +38094,21 @@
         <v>122</v>
       </c>
       <c r="P17" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q17" s="36" t="s">
         <v>867</v>
       </c>
-      <c r="Q17" s="49"/>
       <c r="R17" s="49"/>
-      <c r="S17" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="T17" s="36" t="s">
+      <c r="S17" s="49"/>
+      <c r="T17" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" s="36" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="36" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:21" s="36" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="A18" s="36" t="s">
         <v>37</v>
       </c>
@@ -38110,17 +38147,20 @@
         <v>122</v>
       </c>
       <c r="P18" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q18" s="36" t="s">
+        <v>1027</v>
+      </c>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49" t="s">
         <v>893</v>
       </c>
-      <c r="S18" s="49" t="s">
+      <c r="T18" s="49" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="36" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:21" s="36" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
       <c r="A19" s="36" t="s">
         <v>37</v>
       </c>
@@ -38160,17 +38200,20 @@
         <v>122</v>
       </c>
       <c r="P19" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q19" s="36" t="s">
         <v>868</v>
       </c>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="49" t="s">
+      <c r="R19" s="49"/>
+      <c r="S19" s="49" t="s">
         <v>895</v>
       </c>
-      <c r="S19" s="49" t="s">
+      <c r="T19" s="49" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="36" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:21" s="36" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="A20" s="36" t="s">
         <v>37</v>
       </c>
@@ -38209,17 +38252,20 @@
         <v>122</v>
       </c>
       <c r="P20" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="36" t="s">
         <v>869</v>
       </c>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49" t="s">
+      <c r="R20" s="49"/>
+      <c r="S20" s="49" t="s">
         <v>897</v>
       </c>
-      <c r="S20" s="49" t="s">
+      <c r="T20" s="49" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:21" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="36" t="s">
         <v>46</v>
       </c>
@@ -38261,11 +38307,11 @@
       <c r="O21" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="Q21" s="49"/>
       <c r="R21" s="49"/>
       <c r="S21" s="49"/>
-    </row>
-    <row r="22" spans="1:20" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="T21" s="49"/>
+    </row>
+    <row r="22" spans="1:21" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A22" s="36" t="s">
         <v>46</v>
       </c>
@@ -38304,20 +38350,23 @@
         <v>125</v>
       </c>
       <c r="P22" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q22" s="36" t="s">
         <v>867</v>
       </c>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49" t="s">
-        <v>128</v>
-      </c>
+      <c r="R22" s="49"/>
       <c r="S22" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="T22" s="36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="T22" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="U22" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="36" t="s">
         <v>50</v>
       </c>
@@ -38357,17 +38406,20 @@
         <v>129</v>
       </c>
       <c r="P23" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q23" s="36" t="s">
         <v>870</v>
       </c>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49" t="s">
+      <c r="R23" s="49"/>
+      <c r="S23" s="49" t="s">
         <v>899</v>
       </c>
-      <c r="S23" s="49" t="s">
+      <c r="T23" s="49" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:21" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="36" t="s">
         <v>54</v>
       </c>
@@ -38408,11 +38460,11 @@
       <c r="O24" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="Q24" s="49"/>
       <c r="R24" s="49"/>
       <c r="S24" s="49"/>
-    </row>
-    <row r="25" spans="1:20" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="T24" s="49"/>
+    </row>
+    <row r="25" spans="1:21" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A25" s="36" t="s">
         <v>54</v>
       </c>
@@ -38452,18 +38504,21 @@
         <v>122</v>
       </c>
       <c r="P25" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q25" s="36" t="s">
         <v>867</v>
       </c>
-      <c r="Q25" s="49"/>
       <c r="R25" s="49"/>
-      <c r="S25" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="T25" s="36" t="s">
+      <c r="S25" s="49"/>
+      <c r="T25" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="U25" s="36" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="36" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:21" s="36" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="A26" s="36" t="s">
         <v>54</v>
       </c>
@@ -38502,17 +38557,20 @@
         <v>122</v>
       </c>
       <c r="P26" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q26" s="36" t="s">
+        <v>1027</v>
+      </c>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49" t="s">
         <v>893</v>
       </c>
-      <c r="S26" s="49" t="s">
+      <c r="T26" s="49" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="36" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:21" s="36" customFormat="1" ht="86" x14ac:dyDescent="0.5">
       <c r="A27" s="36" t="s">
         <v>54</v>
       </c>
@@ -38552,17 +38610,20 @@
         <v>122</v>
       </c>
       <c r="P27" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q27" s="36" t="s">
         <v>868</v>
       </c>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49" t="s">
+      <c r="R27" s="49"/>
+      <c r="S27" s="49" t="s">
         <v>901</v>
       </c>
-      <c r="S27" s="49" t="s">
+      <c r="T27" s="49" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:21" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A28" s="36" t="s">
         <v>54</v>
       </c>
@@ -38601,17 +38662,20 @@
         <v>122</v>
       </c>
       <c r="P28" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q28" s="36" t="s">
         <v>869</v>
       </c>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49" t="s">
+      <c r="R28" s="49"/>
+      <c r="S28" s="49" t="s">
         <v>897</v>
       </c>
-      <c r="S28" s="49" t="s">
+      <c r="T28" s="49" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:21" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="36" t="s">
         <v>516</v>
       </c>
@@ -38653,11 +38717,11 @@
       <c r="O29" s="36" t="s">
         <v>515</v>
       </c>
-      <c r="Q29" s="49"/>
       <c r="R29" s="49"/>
       <c r="S29" s="49"/>
-    </row>
-    <row r="30" spans="1:20" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="T29" s="49"/>
+    </row>
+    <row r="30" spans="1:21" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A30" s="36" t="s">
         <v>516</v>
       </c>
@@ -38696,20 +38760,23 @@
         <v>515</v>
       </c>
       <c r="P30" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q30" s="36" t="s">
         <v>867</v>
       </c>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="49" t="s">
-        <v>542</v>
-      </c>
+      <c r="R30" s="49"/>
       <c r="S30" s="49" t="s">
         <v>542</v>
       </c>
-      <c r="T30" s="36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" s="36" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+      <c r="T30" s="49" t="s">
+        <v>542</v>
+      </c>
+      <c r="U30" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" s="36" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
       <c r="A31" s="36" t="s">
         <v>516</v>
       </c>
@@ -38749,17 +38816,20 @@
         <v>515</v>
       </c>
       <c r="P31" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q31" s="36" t="s">
         <v>868</v>
       </c>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="49" t="s">
+      <c r="R31" s="49"/>
+      <c r="S31" s="49" t="s">
         <v>903</v>
       </c>
-      <c r="S31" s="49" t="s">
+      <c r="T31" s="49" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:21" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A32" s="36" t="s">
         <v>530</v>
       </c>
@@ -38800,11 +38870,11 @@
       <c r="O32" s="36" t="s">
         <v>515</v>
       </c>
-      <c r="Q32" s="49"/>
       <c r="R32" s="49"/>
       <c r="S32" s="49"/>
-    </row>
-    <row r="33" spans="1:20" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="T32" s="49"/>
+    </row>
+    <row r="33" spans="1:21" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A33" s="36" t="s">
         <v>530</v>
       </c>
@@ -38844,20 +38914,23 @@
         <v>515</v>
       </c>
       <c r="P33" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q33" s="36" t="s">
         <v>867</v>
       </c>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="49" t="s">
-        <v>542</v>
-      </c>
+      <c r="R33" s="49"/>
       <c r="S33" s="49" t="s">
         <v>542</v>
       </c>
-      <c r="T33" s="36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="T33" s="49" t="s">
+        <v>542</v>
+      </c>
+      <c r="U33" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A34" s="36" t="s">
         <v>9</v>
       </c>
@@ -38895,11 +38968,11 @@
       <c r="O34" s="36" t="s">
         <v>771</v>
       </c>
-      <c r="Q34" s="49"/>
       <c r="R34" s="49"/>
       <c r="S34" s="49"/>
-    </row>
-    <row r="35" spans="1:20" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="T34" s="49"/>
+    </row>
+    <row r="35" spans="1:21" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A35" s="36" t="s">
         <v>9</v>
       </c>
@@ -38942,116 +39015,100 @@
         <v>771</v>
       </c>
       <c r="P35" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q35" s="36" t="s">
         <v>867</v>
       </c>
-      <c r="S35" s="49"/>
-      <c r="T35" s="49" t="s">
+      <c r="R35" s="49"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="49" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.5">
       <c r="G36" s="36"/>
       <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.5">
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.5">
       <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.5">
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.5">
       <c r="G38" s="36"/>
       <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.5">
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.5">
       <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.5">
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.5">
       <c r="G40" s="36"/>
       <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.5">
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.5">
       <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.5">
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.5">
       <c r="G42" s="36"/>
       <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.5">
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.5">
       <c r="Q43" s="18"/>
-      <c r="R43" s="18"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.5">
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.5">
       <c r="G44" s="36"/>
       <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.5">
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.5">
       <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.5">
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.5">
       <c r="G46" s="36"/>
       <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.5">
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.5">
       <c r="Q47" s="19"/>
-      <c r="R47" s="19"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.5">
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.5">
       <c r="G48" s="36"/>
       <c r="Q48" s="19"/>
-      <c r="R48" s="19"/>
-    </row>
-    <row r="49" spans="7:18" x14ac:dyDescent="0.5">
+    </row>
+    <row r="49" spans="7:17" x14ac:dyDescent="0.5">
       <c r="Q49" s="17"/>
-      <c r="R49" s="17"/>
-    </row>
-    <row r="50" spans="7:18" x14ac:dyDescent="0.5">
+    </row>
+    <row r="50" spans="7:17" x14ac:dyDescent="0.5">
       <c r="G50" s="36"/>
       <c r="Q50" s="17"/>
-      <c r="R50" s="17"/>
-    </row>
-    <row r="51" spans="7:18" x14ac:dyDescent="0.5">
+    </row>
+    <row r="51" spans="7:17" x14ac:dyDescent="0.5">
       <c r="Q51" s="18"/>
-      <c r="R51" s="18"/>
-    </row>
-    <row r="52" spans="7:18" x14ac:dyDescent="0.5">
+    </row>
+    <row r="52" spans="7:17" x14ac:dyDescent="0.5">
       <c r="G52" s="36"/>
       <c r="Q52" s="18"/>
-      <c r="R52" s="18"/>
-    </row>
-    <row r="53" spans="7:18" x14ac:dyDescent="0.5">
+    </row>
+    <row r="53" spans="7:17" x14ac:dyDescent="0.5">
       <c r="Q53" s="18"/>
-      <c r="R53" s="18"/>
-    </row>
-    <row r="54" spans="7:18" x14ac:dyDescent="0.5">
+    </row>
+    <row r="54" spans="7:17" x14ac:dyDescent="0.5">
       <c r="G54" s="36"/>
       <c r="Q54" s="18"/>
-      <c r="R54" s="18"/>
-    </row>
-    <row r="55" spans="7:18" x14ac:dyDescent="0.5">
+    </row>
+    <row r="55" spans="7:17" x14ac:dyDescent="0.5">
       <c r="Q55" s="18"/>
-      <c r="R55" s="18"/>
-    </row>
-    <row r="56" spans="7:18" x14ac:dyDescent="0.5">
+    </row>
+    <row r="56" spans="7:17" x14ac:dyDescent="0.5">
       <c r="G56" s="36"/>
     </row>
-    <row r="58" spans="7:18" x14ac:dyDescent="0.5">
+    <row r="58" spans="7:17" x14ac:dyDescent="0.5">
       <c r="G58" s="36"/>
     </row>
-    <row r="60" spans="7:18" x14ac:dyDescent="0.5">
+    <row r="60" spans="7:17" x14ac:dyDescent="0.5">
       <c r="G60" s="36"/>
     </row>
-    <row r="62" spans="7:18" x14ac:dyDescent="0.5">
+    <row r="62" spans="7:17" x14ac:dyDescent="0.5">
       <c r="G62" s="36"/>
     </row>
-    <row r="64" spans="7:18" x14ac:dyDescent="0.5">
+    <row r="64" spans="7:17" x14ac:dyDescent="0.5">
       <c r="G64" s="36"/>
     </row>
     <row r="66" spans="7:7" x14ac:dyDescent="0.5">
@@ -39102,11 +39159,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C383A680-A067-4176-A331-9A22446EB76E}">
-  <dimension ref="A1:U90"/>
+  <dimension ref="A1:V90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomLeft" activeCell="P56" sqref="P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -39126,15 +39183,16 @@
     <col min="13" max="13" width="12.87890625" customWidth="1"/>
     <col min="14" max="14" width="21" customWidth="1"/>
     <col min="15" max="15" width="11.76171875" customWidth="1"/>
-    <col min="16" max="16" width="20.41015625" customWidth="1"/>
-    <col min="17" max="17" width="13.703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.29296875" customWidth="1"/>
-    <col min="19" max="19" width="18.46875" customWidth="1"/>
-    <col min="20" max="20" width="18.17578125" customWidth="1"/>
-    <col min="21" max="21" width="15" customWidth="1"/>
+    <col min="16" max="16" width="7.05859375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.3515625" customWidth="1"/>
+    <col min="18" max="18" width="13.703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.29296875" customWidth="1"/>
+    <col min="20" max="20" width="18.46875" customWidth="1"/>
+    <col min="21" max="21" width="18.17578125" customWidth="1"/>
+    <col min="22" max="22" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>788</v>
       </c>
@@ -39145,7 +39203,7 @@
         <v>824</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>825</v>
+        <v>799</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>826</v>
@@ -39181,25 +39239,28 @@
         <v>832</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>833</v>
+        <v>802</v>
       </c>
       <c r="Q1" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="R1" s="10" t="s">
         <v>804</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>891</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>892</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>834</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="6" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:22" s="6" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A2" s="6" t="s">
         <v>57</v>
       </c>
@@ -39239,15 +39300,15 @@
       <c r="O2" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="P2" s="18"/>
       <c r="Q2" s="18"/>
       <c r="R2" s="18"/>
       <c r="S2" s="18"/>
-      <c r="T2" s="18" t="s">
+      <c r="T2" s="18"/>
+      <c r="U2" s="18" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="6" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:22" s="6" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A3" s="6" t="s">
         <v>57</v>
       </c>
@@ -39287,19 +39348,22 @@
       <c r="O3" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="P3" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q3" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="18"/>
+      <c r="S3" s="18" t="s">
         <v>905</v>
       </c>
-      <c r="S3" s="18" t="s">
+      <c r="T3" s="18" t="s">
         <v>906</v>
       </c>
-      <c r="T3" s="18"/>
-    </row>
-    <row r="4" spans="1:21" s="6" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="U3" s="18"/>
+    </row>
+    <row r="4" spans="1:22" s="6" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A4" s="6" t="s">
         <v>57</v>
       </c>
@@ -39339,15 +39403,15 @@
       <c r="O4" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
       <c r="S4" s="18"/>
-      <c r="T4" s="18" t="s">
+      <c r="T4" s="18"/>
+      <c r="U4" s="18" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="6" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:22" s="6" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A5" s="6" t="s">
         <v>57</v>
       </c>
@@ -39389,9 +39453,9 @@
       <c r="O5" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="S5" s="18"/>
-    </row>
-    <row r="6" spans="1:21" s="6" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="T5" s="18"/>
+    </row>
+    <row r="6" spans="1:22" s="6" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A6" s="6" t="s">
         <v>57</v>
       </c>
@@ -39431,19 +39495,22 @@
         <v>132</v>
       </c>
       <c r="P6" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q6" s="6" t="s">
         <v>863</v>
-      </c>
-      <c r="R6" s="18" t="s">
-        <v>315</v>
       </c>
       <c r="S6" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="T6" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="T6" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A7" s="19" t="s">
         <v>70</v>
       </c>
@@ -39481,11 +39548,11 @@
       <c r="O7" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="T7" s="19" t="s">
+      <c r="U7" s="19" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:22" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A8" s="19" t="s">
         <v>70</v>
       </c>
@@ -39524,16 +39591,19 @@
         <v>163</v>
       </c>
       <c r="P8" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q8" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="R8" s="52" t="s">
+      <c r="S8" s="52" t="s">
         <v>905</v>
       </c>
-      <c r="S8" s="52" t="s">
+      <c r="T8" s="52" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:22" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A9" s="19" t="s">
         <v>70</v>
       </c>
@@ -39571,11 +39641,11 @@
       <c r="O9" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="T9" s="19" t="s">
+      <c r="U9" s="19" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:22" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A10" s="19" t="s">
         <v>70</v>
       </c>
@@ -39617,7 +39687,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:22" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A11" s="19" t="s">
         <v>70</v>
       </c>
@@ -39656,19 +39726,22 @@
         <v>163</v>
       </c>
       <c r="P11" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q11" s="19" t="s">
         <v>863</v>
-      </c>
-      <c r="R11" s="19" t="s">
-        <v>315</v>
       </c>
       <c r="S11" s="19" t="s">
         <v>315</v>
       </c>
       <c r="T11" s="19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+        <v>315</v>
+      </c>
+      <c r="U11" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A12" s="18" t="s">
         <v>73</v>
       </c>
@@ -39706,11 +39779,11 @@
       <c r="O12" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="T12" s="18" t="s">
+      <c r="U12" s="18" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:22" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A13" s="18" t="s">
         <v>73</v>
       </c>
@@ -39749,16 +39822,19 @@
         <v>171</v>
       </c>
       <c r="P13" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q13" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="R13" s="18" t="s">
+      <c r="S13" s="18" t="s">
         <v>905</v>
       </c>
-      <c r="S13" s="18" t="s">
+      <c r="T13" s="18" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:22" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A14" s="18" t="s">
         <v>73</v>
       </c>
@@ -39796,11 +39872,11 @@
       <c r="O14" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="T14" s="18" t="s">
+      <c r="U14" s="18" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:22" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A15" s="18" t="s">
         <v>73</v>
       </c>
@@ -39842,7 +39918,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:22" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A16" s="18" t="s">
         <v>73</v>
       </c>
@@ -39881,19 +39957,22 @@
         <v>171</v>
       </c>
       <c r="P16" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q16" s="18" t="s">
         <v>863</v>
-      </c>
-      <c r="R16" s="18" t="s">
-        <v>328</v>
       </c>
       <c r="S16" s="18" t="s">
         <v>328</v>
       </c>
       <c r="T16" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+        <v>328</v>
+      </c>
+      <c r="U16" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A17" s="19" t="s">
         <v>89</v>
       </c>
@@ -39931,11 +40010,11 @@
       <c r="O17" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="T17" s="19" t="s">
+      <c r="U17" s="19" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:21" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A18" s="19" t="s">
         <v>89</v>
       </c>
@@ -39974,16 +40053,19 @@
         <v>184</v>
       </c>
       <c r="P18" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q18" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="R18" s="52" t="s">
+      <c r="S18" s="52" t="s">
         <v>905</v>
       </c>
-      <c r="S18" s="52" t="s">
+      <c r="T18" s="52" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:21" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A19" s="19" t="s">
         <v>89</v>
       </c>
@@ -40021,11 +40103,11 @@
       <c r="O19" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="T19" s="19" t="s">
+      <c r="U19" s="19" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:21" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A20" s="19" t="s">
         <v>89</v>
       </c>
@@ -40067,7 +40149,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:21" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A21" s="19" t="s">
         <v>89</v>
       </c>
@@ -40106,19 +40188,22 @@
         <v>184</v>
       </c>
       <c r="P21" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q21" s="19" t="s">
         <v>863</v>
-      </c>
-      <c r="R21" s="19" t="s">
-        <v>336</v>
       </c>
       <c r="S21" s="19" t="s">
         <v>336</v>
       </c>
       <c r="T21" s="19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+        <v>336</v>
+      </c>
+      <c r="U21" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A22" s="18" t="s">
         <v>86</v>
       </c>
@@ -40156,11 +40241,11 @@
       <c r="O22" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="T22" s="18" t="s">
+      <c r="U22" s="18" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:21" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A23" s="18" t="s">
         <v>86</v>
       </c>
@@ -40199,16 +40284,19 @@
         <v>177</v>
       </c>
       <c r="P23" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q23" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="R23" s="18" t="s">
+      <c r="S23" s="18" t="s">
         <v>905</v>
       </c>
-      <c r="S23" s="18" t="s">
+      <c r="T23" s="18" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:21" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A24" s="18" t="s">
         <v>86</v>
       </c>
@@ -40246,11 +40334,11 @@
       <c r="O24" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="T24" s="18" t="s">
+      <c r="U24" s="18" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:21" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A25" s="18" t="s">
         <v>86</v>
       </c>
@@ -40291,11 +40379,11 @@
       <c r="O25" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="S25" s="18" t="s">
+      <c r="T25" s="18" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:21" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A26" s="19" t="s">
         <v>79</v>
       </c>
@@ -40333,11 +40421,11 @@
       <c r="O26" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="T26" s="19" t="s">
+      <c r="U26" s="19" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:21" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A27" s="19" t="s">
         <v>79</v>
       </c>
@@ -40376,16 +40464,19 @@
         <v>197</v>
       </c>
       <c r="P27" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q27" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="R27" s="52" t="s">
+      <c r="S27" s="52" t="s">
         <v>905</v>
       </c>
-      <c r="S27" s="52" t="s">
+      <c r="T27" s="52" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:21" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A28" s="19" t="s">
         <v>79</v>
       </c>
@@ -40423,11 +40514,11 @@
       <c r="O28" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="T28" s="19" t="s">
+      <c r="U28" s="19" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:21" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A29" s="19" t="s">
         <v>79</v>
       </c>
@@ -40469,7 +40560,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:21" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A30" s="19" t="s">
         <v>79</v>
       </c>
@@ -40508,19 +40599,22 @@
         <v>197</v>
       </c>
       <c r="P30" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q30" s="19" t="s">
         <v>863</v>
-      </c>
-      <c r="R30" s="19" t="s">
-        <v>196</v>
       </c>
       <c r="S30" s="19" t="s">
         <v>196</v>
       </c>
       <c r="T30" s="19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" s="6" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+        <v>196</v>
+      </c>
+      <c r="U30" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" s="6" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A31" s="6" t="s">
         <v>556</v>
       </c>
@@ -40560,15 +40654,15 @@
       <c r="O31" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="P31" s="18"/>
       <c r="Q31" s="18"/>
       <c r="R31" s="18"/>
       <c r="S31" s="18"/>
-      <c r="T31" s="18" t="s">
+      <c r="T31" s="18"/>
+      <c r="U31" s="18" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="6" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:21" s="6" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A32" s="6" t="s">
         <v>556</v>
       </c>
@@ -40608,19 +40702,22 @@
       <c r="O32" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="P32" s="18" t="s">
+      <c r="P32" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q32" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18" t="s">
+      <c r="R32" s="18"/>
+      <c r="S32" s="18" t="s">
         <v>905</v>
       </c>
-      <c r="S32" s="18" t="s">
+      <c r="T32" s="18" t="s">
         <v>906</v>
       </c>
-      <c r="T32" s="18"/>
-    </row>
-    <row r="33" spans="1:20" s="6" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+      <c r="U32" s="18"/>
+    </row>
+    <row r="33" spans="1:21" s="6" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="A33" s="6" t="s">
         <v>556</v>
       </c>
@@ -40660,15 +40757,15 @@
       <c r="O33" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="P33" s="18"/>
       <c r="Q33" s="18"/>
       <c r="R33" s="18"/>
       <c r="S33" s="18"/>
-      <c r="T33" s="18" t="s">
+      <c r="T33" s="18"/>
+      <c r="U33" s="18" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="34" spans="1:20" s="6" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:21" s="6" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A34" s="6" t="s">
         <v>556</v>
       </c>
@@ -40710,9 +40807,9 @@
       <c r="O34" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="S34" s="18"/>
-    </row>
-    <row r="35" spans="1:20" s="6" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+      <c r="T34" s="18"/>
+    </row>
+    <row r="35" spans="1:21" s="6" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
       <c r="A35" s="6" t="s">
         <v>556</v>
       </c>
@@ -40752,19 +40849,22 @@
         <v>560</v>
       </c>
       <c r="P35" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q35" s="6" t="s">
         <v>863</v>
-      </c>
-      <c r="R35" s="18" t="s">
-        <v>564</v>
       </c>
       <c r="S35" s="18" t="s">
         <v>564</v>
       </c>
-      <c r="T35" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" s="17" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="T35" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="U35" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" s="17" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A36" s="17" t="s">
         <v>583</v>
       </c>
@@ -40804,15 +40904,15 @@
       <c r="O36" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="P36" s="19"/>
       <c r="Q36" s="19"/>
       <c r="R36" s="19"/>
       <c r="S36" s="19"/>
-      <c r="T36" s="19" t="s">
+      <c r="T36" s="19"/>
+      <c r="U36" s="19" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="17" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:21" s="17" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A37" s="17" t="s">
         <v>583</v>
       </c>
@@ -40852,19 +40952,22 @@
       <c r="O37" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="P37" s="19" t="s">
+      <c r="P37" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q37" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="52" t="s">
+      <c r="R37" s="19"/>
+      <c r="S37" s="52" t="s">
         <v>905</v>
       </c>
-      <c r="S37" s="52" t="s">
+      <c r="T37" s="52" t="s">
         <v>906</v>
       </c>
-      <c r="T37" s="19"/>
-    </row>
-    <row r="38" spans="1:20" s="17" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+      <c r="U37" s="19"/>
+    </row>
+    <row r="38" spans="1:21" s="17" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="A38" s="17" t="s">
         <v>583</v>
       </c>
@@ -40904,15 +41007,15 @@
       <c r="O38" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="P38" s="19"/>
       <c r="Q38" s="19"/>
       <c r="R38" s="19"/>
       <c r="S38" s="19"/>
-      <c r="T38" s="19" t="s">
+      <c r="T38" s="19"/>
+      <c r="U38" s="19" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="17" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:21" s="17" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A39" s="17" t="s">
         <v>583</v>
       </c>
@@ -40954,9 +41057,9 @@
       <c r="O39" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="S39" s="19"/>
-    </row>
-    <row r="40" spans="1:20" s="17" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+      <c r="T39" s="19"/>
+    </row>
+    <row r="40" spans="1:21" s="17" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
       <c r="A40" s="17" t="s">
         <v>583</v>
       </c>
@@ -40996,19 +41099,22 @@
         <v>586</v>
       </c>
       <c r="P40" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q40" s="17" t="s">
         <v>863</v>
-      </c>
-      <c r="R40" s="19" t="s">
-        <v>564</v>
       </c>
       <c r="S40" s="19" t="s">
         <v>564</v>
       </c>
-      <c r="T40" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" s="6" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="T40" s="19" t="s">
+        <v>564</v>
+      </c>
+      <c r="U40" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" s="6" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A41" s="6" t="s">
         <v>583</v>
       </c>
@@ -41048,15 +41154,15 @@
       <c r="O41" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="P41" s="18"/>
       <c r="Q41" s="18"/>
       <c r="R41" s="18"/>
       <c r="S41" s="18"/>
-      <c r="T41" s="18" t="s">
+      <c r="T41" s="18"/>
+      <c r="U41" s="18" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="6" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:21" s="6" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A42" s="6" t="s">
         <v>583</v>
       </c>
@@ -41096,19 +41202,22 @@
       <c r="O42" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="P42" s="18" t="s">
+      <c r="P42" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q42" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="18" t="s">
+      <c r="R42" s="18"/>
+      <c r="S42" s="18" t="s">
         <v>905</v>
       </c>
-      <c r="S42" s="18" t="s">
+      <c r="T42" s="18" t="s">
         <v>906</v>
       </c>
-      <c r="T42" s="18"/>
-    </row>
-    <row r="43" spans="1:20" s="6" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="U42" s="18"/>
+    </row>
+    <row r="43" spans="1:21" s="6" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A43" s="6" t="s">
         <v>583</v>
       </c>
@@ -41148,15 +41257,15 @@
       <c r="O43" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="P43" s="18"/>
       <c r="Q43" s="18"/>
       <c r="R43" s="18"/>
       <c r="S43" s="18"/>
-      <c r="T43" s="18" t="s">
+      <c r="T43" s="18"/>
+      <c r="U43" s="18" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="6" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:21" s="6" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A44" s="6" t="s">
         <v>583</v>
       </c>
@@ -41198,9 +41307,9 @@
       <c r="O44" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="S44" s="18"/>
-    </row>
-    <row r="45" spans="1:20" s="6" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+      <c r="T44" s="18"/>
+    </row>
+    <row r="45" spans="1:21" s="6" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
       <c r="A45" s="6" t="s">
         <v>583</v>
       </c>
@@ -41240,19 +41349,22 @@
         <v>613</v>
       </c>
       <c r="P45" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q45" s="6" t="s">
         <v>863</v>
-      </c>
-      <c r="R45" s="18" t="s">
-        <v>564</v>
       </c>
       <c r="S45" s="18" t="s">
         <v>564</v>
       </c>
-      <c r="T45" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" s="17" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="T45" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="U45" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" s="17" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A46" s="17" t="s">
         <v>625</v>
       </c>
@@ -41292,15 +41404,15 @@
       <c r="O46" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="P46" s="19"/>
       <c r="Q46" s="19"/>
       <c r="R46" s="19"/>
       <c r="S46" s="19"/>
-      <c r="T46" s="19" t="s">
+      <c r="T46" s="19"/>
+      <c r="U46" s="19" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:20" s="17" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:21" s="17" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A47" s="17" t="s">
         <v>625</v>
       </c>
@@ -41340,19 +41452,22 @@
       <c r="O47" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="P47" s="19" t="s">
+      <c r="P47" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q47" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="52" t="s">
+      <c r="R47" s="19"/>
+      <c r="S47" s="52" t="s">
         <v>905</v>
       </c>
-      <c r="S47" s="52" t="s">
+      <c r="T47" s="52" t="s">
         <v>906</v>
       </c>
-      <c r="T47" s="19"/>
-    </row>
-    <row r="48" spans="1:20" s="17" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="U47" s="19"/>
+    </row>
+    <row r="48" spans="1:21" s="17" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A48" s="17" t="s">
         <v>625</v>
       </c>
@@ -41392,15 +41507,15 @@
       <c r="O48" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="P48" s="19"/>
       <c r="Q48" s="19"/>
       <c r="R48" s="19"/>
       <c r="S48" s="19"/>
-      <c r="T48" s="19" t="s">
+      <c r="T48" s="19"/>
+      <c r="U48" s="19" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="49" spans="1:20" s="17" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:21" s="17" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A49" s="17" t="s">
         <v>625</v>
       </c>
@@ -41442,9 +41557,9 @@
       <c r="O49" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="S49" s="19"/>
-    </row>
-    <row r="50" spans="1:20" s="17" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="T49" s="19"/>
+    </row>
+    <row r="50" spans="1:21" s="17" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A50" s="17" t="s">
         <v>625</v>
       </c>
@@ -41484,16 +41599,19 @@
         <v>586</v>
       </c>
       <c r="P50" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q50" s="17" t="s">
         <v>863</v>
-      </c>
-      <c r="R50" s="19" t="s">
-        <v>632</v>
       </c>
       <c r="S50" s="19" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="T50" s="19" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A51" s="18" t="s">
         <v>73</v>
       </c>
@@ -41531,11 +41649,11 @@
       <c r="O51" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="T51" s="18" t="s">
+      <c r="U51" s="18" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:20" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:21" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A52" s="18" t="s">
         <v>73</v>
       </c>
@@ -41574,16 +41692,19 @@
         <v>671</v>
       </c>
       <c r="P52" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q52" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="R52" s="18" t="s">
+      <c r="S52" s="18" t="s">
         <v>905</v>
       </c>
-      <c r="S52" s="18" t="s">
+      <c r="T52" s="18" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="53" spans="1:20" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:21" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A53" s="18" t="s">
         <v>73</v>
       </c>
@@ -41621,11 +41742,11 @@
       <c r="O53" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="T53" s="18" t="s">
+      <c r="U53" s="18" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="54" spans="1:20" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:21" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A54" s="18" t="s">
         <v>73</v>
       </c>
@@ -41667,7 +41788,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="55" spans="1:20" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:21" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A55" s="18" t="s">
         <v>73</v>
       </c>
@@ -41706,31 +41827,34 @@
         <v>671</v>
       </c>
       <c r="P55" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q55" s="18" t="s">
         <v>863</v>
-      </c>
-      <c r="R55" s="18" t="s">
-        <v>672</v>
       </c>
       <c r="S55" s="18" t="s">
         <v>672</v>
       </c>
       <c r="T55" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.5">
+        <v>672</v>
+      </c>
+      <c r="U55" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.5">
       <c r="G56" s="36"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.5">
       <c r="G58" s="36"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.5">
       <c r="G60" s="36"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.5">
       <c r="G62" s="36"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.5">
       <c r="G64" s="36"/>
     </row>
     <row r="66" spans="7:7" x14ac:dyDescent="0.5">
@@ -41784,7 +41908,7 @@
   <dimension ref="A1:M91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
@@ -44454,13 +44578,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D285143-3FFD-4D69-8656-4C027ACCDCEF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8B241BC-5CCF-40E8-9E25-51335C653516}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E186E731-93A8-401D-9E5E-E368505C16A6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C6799E1-5149-42BC-9D7A-BBF77829A244}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5C14843-64DE-4E93-B64A-09A360458B3B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39B37AC5-F5A3-4EF7-AC4D-767671B87A49}"/>
 </file>
--- a/BC Curation Template.xlsx
+++ b/BC Curation Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linda\Documents\CDISC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B37A6A-DDAB-4D71-9ED3-3870DD3C87B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A00C024-3252-474A-8944-936E7961635D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{FA29263D-F7AA-4D0C-AE9B-6B008D3B18BE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{FA29263D-F7AA-4D0C-AE9B-6B008D3B18BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Conceptual VS BC" sheetId="6" r:id="rId1"/>
@@ -44,7 +44,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -52,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11762" uniqueCount="1102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11763" uniqueCount="1102">
   <si>
     <t>C164634</t>
   </si>
@@ -4091,31 +4090,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B92937E-F1B4-4F44-9F47-44A7FBEED699}">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.64453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.234375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.9375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.87890625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.9375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.76171875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="63" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.52734375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="11.29296875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="7.87890625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.41015625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="21.5859375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.52734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="44.46875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="44.42578125" style="3" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1034</v>
       </c>
@@ -4159,7 +4158,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1035</v>
       </c>
@@ -4197,7 +4196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1035</v>
       </c>
@@ -4220,7 +4219,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1035</v>
       </c>
@@ -4246,7 +4245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1035</v>
       </c>
@@ -4276,7 +4275,7 @@
       </c>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1035</v>
       </c>
@@ -4302,7 +4301,7 @@
       </c>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>1035</v>
       </c>
@@ -4325,7 +4324,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1035</v>
       </c>
@@ -4342,7 +4341,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="86" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="105" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>1035</v>
       </c>
@@ -4383,7 +4382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="9" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:14" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1035</v>
       </c>
@@ -4425,7 +4424,7 @@
       </c>
       <c r="N10" s="16"/>
     </row>
-    <row r="11" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1035</v>
       </c>
@@ -4452,7 +4451,7 @@
       </c>
       <c r="N11" s="16"/>
     </row>
-    <row r="12" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>1035</v>
       </c>
@@ -4481,7 +4480,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>1035</v>
       </c>
@@ -4510,7 +4509,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>1035</v>
       </c>
@@ -4539,7 +4538,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="9" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:14" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>1035</v>
       </c>
@@ -4568,7 +4567,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="9" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:14" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>1035</v>
       </c>
@@ -4599,7 +4598,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="9" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:14" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>1035</v>
       </c>
@@ -4641,7 +4640,7 @@
       </c>
       <c r="N17" s="16"/>
     </row>
-    <row r="18" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>1035</v>
       </c>
@@ -4668,7 +4667,7 @@
       </c>
       <c r="N18" s="16"/>
     </row>
-    <row r="19" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>1035</v>
       </c>
@@ -4697,7 +4696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>1035</v>
       </c>
@@ -4726,7 +4725,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>1035</v>
       </c>
@@ -4755,7 +4754,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="9" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:14" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>1035</v>
       </c>
@@ -4784,7 +4783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="9" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:14" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>1035</v>
       </c>
@@ -4813,7 +4812,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="43" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>1035</v>
       </c>
@@ -4836,7 +4835,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>1035</v>
       </c>
@@ -4859,7 +4858,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>1035</v>
       </c>
@@ -4885,7 +4884,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>1035</v>
       </c>
@@ -4911,7 +4910,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>1035</v>
       </c>
@@ -4937,7 +4936,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>1035</v>
       </c>
@@ -4963,7 +4962,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>1035</v>
       </c>
@@ -4989,7 +4988,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>1035</v>
       </c>
@@ -5018,7 +5017,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>1035</v>
       </c>
@@ -5038,7 +5037,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>1035</v>
       </c>
@@ -5061,7 +5060,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>1035</v>
       </c>
@@ -5081,7 +5080,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>1035</v>
       </c>
@@ -5107,7 +5106,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>1035</v>
       </c>
@@ -5136,7 +5135,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>1035</v>
       </c>
@@ -5159,7 +5158,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>1035</v>
       </c>
@@ -5185,7 +5184,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>1035</v>
       </c>
@@ -5211,7 +5210,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>1035</v>
       </c>
@@ -5237,7 +5236,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>1035</v>
       </c>
@@ -5263,7 +5262,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>1035</v>
       </c>
@@ -5289,7 +5288,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>1035</v>
       </c>
@@ -5321,7 +5320,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>1035</v>
       </c>
@@ -5344,7 +5343,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>1035</v>
       </c>
@@ -5370,7 +5369,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>1035</v>
       </c>
@@ -5396,7 +5395,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>1035</v>
       </c>
@@ -5422,7 +5421,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>1035</v>
       </c>
@@ -5442,7 +5441,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>1035</v>
       </c>
@@ -5462,7 +5461,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>1035</v>
       </c>
@@ -5485,7 +5484,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>1035</v>
       </c>
@@ -5514,7 +5513,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>1035</v>
       </c>
@@ -5537,7 +5536,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>1035</v>
       </c>
@@ -5665,22 +5664,22 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.9375" style="43"/>
-    <col min="3" max="3" width="9.3515625" customWidth="1"/>
-    <col min="4" max="4" width="46.76171875" customWidth="1"/>
-    <col min="5" max="5" width="11.41015625" customWidth="1"/>
-    <col min="6" max="6" width="68.3515625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="6.46875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.41015625" customWidth="1"/>
-    <col min="9" max="9" width="4.703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.9375" customWidth="1"/>
-    <col min="12" max="12" width="13.1171875" customWidth="1"/>
-    <col min="13" max="13" width="31.8203125" customWidth="1"/>
+    <col min="2" max="2" width="9" style="43"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="68.28515625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" customWidth="1"/>
+    <col min="13" max="13" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>788</v>
       </c>
@@ -5721,7 +5720,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="57" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:13" s="57" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>861</v>
       </c>
@@ -5736,7 +5735,7 @@
       </c>
       <c r="M2" s="58"/>
     </row>
-    <row r="3" spans="1:13" ht="43" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>846</v>
       </c>
@@ -5756,7 +5755,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
         <v>846</v>
       </c>
@@ -5779,7 +5778,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
         <v>846</v>
       </c>
@@ -5805,7 +5804,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
         <v>846</v>
       </c>
@@ -5828,7 +5827,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
         <v>846</v>
       </c>
@@ -5851,7 +5850,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="48.35" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:13" ht="48.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>911</v>
       </c>
@@ -5871,7 +5870,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>911</v>
       </c>
@@ -5894,7 +5893,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
         <v>911</v>
       </c>
@@ -5920,7 +5919,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>911</v>
       </c>
@@ -5943,7 +5942,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="53" t="s">
         <v>911</v>
       </c>
@@ -5966,7 +5965,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
         <v>916</v>
       </c>
@@ -5986,7 +5985,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
         <v>916</v>
       </c>
@@ -6009,7 +6008,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
         <v>916</v>
       </c>
@@ -6035,7 +6034,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
         <v>916</v>
       </c>
@@ -6058,7 +6057,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
         <v>916</v>
       </c>
@@ -6081,7 +6080,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="60" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:13" s="60" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="59" t="s">
         <v>924</v>
       </c>
@@ -6096,7 +6095,7 @@
       </c>
       <c r="J18" s="59"/>
     </row>
-    <row r="19" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
         <v>922</v>
       </c>
@@ -6116,7 +6115,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="s">
         <v>922</v>
       </c>
@@ -6139,7 +6138,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
         <v>922</v>
       </c>
@@ -6165,7 +6164,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
         <v>922</v>
       </c>
@@ -6188,7 +6187,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
         <v>922</v>
       </c>
@@ -6211,7 +6210,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="43" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="47" t="s">
         <v>931</v>
       </c>
@@ -6231,7 +6230,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="47" t="s">
         <v>931</v>
       </c>
@@ -6254,7 +6253,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="47" t="s">
         <v>931</v>
       </c>
@@ -6280,7 +6279,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
         <v>931</v>
       </c>
@@ -6303,7 +6302,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="47" t="s">
         <v>931</v>
       </c>
@@ -6326,7 +6325,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
         <v>939</v>
       </c>
@@ -6346,7 +6345,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="47" t="s">
         <v>939</v>
       </c>
@@ -6369,7 +6368,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="47" t="s">
         <v>939</v>
       </c>
@@ -6395,7 +6394,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="47" t="s">
         <v>939</v>
       </c>
@@ -6418,7 +6417,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="47" t="s">
         <v>939</v>
       </c>
@@ -6441,7 +6440,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="60" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:13" s="60" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="59" t="s">
         <v>946</v>
       </c>
@@ -6456,7 +6455,7 @@
       </c>
       <c r="J34" s="59"/>
     </row>
-    <row r="35" spans="1:13" ht="43" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="47" t="s">
         <v>949</v>
       </c>
@@ -6476,7 +6475,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
         <v>949</v>
       </c>
@@ -6499,7 +6498,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="47" t="s">
         <v>949</v>
       </c>
@@ -6525,7 +6524,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="47" t="s">
         <v>949</v>
       </c>
@@ -6548,7 +6547,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="47" t="s">
         <v>949</v>
       </c>
@@ -6571,7 +6570,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="47" t="s">
         <v>956</v>
       </c>
@@ -6591,7 +6590,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="47" t="s">
         <v>956</v>
       </c>
@@ -6614,7 +6613,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="47" t="s">
         <v>956</v>
       </c>
@@ -6640,7 +6639,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="47" t="s">
         <v>956</v>
       </c>
@@ -6663,7 +6662,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="47" t="s">
         <v>956</v>
       </c>
@@ -6686,7 +6685,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="47" t="s">
         <v>963</v>
       </c>
@@ -6706,7 +6705,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="47" t="s">
         <v>963</v>
       </c>
@@ -6729,7 +6728,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="47" t="s">
         <v>963</v>
       </c>
@@ -6755,7 +6754,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="47" t="s">
         <v>963</v>
       </c>
@@ -6778,7 +6777,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
         <v>963</v>
       </c>
@@ -6891,22 +6890,22 @@
       <selection activeCell="A17" sqref="A17:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="9.87890625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.64453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.1171875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.3515625" customWidth="1"/>
-    <col min="12" max="12" width="17.76171875" customWidth="1"/>
-    <col min="13" max="13" width="7.29296875" customWidth="1"/>
-    <col min="14" max="14" width="10.3515625" customWidth="1"/>
-    <col min="15" max="15" width="12.9375" customWidth="1"/>
-    <col min="16" max="16" width="13.8203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.52734375" customWidth="1"/>
-    <col min="20" max="20" width="15.8203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.5703125" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:32" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>788</v>
       </c>
@@ -7004,7 +7003,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>992</v>
       </c>
@@ -7052,7 +7051,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>992</v>
       </c>
@@ -7124,7 +7123,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
         <v>992</v>
       </c>
@@ -7178,7 +7177,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
         <v>1002</v>
       </c>
@@ -7226,7 +7225,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
         <v>1002</v>
       </c>
@@ -7298,7 +7297,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
         <v>1002</v>
       </c>
@@ -7352,7 +7351,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
         <v>1005</v>
       </c>
@@ -7400,7 +7399,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
         <v>1005</v>
       </c>
@@ -7472,7 +7471,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>1005</v>
       </c>
@@ -7526,7 +7525,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
         <v>1007</v>
       </c>
@@ -7574,7 +7573,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
         <v>1007</v>
       </c>
@@ -7646,7 +7645,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
         <v>1007</v>
       </c>
@@ -7700,7 +7699,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
         <v>1011</v>
       </c>
@@ -7748,7 +7747,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
         <v>1011</v>
       </c>
@@ -7820,7 +7819,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
         <v>1011</v>
       </c>
@@ -7874,7 +7873,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
         <v>1071</v>
       </c>
@@ -7940,7 +7939,7 @@
       <c r="AG17" s="36"/>
       <c r="AH17" s="36"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
         <v>1071</v>
       </c>
@@ -8022,7 +8021,7 @@
       <c r="AG18" s="36"/>
       <c r="AH18" s="36"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
         <v>1071</v>
       </c>
@@ -8092,7 +8091,7 @@
       <c r="AG19" s="36"/>
       <c r="AH19" s="36"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C20" s="36"/>
       <c r="D20" s="36"/>
       <c r="E20" s="36"/>
@@ -8176,30 +8175,30 @@
       <selection pane="bottomLeft" activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.76171875" style="43" customWidth="1"/>
-    <col min="4" max="4" width="11.17578125" customWidth="1"/>
-    <col min="6" max="6" width="10.3515625" customWidth="1"/>
-    <col min="7" max="7" width="14.703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.703125" customWidth="1"/>
-    <col min="9" max="9" width="14.3515625" customWidth="1"/>
-    <col min="10" max="10" width="4.703125" customWidth="1"/>
-    <col min="11" max="11" width="8.17578125" customWidth="1"/>
-    <col min="12" max="12" width="16.8203125" customWidth="1"/>
-    <col min="13" max="13" width="13.3515625" customWidth="1"/>
-    <col min="14" max="14" width="35.17578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.17578125" customWidth="1"/>
-    <col min="16" max="16" width="34.703125" customWidth="1"/>
-    <col min="19" max="19" width="35.5859375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.8203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.64453125" customWidth="1"/>
-    <col min="28" max="28" width="10.05859375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.8203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="43" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" customWidth="1"/>
+    <col min="16" max="16" width="34.7109375" customWidth="1"/>
+    <col min="19" max="19" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.7109375" customWidth="1"/>
+    <col min="28" max="28" width="10" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:32" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>788</v>
       </c>
@@ -8297,7 +8296,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
         <v>846</v>
       </c>
@@ -8357,7 +8356,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
         <v>846</v>
       </c>
@@ -8435,7 +8434,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
         <v>846</v>
       </c>
@@ -8492,7 +8491,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="5" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
         <v>911</v>
       </c>
@@ -8552,7 +8551,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="62" t="s">
         <v>911</v>
       </c>
@@ -8630,7 +8629,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="62" t="s">
         <v>911</v>
       </c>
@@ -8687,7 +8686,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="8" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="62" t="s">
         <v>916</v>
       </c>
@@ -8747,7 +8746,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="62" t="s">
         <v>916</v>
       </c>
@@ -8825,7 +8824,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="62" t="s">
         <v>916</v>
       </c>
@@ -8882,7 +8881,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="11" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
         <v>922</v>
       </c>
@@ -8942,7 +8941,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="62" t="s">
         <v>922</v>
       </c>
@@ -9020,7 +9019,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="62" t="s">
         <v>922</v>
       </c>
@@ -9077,7 +9076,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="14" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="62" t="s">
         <v>931</v>
       </c>
@@ -9137,7 +9136,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="62" t="s">
         <v>931</v>
       </c>
@@ -9215,7 +9214,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="62" t="s">
         <v>931</v>
       </c>
@@ -9272,7 +9271,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="17" spans="1:31" s="64" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:31" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="62" t="s">
         <v>939</v>
       </c>
@@ -9332,7 +9331,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:31" s="64" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:31" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="62" t="s">
         <v>939</v>
       </c>
@@ -9410,7 +9409,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:31" s="64" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:31" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="62" t="s">
         <v>939</v>
       </c>
@@ -9467,7 +9466,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="20" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
         <v>949</v>
       </c>
@@ -9526,7 +9525,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
         <v>949</v>
       </c>
@@ -9584,7 +9583,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="54" t="s">
         <v>949</v>
       </c>
@@ -9662,7 +9661,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
         <v>949</v>
       </c>
@@ -9718,7 +9717,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="24" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
         <v>956</v>
       </c>
@@ -9778,7 +9777,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="54" t="s">
         <v>956</v>
       </c>
@@ -9836,7 +9835,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="s">
         <v>956</v>
       </c>
@@ -9913,7 +9912,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="54" t="s">
         <v>956</v>
       </c>
@@ -9970,7 +9969,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="28" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="54" t="s">
         <v>963</v>
       </c>
@@ -10029,7 +10028,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="54" t="s">
         <v>963</v>
       </c>
@@ -10085,7 +10084,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="54" t="s">
         <v>963</v>
       </c>
@@ -10163,7 +10162,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="54" t="s">
         <v>963</v>
       </c>
@@ -10222,97 +10221,97 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.5">
+    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J33" s="36"/>
     </row>
-    <row r="35" spans="10:10" x14ac:dyDescent="0.5">
+    <row r="35" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J35" s="36"/>
     </row>
-    <row r="37" spans="10:10" x14ac:dyDescent="0.5">
+    <row r="37" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J37" s="36"/>
     </row>
-    <row r="39" spans="10:10" x14ac:dyDescent="0.5">
+    <row r="39" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J39" s="36"/>
     </row>
-    <row r="41" spans="10:10" x14ac:dyDescent="0.5">
+    <row r="41" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J41" s="36"/>
     </row>
-    <row r="43" spans="10:10" x14ac:dyDescent="0.5">
+    <row r="43" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J43" s="36"/>
     </row>
-    <row r="45" spans="10:10" x14ac:dyDescent="0.5">
+    <row r="45" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J45" s="36"/>
     </row>
-    <row r="47" spans="10:10" x14ac:dyDescent="0.5">
+    <row r="47" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J47" s="36"/>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.5">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J49" s="36"/>
     </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.5">
+    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J51" s="36"/>
     </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.5">
+    <row r="53" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J53" s="36"/>
     </row>
-    <row r="55" spans="10:10" x14ac:dyDescent="0.5">
+    <row r="55" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J55" s="36"/>
     </row>
-    <row r="57" spans="10:10" x14ac:dyDescent="0.5">
+    <row r="57" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J57" s="36"/>
     </row>
-    <row r="59" spans="10:10" x14ac:dyDescent="0.5">
+    <row r="59" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J59" s="36"/>
     </row>
-    <row r="61" spans="10:10" x14ac:dyDescent="0.5">
+    <row r="61" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J61" s="36"/>
     </row>
-    <row r="63" spans="10:10" x14ac:dyDescent="0.5">
+    <row r="63" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J63" s="36"/>
     </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.5">
+    <row r="65" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J65" s="36"/>
     </row>
-    <row r="67" spans="10:10" x14ac:dyDescent="0.5">
+    <row r="67" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J67" s="36"/>
     </row>
-    <row r="69" spans="10:10" x14ac:dyDescent="0.5">
+    <row r="69" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J69" s="36"/>
     </row>
-    <row r="71" spans="10:10" x14ac:dyDescent="0.5">
+    <row r="71" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J71" s="36"/>
     </row>
-    <row r="73" spans="10:10" x14ac:dyDescent="0.5">
+    <row r="73" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J73" s="36"/>
     </row>
-    <row r="75" spans="10:10" x14ac:dyDescent="0.5">
+    <row r="75" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J75" s="36"/>
     </row>
-    <row r="77" spans="10:10" x14ac:dyDescent="0.5">
+    <row r="77" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J77" s="36"/>
     </row>
-    <row r="79" spans="10:10" x14ac:dyDescent="0.5">
+    <row r="79" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J79" s="36"/>
     </row>
-    <row r="81" spans="10:10" x14ac:dyDescent="0.5">
+    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J81" s="36"/>
     </row>
-    <row r="83" spans="10:10" x14ac:dyDescent="0.5">
+    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J83" s="36"/>
     </row>
-    <row r="85" spans="10:10" x14ac:dyDescent="0.5">
+    <row r="85" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J85" s="36"/>
     </row>
-    <row r="87" spans="10:10" x14ac:dyDescent="0.5">
+    <row r="87" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J87" s="36"/>
     </row>
-    <row r="89" spans="10:10" x14ac:dyDescent="0.5">
+    <row r="89" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J89" s="36"/>
     </row>
-    <row r="91" spans="10:10" x14ac:dyDescent="0.5">
+    <row r="91" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J91" s="36"/>
     </row>
-    <row r="93" spans="10:10" x14ac:dyDescent="0.5">
+    <row r="93" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J93" s="36"/>
     </row>
   </sheetData>
@@ -10384,26 +10383,26 @@
       <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.3515625" customWidth="1"/>
-    <col min="3" max="3" width="7.8203125" customWidth="1"/>
-    <col min="5" max="5" width="11.05859375" customWidth="1"/>
-    <col min="6" max="6" width="13.703125" customWidth="1"/>
-    <col min="7" max="7" width="4.703125" customWidth="1"/>
-    <col min="8" max="8" width="36.87890625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.17578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.703125" customWidth="1"/>
-    <col min="14" max="14" width="38.17578125" customWidth="1"/>
-    <col min="15" max="15" width="12.05859375" customWidth="1"/>
-    <col min="16" max="16" width="10.5859375" customWidth="1"/>
-    <col min="17" max="17" width="13.5859375" customWidth="1"/>
-    <col min="18" max="18" width="11.234375" customWidth="1"/>
-    <col min="19" max="19" width="14.17578125" customWidth="1"/>
-    <col min="20" max="20" width="53.703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" customWidth="1"/>
+    <col min="8" max="8" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="38.140625" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" customWidth="1"/>
+    <col min="20" max="20" width="53.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>788</v>
       </c>
@@ -10468,7 +10467,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="36" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:21" s="36" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
         <v>846</v>
       </c>
@@ -10517,7 +10516,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
         <v>846</v>
       </c>
@@ -10558,7 +10557,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
         <v>846</v>
       </c>
@@ -10593,7 +10592,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
         <v>846</v>
       </c>
@@ -10635,7 +10634,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="36" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:21" s="36" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="62" t="s">
         <v>911</v>
       </c>
@@ -10687,7 +10686,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="62" t="s">
         <v>911</v>
       </c>
@@ -10729,7 +10728,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="62" t="s">
         <v>911</v>
       </c>
@@ -10765,7 +10764,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="62" t="s">
         <v>911</v>
       </c>
@@ -10806,7 +10805,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="36" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:21" s="36" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>922</v>
       </c>
@@ -10858,7 +10857,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
         <v>922</v>
       </c>
@@ -10900,7 +10899,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
         <v>922</v>
       </c>
@@ -10936,7 +10935,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
         <v>922</v>
       </c>
@@ -10977,7 +10976,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="36" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:21" s="36" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="62" t="s">
         <v>931</v>
       </c>
@@ -11029,7 +11028,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="62" t="s">
         <v>931</v>
       </c>
@@ -11071,7 +11070,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="62" t="s">
         <v>931</v>
       </c>
@@ -11107,7 +11106,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="62" t="s">
         <v>931</v>
       </c>
@@ -11148,7 +11147,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="36" customFormat="1" ht="15.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:20" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="62" t="s">
         <v>939</v>
       </c>
@@ -11200,7 +11199,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="62" t="s">
         <v>939</v>
       </c>
@@ -11239,7 +11238,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="62" t="s">
         <v>939</v>
       </c>
@@ -11275,7 +11274,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="62" t="s">
         <v>939</v>
       </c>
@@ -11313,7 +11312,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="54" t="s">
         <v>949</v>
       </c>
@@ -11355,7 +11354,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
         <v>949</v>
       </c>
@@ -11396,7 +11395,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
         <v>949</v>
       </c>
@@ -11432,7 +11431,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="54" t="s">
         <v>949</v>
       </c>
@@ -11473,7 +11472,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="s">
         <v>956</v>
       </c>
@@ -11515,7 +11514,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="54" t="s">
         <v>956</v>
       </c>
@@ -11556,7 +11555,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="54" t="s">
         <v>956</v>
       </c>
@@ -11592,7 +11591,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="54" t="s">
         <v>956</v>
       </c>
@@ -11633,7 +11632,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="54" t="s">
         <v>963</v>
       </c>
@@ -11675,7 +11674,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="54" t="s">
         <v>963</v>
       </c>
@@ -11716,7 +11715,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="54" t="s">
         <v>963</v>
       </c>
@@ -11752,7 +11751,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="54" t="s">
         <v>963</v>
       </c>
@@ -11793,82 +11792,82 @@
         <v>966</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G35" s="36"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G37" s="36"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G39" s="36"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G41" s="36"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G43" s="36"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G45" s="36"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G47" s="36"/>
     </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G49" s="36"/>
     </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G51" s="36"/>
     </row>
-    <row r="53" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="53" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G53" s="36"/>
     </row>
-    <row r="55" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="55" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G55" s="36"/>
     </row>
-    <row r="57" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="57" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G57" s="36"/>
     </row>
-    <row r="59" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="59" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G59" s="36"/>
     </row>
-    <row r="61" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="61" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G61" s="36"/>
     </row>
-    <row r="63" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="63" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G63" s="36"/>
     </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G65" s="36"/>
     </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="67" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G67" s="36"/>
     </row>
-    <row r="69" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="69" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G69" s="36"/>
     </row>
-    <row r="71" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="71" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G71" s="36"/>
     </row>
-    <row r="73" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="73" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G73" s="36"/>
     </row>
-    <row r="75" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="75" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G75" s="36"/>
     </row>
-    <row r="77" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="77" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G77" s="36"/>
     </row>
-    <row r="79" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="79" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G79" s="36"/>
     </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G81" s="36"/>
     </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="83" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G83" s="36"/>
     </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="85" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G85" s="36"/>
     </row>
   </sheetData>
@@ -11903,13 +11902,13 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="104.703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="103.64453125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="104.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="103.7109375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>478</v>
       </c>
@@ -11917,7 +11916,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="43" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>480</v>
       </c>
@@ -11925,7 +11924,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>482</v>
       </c>
@@ -11933,7 +11932,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>484</v>
       </c>
@@ -11941,7 +11940,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>486</v>
       </c>
@@ -11949,7 +11948,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>488</v>
       </c>
@@ -11957,7 +11956,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>490</v>
       </c>
@@ -11965,7 +11964,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>492</v>
       </c>
@@ -11973,7 +11972,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>494</v>
       </c>
@@ -11981,7 +11980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>495</v>
       </c>
@@ -11989,7 +11988,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>497</v>
       </c>
@@ -11997,7 +11996,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>499</v>
       </c>
@@ -12005,17 +12004,17 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>503</v>
       </c>
@@ -12023,12 +12022,12 @@
         <v>676</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>677</v>
       </c>
@@ -12036,12 +12035,12 @@
         <v>678</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>679</v>
       </c>
@@ -12049,27 +12048,27 @@
         <v>689</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>1026</v>
       </c>
@@ -12083,31 +12082,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6575D01-805D-0E4D-89C4-3AB8EBDBFBB8}">
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.9375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.87890625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.76171875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.87890625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" style="9" customWidth="1"/>
     <col min="5" max="5" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.64453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="68.76171875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.64453125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.5859375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="7.52734375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.1171875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="31.29296875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="68.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="31.28515625" style="2" customWidth="1"/>
     <col min="13" max="13" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.87890625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="3" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1034</v>
       </c>
@@ -12151,7 +12150,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="30" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:14" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="66" t="s">
         <v>1085</v>
       </c>
@@ -12172,7 +12171,7 @@
       <c r="I2" s="32"/>
       <c r="N2" s="32"/>
     </row>
-    <row r="3" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:14" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="66" t="s">
         <v>1085</v>
       </c>
@@ -12196,7 +12195,7 @@
       <c r="I3" s="33"/>
       <c r="N3" s="32"/>
     </row>
-    <row r="4" spans="1:14" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:14" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
         <v>1085</v>
       </c>
@@ -12219,7 +12218,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="66" t="s">
         <v>1085</v>
       </c>
@@ -12244,7 +12243,7 @@
       </c>
       <c r="N5" s="16"/>
     </row>
-    <row r="6" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="66" t="s">
         <v>1085</v>
       </c>
@@ -12269,7 +12268,7 @@
       </c>
       <c r="N6" s="16"/>
     </row>
-    <row r="7" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="66" t="s">
         <v>1085</v>
       </c>
@@ -12296,7 +12295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="66" t="s">
         <v>1085</v>
       </c>
@@ -12323,7 +12322,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="66" t="s">
         <v>1085</v>
       </c>
@@ -12346,7 +12345,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="66" t="s">
         <v>1085</v>
       </c>
@@ -12371,7 +12370,7 @@
       </c>
       <c r="N10" s="16"/>
     </row>
-    <row r="11" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="66" t="s">
         <v>1085</v>
       </c>
@@ -12396,7 +12395,7 @@
       </c>
       <c r="N11" s="16"/>
     </row>
-    <row r="12" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="66" t="s">
         <v>1085</v>
       </c>
@@ -12421,7 +12420,7 @@
       </c>
       <c r="N12" s="16"/>
     </row>
-    <row r="13" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="66" t="s">
         <v>1085</v>
       </c>
@@ -12448,7 +12447,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:14" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="66" t="s">
         <v>1085</v>
       </c>
@@ -12471,7 +12470,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="66" t="s">
         <v>1085</v>
       </c>
@@ -12496,7 +12495,7 @@
       </c>
       <c r="N15" s="16"/>
     </row>
-    <row r="16" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="66" t="s">
         <v>1085</v>
       </c>
@@ -12521,7 +12520,7 @@
       </c>
       <c r="N16" s="16"/>
     </row>
-    <row r="17" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="66" t="s">
         <v>1085</v>
       </c>
@@ -12548,7 +12547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="66" t="s">
         <v>1085</v>
       </c>
@@ -12575,7 +12574,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="66" t="s">
         <v>1085</v>
       </c>
@@ -12609,7 +12608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="66" t="s">
         <v>1085</v>
       </c>
@@ -12632,7 +12631,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="66" t="s">
         <v>1085</v>
       </c>
@@ -12655,7 +12654,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="66" t="s">
         <v>1085</v>
       </c>
@@ -12681,7 +12680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="66" t="s">
         <v>1085</v>
       </c>
@@ -12707,7 +12706,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="66" t="s">
         <v>1085</v>
       </c>
@@ -12727,7 +12726,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="9" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:14" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="66" t="s">
         <v>1085</v>
       </c>
@@ -12749,7 +12748,7 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
     </row>
-    <row r="26" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="66" t="s">
         <v>1085</v>
       </c>
@@ -12768,7 +12767,9 @@
       <c r="F26" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G26" s="16"/>
+      <c r="G26" s="16" t="s">
+        <v>791</v>
+      </c>
       <c r="H26" s="50" t="s">
         <v>878</v>
       </c>
@@ -12788,7 +12789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="66" t="s">
         <v>1085</v>
       </c>
@@ -12811,7 +12812,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="66" t="s">
         <v>1085</v>
       </c>
@@ -12834,7 +12835,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="66" t="s">
         <v>1085</v>
       </c>
@@ -12863,7 +12864,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="66" t="s">
         <v>1085</v>
       </c>
@@ -12889,7 +12890,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:14" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="66" t="s">
         <v>1085</v>
       </c>
@@ -12911,7 +12912,7 @@
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
     </row>
-    <row r="32" spans="1:14" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:14" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="66" t="s">
         <v>1085</v>
       </c>
@@ -12943,7 +12944,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="66" t="s">
         <v>1085</v>
       </c>
@@ -12968,7 +12969,7 @@
       </c>
       <c r="N33" s="16"/>
     </row>
-    <row r="34" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="66" t="s">
         <v>1085</v>
       </c>
@@ -12993,7 +12994,7 @@
       </c>
       <c r="N34" s="16"/>
     </row>
-    <row r="35" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="66" t="s">
         <v>1085</v>
       </c>
@@ -13020,7 +13021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="66" t="s">
         <v>1085</v>
       </c>
@@ -13047,7 +13048,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:14" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="66" t="s">
         <v>1085</v>
       </c>
@@ -13079,7 +13080,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="66" t="s">
         <v>1085</v>
       </c>
@@ -13104,7 +13105,7 @@
       </c>
       <c r="N38" s="16"/>
     </row>
-    <row r="39" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="66" t="s">
         <v>1085</v>
       </c>
@@ -13129,7 +13130,7 @@
       </c>
       <c r="N39" s="16"/>
     </row>
-    <row r="40" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="66" t="s">
         <v>1085</v>
       </c>
@@ -13156,7 +13157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="66" t="s">
         <v>1085</v>
       </c>
@@ -13183,7 +13184,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:14" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="66" t="s">
         <v>1085</v>
       </c>
@@ -13218,7 +13219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="66" t="s">
         <v>1085</v>
       </c>
@@ -13244,7 +13245,7 @@
       </c>
       <c r="N43" s="16"/>
     </row>
-    <row r="44" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="66" t="s">
         <v>1085</v>
       </c>
@@ -13269,7 +13270,7 @@
       </c>
       <c r="N44" s="16"/>
     </row>
-    <row r="45" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="66" t="s">
         <v>1085</v>
       </c>
@@ -13296,7 +13297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="66" t="s">
         <v>1085</v>
       </c>
@@ -13323,7 +13324,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:14" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="66" t="s">
         <v>1085</v>
       </c>
@@ -13350,7 +13351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="66" t="s">
         <v>1085</v>
       </c>
@@ -13376,7 +13377,7 @@
       </c>
       <c r="N48" s="16"/>
     </row>
-    <row r="49" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="66" t="s">
         <v>1085</v>
       </c>
@@ -13401,7 +13402,7 @@
       </c>
       <c r="N49" s="16"/>
     </row>
-    <row r="50" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="66" t="s">
         <v>1085</v>
       </c>
@@ -13428,7 +13429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="66" t="s">
         <v>1085</v>
       </c>
@@ -13455,7 +13456,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:14" s="7" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:14" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="66" t="s">
         <v>1085</v>
       </c>
@@ -13479,7 +13480,7 @@
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="66" t="s">
         <v>1085</v>
       </c>
@@ -13511,7 +13512,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="66" t="s">
         <v>1085</v>
       </c>
@@ -13538,7 +13539,7 @@
       </c>
       <c r="N54" s="9"/>
     </row>
-    <row r="55" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="66" t="s">
         <v>1085</v>
       </c>
@@ -13566,7 +13567,7 @@
       </c>
       <c r="N55" s="9"/>
     </row>
-    <row r="56" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="66" t="s">
         <v>1085</v>
       </c>
@@ -13596,7 +13597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="66" t="s">
         <v>1085</v>
       </c>
@@ -13626,7 +13627,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:14" s="7" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:14" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="66" t="s">
         <v>1085</v>
       </c>
@@ -13652,7 +13653,7 @@
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
     </row>
-    <row r="59" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="66" t="s">
         <v>1085</v>
       </c>
@@ -13688,7 +13689,7 @@
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
     </row>
-    <row r="60" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="66" t="s">
         <v>1085</v>
       </c>
@@ -13717,7 +13718,7 @@
       </c>
       <c r="N60" s="16"/>
     </row>
-    <row r="61" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="66" t="s">
         <v>1085</v>
       </c>
@@ -13746,7 +13747,7 @@
       </c>
       <c r="N61" s="16"/>
     </row>
-    <row r="62" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="66" t="s">
         <v>1085</v>
       </c>
@@ -13777,7 +13778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="66" t="s">
         <v>1085</v>
       </c>
@@ -13808,7 +13809,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:14" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="66" t="s">
         <v>1085</v>
       </c>
@@ -13843,7 +13844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="66" t="s">
         <v>1085</v>
       </c>
@@ -13869,7 +13870,7 @@
       </c>
       <c r="N65" s="16"/>
     </row>
-    <row r="66" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="66" t="s">
         <v>1085</v>
       </c>
@@ -13894,7 +13895,7 @@
       </c>
       <c r="N66" s="16"/>
     </row>
-    <row r="67" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="66" t="s">
         <v>1085</v>
       </c>
@@ -13921,7 +13922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="66" t="s">
         <v>1085</v>
       </c>
@@ -14063,39 +14064,38 @@
       <selection pane="bottomLeft" activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.8203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.52734375" customWidth="1"/>
-    <col min="3" max="3" width="8.05859375" style="43" customWidth="1"/>
-    <col min="4" max="4" width="7.52734375" customWidth="1"/>
-    <col min="5" max="5" width="4.703125" customWidth="1"/>
-    <col min="6" max="6" width="12.234375" customWidth="1"/>
-    <col min="7" max="8" width="11.1171875" customWidth="1"/>
-    <col min="9" max="9" width="15.29296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.703125" customWidth="1"/>
-    <col min="11" max="11" width="11.05859375" customWidth="1"/>
-    <col min="12" max="12" width="13.46875" customWidth="1"/>
-    <col min="13" max="13" width="13.76171875" customWidth="1"/>
-    <col min="14" max="14" width="15.234375" customWidth="1"/>
-    <col min="15" max="15" width="8.5859375" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8" style="43" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
-    <col min="19" max="19" width="35.76171875" style="11" customWidth="1"/>
-    <col min="20" max="20" width="20.46875" style="11" customWidth="1"/>
-    <col min="21" max="21" width="12.29296875" customWidth="1"/>
-    <col min="22" max="22" width="11.41015625" customWidth="1"/>
-    <col min="23" max="23" width="6.29296875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.703125" customWidth="1"/>
-    <col min="26" max="26" width="7.64453125" customWidth="1"/>
-    <col min="27" max="27" width="7.703125" customWidth="1"/>
-    <col min="28" max="29" width="9.9375" customWidth="1"/>
-    <col min="30" max="30" width="6.64453125" customWidth="1"/>
-    <col min="31" max="31" width="17.703125" customWidth="1"/>
+    <col min="19" max="19" width="35.7109375" style="11" customWidth="1"/>
+    <col min="20" max="20" width="20.42578125" style="11" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" customWidth="1"/>
+    <col min="23" max="23" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" customWidth="1"/>
+    <col min="26" max="27" width="7.7109375" customWidth="1"/>
+    <col min="28" max="29" width="10" customWidth="1"/>
+    <col min="30" max="30" width="6.7109375" customWidth="1"/>
+    <col min="31" max="31" width="17.7109375" customWidth="1"/>
     <col min="32" max="32" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:33" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>788</v>
       </c>
@@ -14193,7 +14193,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
@@ -14264,7 +14264,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -14335,7 +14335,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>0</v>
       </c>
@@ -14412,7 +14412,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -14489,7 +14489,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>0</v>
       </c>
@@ -14560,7 +14560,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -14631,7 +14631,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>0</v>
       </c>
@@ -14693,7 +14693,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -14749,7 +14749,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>9</v>
       </c>
@@ -14802,7 +14802,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -14870,7 +14870,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
         <v>9</v>
       </c>
@@ -14929,7 +14929,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -15000,7 +15000,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
         <v>9</v>
       </c>
@@ -15071,7 +15071,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -15133,7 +15133,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
         <v>18</v>
       </c>
@@ -15207,7 +15207,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -15284,7 +15284,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
         <v>18</v>
       </c>
@@ -15361,7 +15361,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -15441,7 +15441,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
         <v>18</v>
       </c>
@@ -15509,7 +15509,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -15577,7 +15577,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
         <v>18</v>
       </c>
@@ -15645,7 +15645,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -15725,7 +15725,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:33" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:33" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
         <v>18</v>
       </c>
@@ -15784,7 +15784,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -15840,7 +15840,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="26" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
         <v>33</v>
       </c>
@@ -15914,7 +15914,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -15988,7 +15988,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
         <v>33</v>
       </c>
@@ -16065,7 +16065,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -16145,7 +16145,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
         <v>33</v>
       </c>
@@ -16213,7 +16213,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -16281,7 +16281,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
         <v>33</v>
       </c>
@@ -16349,7 +16349,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -16429,7 +16429,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:33" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:33" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
         <v>33</v>
       </c>
@@ -16488,7 +16488,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -16547,7 +16547,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="36" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
         <v>37</v>
       </c>
@@ -16621,7 +16621,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -16695,7 +16695,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="36" t="s">
         <v>37</v>
       </c>
@@ -16772,7 +16772,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -16852,7 +16852,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="36" t="s">
         <v>37</v>
       </c>
@@ -16920,7 +16920,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -16988,7 +16988,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="36" t="s">
         <v>37</v>
       </c>
@@ -17056,7 +17056,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -17139,7 +17139,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:33" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:33" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="36" t="s">
         <v>37</v>
       </c>
@@ -17198,7 +17198,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -17257,7 +17257,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="46" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="36" t="s">
         <v>46</v>
       </c>
@@ -17331,7 +17331,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -17405,7 +17405,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="36" t="s">
         <v>46</v>
       </c>
@@ -17482,7 +17482,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -17559,7 +17559,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="36" t="s">
         <v>46</v>
       </c>
@@ -17630,7 +17630,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>46</v>
       </c>
@@ -17701,7 +17701,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="36" t="s">
         <v>46</v>
       </c>
@@ -17763,7 +17763,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -17837,7 +17837,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="36" t="s">
         <v>50</v>
       </c>
@@ -17914,7 +17914,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>50</v>
       </c>
@@ -18000,7 +18000,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="36" t="s">
         <v>50</v>
       </c>
@@ -18074,7 +18074,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -18148,7 +18148,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="36" t="s">
         <v>54</v>
       </c>
@@ -18225,7 +18225,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>54</v>
       </c>
@@ -18302,7 +18302,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="36" t="s">
         <v>54</v>
       </c>
@@ -18382,7 +18382,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>54</v>
       </c>
@@ -18450,7 +18450,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="36" t="s">
         <v>54</v>
       </c>
@@ -18518,7 +18518,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>54</v>
       </c>
@@ -18586,7 +18586,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:33" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:33" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="36" t="s">
         <v>54</v>
       </c>
@@ -18666,7 +18666,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:33" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>54</v>
       </c>
@@ -18722,7 +18722,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="66" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:33" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="36" t="s">
         <v>54</v>
       </c>
@@ -18778,7 +18778,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>516</v>
       </c>
@@ -18852,7 +18852,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="36" t="s">
         <v>516</v>
       </c>
@@ -18926,7 +18926,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>516</v>
       </c>
@@ -19006,7 +19006,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="70" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="36" t="s">
         <v>516</v>
       </c>
@@ -19086,7 +19086,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>516</v>
       </c>
@@ -19157,7 +19157,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="36" t="s">
         <v>516</v>
       </c>
@@ -19228,7 +19228,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>516</v>
       </c>
@@ -19290,7 +19290,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:33" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:33" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="36" t="s">
         <v>516</v>
       </c>
@@ -19346,7 +19346,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>530</v>
       </c>
@@ -19420,7 +19420,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="36" t="s">
         <v>530</v>
       </c>
@@ -19497,7 +19497,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>530</v>
       </c>
@@ -19577,7 +19577,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="36" t="s">
         <v>530</v>
       </c>
@@ -19657,7 +19657,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>530</v>
       </c>
@@ -19728,7 +19728,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="80" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="36" t="s">
         <v>530</v>
       </c>
@@ -19799,7 +19799,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>530</v>
       </c>
@@ -19861,7 +19861,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="82" spans="1:31" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:31" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="36" t="s">
         <v>530</v>
       </c>
@@ -19920,7 +19920,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>765</v>
       </c>
@@ -19988,7 +19988,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="84" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="36" t="s">
         <v>768</v>
       </c>
@@ -20059,7 +20059,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>50</v>
       </c>
@@ -20130,7 +20130,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="86" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="36" t="s">
         <v>769</v>
       </c>
@@ -20204,7 +20204,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>769</v>
       </c>
@@ -20272,7 +20272,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="36" t="s">
         <v>769</v>
       </c>
@@ -20340,7 +20340,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>769</v>
       </c>
@@ -20408,7 +20408,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C90" s="55"/>
       <c r="S90" s="49"/>
       <c r="T90" s="49"/>
@@ -20435,41 +20435,41 @@
       <selection pane="bottomLeft" activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.8203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.234375" customWidth="1"/>
-    <col min="3" max="3" width="6.9375" style="43" customWidth="1"/>
-    <col min="4" max="4" width="7.05859375" customWidth="1"/>
-    <col min="5" max="5" width="5.05859375" customWidth="1"/>
-    <col min="6" max="6" width="12.1171875" customWidth="1"/>
-    <col min="7" max="7" width="14.17578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.17578125" customWidth="1"/>
-    <col min="9" max="9" width="15.29296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.703125" customWidth="1"/>
-    <col min="11" max="11" width="11.703125" customWidth="1"/>
-    <col min="12" max="12" width="17.8203125" customWidth="1"/>
-    <col min="13" max="13" width="14.87890625" customWidth="1"/>
-    <col min="14" max="14" width="22.29296875" customWidth="1"/>
-    <col min="15" max="15" width="8.1171875" customWidth="1"/>
-    <col min="16" max="16" width="17.87890625" customWidth="1"/>
-    <col min="17" max="17" width="8.29296875" customWidth="1"/>
-    <col min="18" max="18" width="9.87890625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="44.5859375" style="11" customWidth="1"/>
-    <col min="20" max="20" width="24.3515625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7" style="43" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="5" width="5" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="14" max="14" width="22.28515625" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="44.5703125" style="11" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" style="11" customWidth="1"/>
     <col min="21" max="21" width="9" customWidth="1"/>
-    <col min="22" max="22" width="11.05859375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.29296875" customWidth="1"/>
-    <col min="24" max="25" width="7.41015625" customWidth="1"/>
-    <col min="26" max="27" width="5.41015625" customWidth="1"/>
+    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.28515625" customWidth="1"/>
+    <col min="24" max="25" width="7.42578125" customWidth="1"/>
+    <col min="26" max="27" width="5.42578125" customWidth="1"/>
     <col min="28" max="28" width="12" customWidth="1"/>
-    <col min="29" max="29" width="10.8203125" customWidth="1"/>
-    <col min="30" max="30" width="5.29296875" customWidth="1"/>
-    <col min="31" max="31" width="18.05859375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.85546875" customWidth="1"/>
+    <col min="30" max="30" width="5.28515625" customWidth="1"/>
+    <col min="31" max="31" width="18" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:32" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>788</v>
       </c>
@@ -20567,7 +20567,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>57</v>
       </c>
@@ -20638,7 +20638,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>57</v>
       </c>
@@ -20715,7 +20715,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>57</v>
       </c>
@@ -20789,7 +20789,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>57</v>
       </c>
@@ -20869,7 +20869,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>57</v>
       </c>
@@ -20944,7 +20944,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>57</v>
       </c>
@@ -21019,7 +21019,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>57</v>
       </c>
@@ -21094,7 +21094,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>57</v>
       </c>
@@ -21163,7 +21163,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:32" s="6" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:32" s="6" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>57</v>
       </c>
@@ -21234,7 +21234,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>57</v>
       </c>
@@ -21308,7 +21308,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:32" s="6" customFormat="1" ht="15.35" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:32" s="6" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>57</v>
       </c>
@@ -21367,7 +21367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>57</v>
       </c>
@@ -21442,7 +21442,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>57</v>
       </c>
@@ -21520,7 +21520,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>57</v>
       </c>
@@ -21595,7 +21595,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>57</v>
       </c>
@@ -21676,7 +21676,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>57</v>
       </c>
@@ -21750,7 +21750,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>57</v>
       </c>
@@ -21821,7 +21821,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>57</v>
       </c>
@@ -21892,7 +21892,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>57</v>
       </c>
@@ -21957,7 +21957,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:32" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>57</v>
       </c>
@@ -22028,7 +22028,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>57</v>
       </c>
@@ -22105,7 +22105,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>57</v>
       </c>
@@ -22164,7 +22164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>57</v>
       </c>
@@ -22238,7 +22238,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>57</v>
       </c>
@@ -22315,7 +22315,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>57</v>
       </c>
@@ -22389,7 +22389,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>57</v>
       </c>
@@ -22469,7 +22469,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>57</v>
       </c>
@@ -22543,7 +22543,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>57</v>
       </c>
@@ -22614,7 +22614,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>57</v>
       </c>
@@ -22685,7 +22685,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>57</v>
       </c>
@@ -22751,7 +22751,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:32" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>57</v>
       </c>
@@ -22823,7 +22823,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>57</v>
       </c>
@@ -22898,7 +22898,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>57</v>
       </c>
@@ -22955,7 +22955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>70</v>
       </c>
@@ -23030,7 +23030,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>70</v>
       </c>
@@ -23105,7 +23105,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>70</v>
       </c>
@@ -23183,7 +23183,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>70</v>
       </c>
@@ -23263,7 +23263,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>70</v>
       </c>
@@ -23340,7 +23340,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>70</v>
       </c>
@@ -23411,7 +23411,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>70</v>
       </c>
@@ -23482,7 +23482,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>70</v>
       </c>
@@ -23550,7 +23550,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:32" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>70</v>
       </c>
@@ -23609,7 +23609,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>70</v>
       </c>
@@ -23683,7 +23683,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
         <v>70</v>
       </c>
@@ -23755,7 +23755,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>70</v>
       </c>
@@ -23829,7 +23829,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>70</v>
       </c>
@@ -23906,7 +23906,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>70</v>
       </c>
@@ -23980,7 +23980,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>70</v>
       </c>
@@ -24060,7 +24060,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>70</v>
       </c>
@@ -24135,7 +24135,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>70</v>
       </c>
@@ -24207,7 +24207,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>70</v>
       </c>
@@ -24279,7 +24279,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>70</v>
       </c>
@@ -24345,7 +24345,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:32" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>70</v>
       </c>
@@ -24417,7 +24417,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>70</v>
       </c>
@@ -24491,7 +24491,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>70</v>
       </c>
@@ -24547,7 +24547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>70</v>
       </c>
@@ -24622,7 +24622,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
         <v>70</v>
       </c>
@@ -24700,7 +24700,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
         <v>70</v>
       </c>
@@ -24775,7 +24775,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
         <v>70</v>
       </c>
@@ -24856,7 +24856,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
         <v>70</v>
       </c>
@@ -24931,7 +24931,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
         <v>70</v>
       </c>
@@ -25003,7 +25003,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
         <v>70</v>
       </c>
@@ -25075,7 +25075,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
         <v>70</v>
       </c>
@@ -25141,7 +25141,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:32" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
         <v>70</v>
       </c>
@@ -25213,7 +25213,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
         <v>70</v>
       </c>
@@ -25288,7 +25288,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="17" t="s">
         <v>70</v>
       </c>
@@ -25345,7 +25345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>73</v>
       </c>
@@ -25420,7 +25420,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>73</v>
       </c>
@@ -25498,7 +25498,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="70" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>73</v>
       </c>
@@ -25570,7 +25570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>73</v>
       </c>
@@ -25645,7 +25645,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>73</v>
       </c>
@@ -25717,7 +25717,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>73</v>
       </c>
@@ -25786,7 +25786,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>73</v>
       </c>
@@ -25855,7 +25855,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>73</v>
       </c>
@@ -25921,7 +25921,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="76" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:32" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>73</v>
       </c>
@@ -25990,7 +25990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>73</v>
       </c>
@@ -26062,7 +26062,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="78" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>73</v>
       </c>
@@ -26119,7 +26119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="26" t="s">
         <v>73</v>
       </c>
@@ -26194,7 +26194,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="26" t="s">
         <v>73</v>
       </c>
@@ -26272,7 +26272,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="81" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="26" t="s">
         <v>73</v>
       </c>
@@ -26344,7 +26344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="26" t="s">
         <v>73</v>
       </c>
@@ -26419,7 +26419,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="83" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="26" t="s">
         <v>73</v>
       </c>
@@ -26491,7 +26491,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="26" t="s">
         <v>73</v>
       </c>
@@ -26560,7 +26560,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="85" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
         <v>73</v>
       </c>
@@ -26629,7 +26629,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="86" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="26" t="s">
         <v>73</v>
       </c>
@@ -26695,7 +26695,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="87" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:31" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
         <v>73</v>
       </c>
@@ -26764,7 +26764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
         <v>73</v>
       </c>
@@ -26836,7 +26836,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="89" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
         <v>73</v>
       </c>
@@ -26893,7 +26893,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
         <v>73</v>
       </c>
@@ -26947,7 +26947,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="91" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>785</v>
       </c>
@@ -27010,7 +27010,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>785</v>
       </c>
@@ -27070,7 +27070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:31" s="6" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:31" s="6" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>785</v>
       </c>
@@ -27124,7 +27124,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="94" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>785</v>
       </c>
@@ -27193,7 +27193,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="95" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>785</v>
       </c>
@@ -27262,7 +27262,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="96" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>785</v>
       </c>
@@ -27316,7 +27316,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="97" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>785</v>
       </c>
@@ -27376,7 +27376,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="98" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>785</v>
       </c>
@@ -27433,7 +27433,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="99" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>785</v>
       </c>
@@ -27487,7 +27487,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="100" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="17" t="s">
         <v>83</v>
       </c>
@@ -27547,7 +27547,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="17" t="s">
         <v>83</v>
       </c>
@@ -27625,7 +27625,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="102" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="17" t="s">
         <v>83</v>
       </c>
@@ -27700,7 +27700,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="103" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="17" t="s">
         <v>83</v>
       </c>
@@ -27781,7 +27781,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="104" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="17" t="s">
         <v>83</v>
       </c>
@@ -27856,7 +27856,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="105" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
         <v>83</v>
       </c>
@@ -27931,7 +27931,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="106" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="17" t="s">
         <v>83</v>
       </c>
@@ -28006,7 +28006,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="107" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="s">
         <v>83</v>
       </c>
@@ -28075,7 +28075,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="108" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:32" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="17" t="s">
         <v>83</v>
       </c>
@@ -28147,7 +28147,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="109" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="17" t="s">
         <v>83</v>
       </c>
@@ -28222,7 +28222,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="110" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="17" t="s">
         <v>83</v>
       </c>
@@ -28279,7 +28279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>83</v>
       </c>
@@ -28354,7 +28354,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="112" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>83</v>
       </c>
@@ -28432,7 +28432,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="113" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>83</v>
       </c>
@@ -28507,7 +28507,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="114" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>83</v>
       </c>
@@ -28588,7 +28588,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="115" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>83</v>
       </c>
@@ -28663,7 +28663,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="116" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>83</v>
       </c>
@@ -28738,7 +28738,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="117" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>83</v>
       </c>
@@ -28813,7 +28813,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="118" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>83</v>
       </c>
@@ -28882,7 +28882,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="119" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:32" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>83</v>
       </c>
@@ -28954,7 +28954,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="120" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>83</v>
       </c>
@@ -29029,7 +29029,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="121" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>83</v>
       </c>
@@ -29086,7 +29086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="17" t="s">
         <v>83</v>
       </c>
@@ -29158,7 +29158,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="123" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="17" t="s">
         <v>83</v>
       </c>
@@ -29233,7 +29233,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="124" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="17" t="s">
         <v>83</v>
       </c>
@@ -29308,7 +29308,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="125" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="17" t="s">
         <v>83</v>
       </c>
@@ -29389,7 +29389,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="126" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="17" t="s">
         <v>83</v>
       </c>
@@ -29464,7 +29464,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="127" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="17" t="s">
         <v>83</v>
       </c>
@@ -29527,7 +29527,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="128" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="17" t="s">
         <v>83</v>
       </c>
@@ -29590,7 +29590,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="129" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="17" t="s">
         <v>83</v>
       </c>
@@ -29659,7 +29659,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="130" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:32" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="17" t="s">
         <v>83</v>
       </c>
@@ -29734,7 +29734,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="131" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="17" t="s">
         <v>83</v>
       </c>
@@ -29809,7 +29809,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="132" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="17" t="s">
         <v>83</v>
       </c>
@@ -29869,7 +29869,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="133" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="17" t="s">
         <v>83</v>
       </c>
@@ -29926,7 +29926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>83</v>
       </c>
@@ -30001,7 +30001,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="135" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>83</v>
       </c>
@@ -30073,7 +30073,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="136" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>83</v>
       </c>
@@ -30151,7 +30151,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="137" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>83</v>
       </c>
@@ -30226,7 +30226,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="138" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>83</v>
       </c>
@@ -30310,7 +30310,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="139" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>83</v>
       </c>
@@ -30379,7 +30379,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="140" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>83</v>
       </c>
@@ -30454,7 +30454,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="141" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>83</v>
       </c>
@@ -30538,7 +30538,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="142" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:32" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>83</v>
       </c>
@@ -30598,7 +30598,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="143" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>83</v>
       </c>
@@ -30673,7 +30673,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="144" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>83</v>
       </c>
@@ -30739,7 +30739,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="145" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="17" t="s">
         <v>79</v>
       </c>
@@ -30814,7 +30814,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="146" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="17" t="s">
         <v>79</v>
       </c>
@@ -30892,7 +30892,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="147" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="17" t="s">
         <v>79</v>
       </c>
@@ -30967,7 +30967,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="148" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="17" t="s">
         <v>79</v>
       </c>
@@ -31048,7 +31048,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="149" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="17" t="s">
         <v>79</v>
       </c>
@@ -31123,7 +31123,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="150" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="17" t="s">
         <v>79</v>
       </c>
@@ -31195,7 +31195,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="151" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="17" t="s">
         <v>79</v>
       </c>
@@ -31267,7 +31267,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="152" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="17" t="s">
         <v>79</v>
       </c>
@@ -31333,7 +31333,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="153" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:32" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="17" t="s">
         <v>79</v>
       </c>
@@ -31405,7 +31405,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="154" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="17" t="s">
         <v>79</v>
       </c>
@@ -31480,7 +31480,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="155" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="17" t="s">
         <v>79</v>
       </c>
@@ -31537,7 +31537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>203</v>
       </c>
@@ -31612,7 +31612,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="157" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>203</v>
       </c>
@@ -31690,7 +31690,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="158" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>203</v>
       </c>
@@ -31765,7 +31765,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="159" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>203</v>
       </c>
@@ -31846,7 +31846,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="160" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>203</v>
       </c>
@@ -31921,7 +31921,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="161" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>203</v>
       </c>
@@ -31993,7 +31993,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="162" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>203</v>
       </c>
@@ -32065,7 +32065,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="163" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>203</v>
       </c>
@@ -32131,7 +32131,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="164" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:32" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>203</v>
       </c>
@@ -32203,7 +32203,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="165" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>203</v>
       </c>
@@ -32278,7 +32278,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="166" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>203</v>
       </c>
@@ -32335,7 +32335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="17" t="s">
         <v>556</v>
       </c>
@@ -32410,7 +32410,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="168" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="17" t="s">
         <v>556</v>
       </c>
@@ -32488,7 +32488,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="169" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="17" t="s">
         <v>556</v>
       </c>
@@ -32563,7 +32563,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="170" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="17" t="s">
         <v>556</v>
       </c>
@@ -32644,7 +32644,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="171" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="17" t="s">
         <v>556</v>
       </c>
@@ -32719,7 +32719,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="172" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="17" t="s">
         <v>556</v>
       </c>
@@ -32794,7 +32794,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="173" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="17" t="s">
         <v>556</v>
       </c>
@@ -32869,7 +32869,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="174" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="17" t="s">
         <v>556</v>
       </c>
@@ -32938,7 +32938,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="175" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:32" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="17" t="s">
         <v>556</v>
       </c>
@@ -33010,7 +33010,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="176" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="17" t="s">
         <v>556</v>
       </c>
@@ -33085,7 +33085,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="177" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="17" t="s">
         <v>556</v>
       </c>
@@ -33142,7 +33142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>583</v>
       </c>
@@ -33218,7 +33218,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="179" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>583</v>
       </c>
@@ -33296,7 +33296,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="180" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>583</v>
       </c>
@@ -33371,7 +33371,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="181" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>583</v>
       </c>
@@ -33452,7 +33452,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="182" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>583</v>
       </c>
@@ -33527,7 +33527,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="183" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
         <v>583</v>
       </c>
@@ -33602,7 +33602,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="184" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>583</v>
       </c>
@@ -33677,7 +33677,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="185" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>583</v>
       </c>
@@ -33746,7 +33746,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="186" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:32" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>583</v>
       </c>
@@ -33818,7 +33818,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="187" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>583</v>
       </c>
@@ -33893,7 +33893,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="188" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>583</v>
       </c>
@@ -33950,7 +33950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="17" t="s">
         <v>610</v>
       </c>
@@ -34025,7 +34025,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="190" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="17" t="s">
         <v>610</v>
       </c>
@@ -34103,7 +34103,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="191" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="17" t="s">
         <v>610</v>
       </c>
@@ -34178,7 +34178,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="192" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="17" t="s">
         <v>610</v>
       </c>
@@ -34259,7 +34259,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="193" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="17" t="s">
         <v>610</v>
       </c>
@@ -34334,7 +34334,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="194" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="17" t="s">
         <v>610</v>
       </c>
@@ -34409,7 +34409,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="195" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="17" t="s">
         <v>610</v>
       </c>
@@ -34484,7 +34484,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="196" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="17" t="s">
         <v>610</v>
       </c>
@@ -34553,7 +34553,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="197" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:32" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="17" t="s">
         <v>610</v>
       </c>
@@ -34625,7 +34625,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="198" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="17" t="s">
         <v>610</v>
       </c>
@@ -34700,7 +34700,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="199" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="17" t="s">
         <v>610</v>
       </c>
@@ -34757,7 +34757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>583</v>
       </c>
@@ -34832,7 +34832,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="201" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>583</v>
       </c>
@@ -34910,7 +34910,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="202" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>583</v>
       </c>
@@ -34985,7 +34985,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="203" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>583</v>
       </c>
@@ -35066,7 +35066,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="204" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:32" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>583</v>
       </c>
@@ -35141,7 +35141,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="205" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>583</v>
       </c>
@@ -35216,7 +35216,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="206" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>583</v>
       </c>
@@ -35291,7 +35291,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="207" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>583</v>
       </c>
@@ -35360,7 +35360,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="208" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:32" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>583</v>
       </c>
@@ -35429,7 +35429,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="209" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
         <v>583</v>
       </c>
@@ -35504,7 +35504,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="210" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>583</v>
       </c>
@@ -35561,7 +35561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="17" t="s">
         <v>583</v>
       </c>
@@ -35636,7 +35636,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="212" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="17" t="s">
         <v>583</v>
       </c>
@@ -35714,7 +35714,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="213" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="17" t="s">
         <v>583</v>
       </c>
@@ -35789,7 +35789,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="214" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="17" t="s">
         <v>583</v>
       </c>
@@ -35870,7 +35870,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="215" spans="1:32" s="17" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:32" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="17" t="s">
         <v>583</v>
       </c>
@@ -35945,7 +35945,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="216" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="17" t="s">
         <v>583</v>
       </c>
@@ -36020,7 +36020,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="217" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="17" t="s">
         <v>583</v>
       </c>
@@ -36095,7 +36095,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="218" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="17" t="s">
         <v>583</v>
       </c>
@@ -36164,7 +36164,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="219" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:32" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="17" t="s">
         <v>583</v>
       </c>
@@ -36236,7 +36236,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="220" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="17" t="s">
         <v>583</v>
       </c>
@@ -36311,7 +36311,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="221" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="17" t="s">
         <v>583</v>
       </c>
@@ -36368,7 +36368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>649</v>
       </c>
@@ -36443,7 +36443,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="223" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
         <v>649</v>
       </c>
@@ -36521,7 +36521,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="224" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>649</v>
       </c>
@@ -36596,7 +36596,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="225" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
         <v>649</v>
       </c>
@@ -36677,7 +36677,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="226" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>649</v>
       </c>
@@ -36752,7 +36752,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="227" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
         <v>649</v>
       </c>
@@ -36827,7 +36827,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="228" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
         <v>649</v>
       </c>
@@ -36902,7 +36902,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="229" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>649</v>
       </c>
@@ -36971,7 +36971,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="230" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:32" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
         <v>649</v>
       </c>
@@ -37043,7 +37043,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="231" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
         <v>649</v>
       </c>
@@ -37118,7 +37118,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="232" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
         <v>649</v>
       </c>
@@ -37197,31 +37197,31 @@
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.87890625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.234375" style="43" customWidth="1"/>
-    <col min="3" max="3" width="7.8203125" customWidth="1"/>
-    <col min="4" max="4" width="9.87890625" customWidth="1"/>
-    <col min="5" max="5" width="12.41015625" customWidth="1"/>
-    <col min="6" max="6" width="15.8203125" customWidth="1"/>
-    <col min="7" max="7" width="4.703125" customWidth="1"/>
-    <col min="8" max="8" width="35.1171875" customWidth="1"/>
-    <col min="9" max="9" width="24.41015625" customWidth="1"/>
-    <col min="10" max="10" width="9.41015625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.703125" customWidth="1"/>
-    <col min="12" max="12" width="9.17578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1171875" style="11" customWidth="1"/>
-    <col min="14" max="14" width="23.52734375" style="11" customWidth="1"/>
-    <col min="15" max="15" width="11.8203125" customWidth="1"/>
-    <col min="16" max="16" width="7.05859375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.3515625" customWidth="1"/>
-    <col min="18" max="18" width="13.3515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.76171875" customWidth="1"/>
-    <col min="20" max="20" width="16.87890625" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="43" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" customWidth="1"/>
+    <col min="8" max="8" width="35.140625" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="23.5703125" style="11" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" customWidth="1"/>
+    <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>788</v>
       </c>
@@ -37289,7 +37289,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:22" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
@@ -37334,7 +37334,7 @@
       <c r="S2" s="49"/>
       <c r="T2" s="49"/>
     </row>
-    <row r="3" spans="1:22" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:22" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>0</v>
       </c>
@@ -37393,7 +37393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:22" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>9</v>
       </c>
@@ -37438,7 +37438,7 @@
       <c r="S4" s="49"/>
       <c r="T4" s="49"/>
     </row>
-    <row r="5" spans="1:22" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:22" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>9</v>
       </c>
@@ -37497,7 +37497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:22" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>18</v>
       </c>
@@ -37541,7 +37541,7 @@
       <c r="R6" s="49"/>
       <c r="T6" s="49"/>
     </row>
-    <row r="7" spans="1:22" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:22" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>18</v>
       </c>
@@ -37595,7 +37595,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="36" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:22" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>18</v>
       </c>
@@ -37647,7 +37647,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="36" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:22" s="36" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>18</v>
       </c>
@@ -37700,7 +37700,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="36" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:22" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>18</v>
       </c>
@@ -37752,7 +37752,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:22" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>33</v>
       </c>
@@ -37798,7 +37798,7 @@
       <c r="S11" s="49"/>
       <c r="T11" s="49"/>
     </row>
-    <row r="12" spans="1:22" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:22" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
         <v>33</v>
       </c>
@@ -37851,7 +37851,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="36" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:22" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
         <v>33</v>
       </c>
@@ -37904,7 +37904,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="36" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:22" s="36" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
         <v>33</v>
       </c>
@@ -37956,7 +37956,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="36" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:22" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
         <v>33</v>
       </c>
@@ -38009,7 +38009,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:22" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
         <v>37</v>
       </c>
@@ -38054,7 +38054,7 @@
       <c r="S16" s="49"/>
       <c r="T16" s="49"/>
     </row>
-    <row r="17" spans="1:21" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:21" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
         <v>37</v>
       </c>
@@ -38108,7 +38108,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="36" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:21" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
         <v>37</v>
       </c>
@@ -38160,7 +38160,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="36" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:21" s="36" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
         <v>37</v>
       </c>
@@ -38213,7 +38213,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="36" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:21" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
         <v>37</v>
       </c>
@@ -38265,7 +38265,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:21" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
         <v>46</v>
       </c>
@@ -38311,7 +38311,7 @@
       <c r="S21" s="49"/>
       <c r="T21" s="49"/>
     </row>
-    <row r="22" spans="1:21" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:21" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
         <v>46</v>
       </c>
@@ -38366,7 +38366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:21" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
         <v>50</v>
       </c>
@@ -38419,7 +38419,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:21" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
         <v>54</v>
       </c>
@@ -38464,7 +38464,7 @@
       <c r="S24" s="49"/>
       <c r="T24" s="49"/>
     </row>
-    <row r="25" spans="1:21" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:21" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
         <v>54</v>
       </c>
@@ -38518,7 +38518,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="36" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:21" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
         <v>54</v>
       </c>
@@ -38570,7 +38570,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="36" customFormat="1" ht="86" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:21" s="36" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
         <v>54</v>
       </c>
@@ -38623,7 +38623,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:21" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
         <v>54</v>
       </c>
@@ -38675,7 +38675,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:21" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
         <v>516</v>
       </c>
@@ -38721,7 +38721,7 @@
       <c r="S29" s="49"/>
       <c r="T29" s="49"/>
     </row>
-    <row r="30" spans="1:21" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:21" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
         <v>516</v>
       </c>
@@ -38776,7 +38776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="36" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:21" s="36" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
         <v>516</v>
       </c>
@@ -38829,7 +38829,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:21" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
         <v>530</v>
       </c>
@@ -38874,7 +38874,7 @@
       <c r="S32" s="49"/>
       <c r="T32" s="49"/>
     </row>
-    <row r="33" spans="1:21" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:21" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
         <v>530</v>
       </c>
@@ -38930,7 +38930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:21" s="36" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
         <v>9</v>
       </c>
@@ -38972,7 +38972,7 @@
       <c r="S34" s="49"/>
       <c r="T34" s="49"/>
     </row>
-    <row r="35" spans="1:21" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:21" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="36" t="s">
         <v>9</v>
       </c>
@@ -39026,128 +39026,128 @@
         <v>776</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G36" s="36"/>
       <c r="Q36" s="19"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="Q37" s="19"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G38" s="36"/>
       <c r="Q38" s="19"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="Q39" s="17"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G40" s="36"/>
       <c r="Q40" s="17"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="Q41" s="18"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G42" s="36"/>
       <c r="Q42" s="18"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="Q43" s="18"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G44" s="36"/>
       <c r="Q44" s="6"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="Q45" s="6"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G46" s="36"/>
       <c r="Q46" s="19"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="Q47" s="19"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G48" s="36"/>
       <c r="Q48" s="19"/>
     </row>
-    <row r="49" spans="7:17" x14ac:dyDescent="0.5">
+    <row r="49" spans="7:17" x14ac:dyDescent="0.25">
       <c r="Q49" s="17"/>
     </row>
-    <row r="50" spans="7:17" x14ac:dyDescent="0.5">
+    <row r="50" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G50" s="36"/>
       <c r="Q50" s="17"/>
     </row>
-    <row r="51" spans="7:17" x14ac:dyDescent="0.5">
+    <row r="51" spans="7:17" x14ac:dyDescent="0.25">
       <c r="Q51" s="18"/>
     </row>
-    <row r="52" spans="7:17" x14ac:dyDescent="0.5">
+    <row r="52" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G52" s="36"/>
       <c r="Q52" s="18"/>
     </row>
-    <row r="53" spans="7:17" x14ac:dyDescent="0.5">
+    <row r="53" spans="7:17" x14ac:dyDescent="0.25">
       <c r="Q53" s="18"/>
     </row>
-    <row r="54" spans="7:17" x14ac:dyDescent="0.5">
+    <row r="54" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G54" s="36"/>
       <c r="Q54" s="18"/>
     </row>
-    <row r="55" spans="7:17" x14ac:dyDescent="0.5">
+    <row r="55" spans="7:17" x14ac:dyDescent="0.25">
       <c r="Q55" s="18"/>
     </row>
-    <row r="56" spans="7:17" x14ac:dyDescent="0.5">
+    <row r="56" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G56" s="36"/>
     </row>
-    <row r="58" spans="7:17" x14ac:dyDescent="0.5">
+    <row r="58" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G58" s="36"/>
     </row>
-    <row r="60" spans="7:17" x14ac:dyDescent="0.5">
+    <row r="60" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G60" s="36"/>
     </row>
-    <row r="62" spans="7:17" x14ac:dyDescent="0.5">
+    <row r="62" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G62" s="36"/>
     </row>
-    <row r="64" spans="7:17" x14ac:dyDescent="0.5">
+    <row r="64" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G64" s="36"/>
     </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="66" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G66" s="36"/>
     </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="68" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G68" s="36"/>
     </row>
-    <row r="70" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="70" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G70" s="36"/>
     </row>
-    <row r="72" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="72" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G72" s="36"/>
     </row>
-    <row r="74" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="74" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G74" s="36"/>
     </row>
-    <row r="76" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="76" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G76" s="36"/>
     </row>
-    <row r="78" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="78" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G78" s="36"/>
     </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="80" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G80" s="36"/>
     </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G82" s="36"/>
     </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="84" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G84" s="36"/>
     </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="86" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G86" s="36"/>
     </row>
-    <row r="88" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="88" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G88" s="36"/>
     </row>
-    <row r="90" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="90" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G90" s="36"/>
     </row>
   </sheetData>
@@ -39166,33 +39166,33 @@
       <selection pane="bottomLeft" activeCell="P56" sqref="P56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.41015625" customWidth="1"/>
-    <col min="2" max="2" width="10.5859375" style="43" customWidth="1"/>
-    <col min="3" max="3" width="10.64453125" customWidth="1"/>
-    <col min="4" max="4" width="7.76171875" customWidth="1"/>
-    <col min="5" max="5" width="13.29296875" customWidth="1"/>
-    <col min="6" max="6" width="15.41015625" customWidth="1"/>
-    <col min="7" max="7" width="4.703125" customWidth="1"/>
-    <col min="8" max="8" width="30.5859375" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="43" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="9.41015625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.29296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1171875" customWidth="1"/>
-    <col min="13" max="13" width="12.87890625" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
     <col min="14" max="14" width="21" customWidth="1"/>
-    <col min="15" max="15" width="11.76171875" customWidth="1"/>
-    <col min="16" max="16" width="7.05859375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.3515625" customWidth="1"/>
-    <col min="18" max="18" width="13.703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.29296875" customWidth="1"/>
-    <col min="20" max="20" width="18.46875" customWidth="1"/>
-    <col min="21" max="21" width="18.17578125" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" customWidth="1"/>
+    <col min="20" max="20" width="18.42578125" customWidth="1"/>
+    <col min="21" max="21" width="18.140625" customWidth="1"/>
     <col min="22" max="22" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>788</v>
       </c>
@@ -39260,7 +39260,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="6" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:22" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>57</v>
       </c>
@@ -39308,7 +39308,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="6" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:22" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>57</v>
       </c>
@@ -39363,7 +39363,7 @@
       </c>
       <c r="U3" s="18"/>
     </row>
-    <row r="4" spans="1:22" s="6" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:22" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>57</v>
       </c>
@@ -39411,7 +39411,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="6" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:22" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>57</v>
       </c>
@@ -39455,7 +39455,7 @@
       </c>
       <c r="T5" s="18"/>
     </row>
-    <row r="6" spans="1:22" s="6" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:22" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>57</v>
       </c>
@@ -39510,7 +39510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:22" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>70</v>
       </c>
@@ -39552,7 +39552,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:22" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>70</v>
       </c>
@@ -39603,7 +39603,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:22" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>70</v>
       </c>
@@ -39645,7 +39645,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:22" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>70</v>
       </c>
@@ -39687,7 +39687,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:22" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>70</v>
       </c>
@@ -39741,7 +39741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:22" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>73</v>
       </c>
@@ -39783,7 +39783,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:22" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>73</v>
       </c>
@@ -39834,7 +39834,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:22" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>73</v>
       </c>
@@ -39876,7 +39876,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:22" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>73</v>
       </c>
@@ -39918,7 +39918,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:22" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>73</v>
       </c>
@@ -39972,7 +39972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:21" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>89</v>
       </c>
@@ -40014,7 +40014,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:21" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>89</v>
       </c>
@@ -40065,7 +40065,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:21" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>89</v>
       </c>
@@ -40107,7 +40107,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:21" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>89</v>
       </c>
@@ -40149,7 +40149,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:21" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>89</v>
       </c>
@@ -40203,7 +40203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:21" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>86</v>
       </c>
@@ -40245,7 +40245,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:21" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>86</v>
       </c>
@@ -40296,7 +40296,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:21" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>86</v>
       </c>
@@ -40338,7 +40338,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:21" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>86</v>
       </c>
@@ -40383,7 +40383,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:21" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>79</v>
       </c>
@@ -40425,7 +40425,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:21" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>79</v>
       </c>
@@ -40476,7 +40476,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:21" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>79</v>
       </c>
@@ -40518,7 +40518,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:21" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>79</v>
       </c>
@@ -40560,7 +40560,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="19" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:21" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>79</v>
       </c>
@@ -40614,7 +40614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="6" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:21" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>556</v>
       </c>
@@ -40662,7 +40662,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="6" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:21" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>556</v>
       </c>
@@ -40717,7 +40717,7 @@
       </c>
       <c r="U32" s="18"/>
     </row>
-    <row r="33" spans="1:21" s="6" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:21" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>556</v>
       </c>
@@ -40765,7 +40765,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="6" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:21" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>556</v>
       </c>
@@ -40809,7 +40809,7 @@
       </c>
       <c r="T34" s="18"/>
     </row>
-    <row r="35" spans="1:21" s="6" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:21" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>556</v>
       </c>
@@ -40864,7 +40864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="17" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:21" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>583</v>
       </c>
@@ -40912,7 +40912,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:21" s="17" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:21" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>583</v>
       </c>
@@ -40967,7 +40967,7 @@
       </c>
       <c r="U37" s="19"/>
     </row>
-    <row r="38" spans="1:21" s="17" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:21" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>583</v>
       </c>
@@ -41015,7 +41015,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="39" spans="1:21" s="17" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:21" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>583</v>
       </c>
@@ -41059,7 +41059,7 @@
       </c>
       <c r="T39" s="19"/>
     </row>
-    <row r="40" spans="1:21" s="17" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:21" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>583</v>
       </c>
@@ -41114,7 +41114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="6" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:21" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>583</v>
       </c>
@@ -41162,7 +41162,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="6" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:21" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>583</v>
       </c>
@@ -41217,7 +41217,7 @@
       </c>
       <c r="U42" s="18"/>
     </row>
-    <row r="43" spans="1:21" s="6" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:21" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>583</v>
       </c>
@@ -41265,7 +41265,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="6" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:21" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>583</v>
       </c>
@@ -41309,7 +41309,7 @@
       </c>
       <c r="T44" s="18"/>
     </row>
-    <row r="45" spans="1:21" s="6" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:21" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>583</v>
       </c>
@@ -41364,7 +41364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:21" s="17" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:21" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
         <v>625</v>
       </c>
@@ -41412,7 +41412,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="17" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:21" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
         <v>625</v>
       </c>
@@ -41467,7 +41467,7 @@
       </c>
       <c r="U47" s="19"/>
     </row>
-    <row r="48" spans="1:21" s="17" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:21" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>625</v>
       </c>
@@ -41515,7 +41515,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="49" spans="1:21" s="17" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:21" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>625</v>
       </c>
@@ -41559,7 +41559,7 @@
       </c>
       <c r="T49" s="19"/>
     </row>
-    <row r="50" spans="1:21" s="17" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:21" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
         <v>625</v>
       </c>
@@ -41611,7 +41611,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="51" spans="1:21" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:21" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>73</v>
       </c>
@@ -41653,7 +41653,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:21" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:21" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>73</v>
       </c>
@@ -41704,7 +41704,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="53" spans="1:21" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:21" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
         <v>73</v>
       </c>
@@ -41746,7 +41746,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:21" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
         <v>73</v>
       </c>
@@ -41788,7 +41788,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="55" spans="1:21" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:21" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
         <v>73</v>
       </c>
@@ -41842,58 +41842,58 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G56" s="36"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G58" s="36"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G60" s="36"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G62" s="36"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G64" s="36"/>
     </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="66" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G66" s="36"/>
     </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="68" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G68" s="36"/>
     </row>
-    <row r="70" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="70" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G70" s="36"/>
     </row>
-    <row r="72" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="72" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G72" s="36"/>
     </row>
-    <row r="74" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="74" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G74" s="36"/>
     </row>
-    <row r="76" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="76" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G76" s="36"/>
     </row>
-    <row r="78" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="78" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G78" s="36"/>
     </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="80" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G80" s="36"/>
     </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G82" s="36"/>
     </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="84" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G84" s="36"/>
     </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="86" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G86" s="36"/>
     </row>
-    <row r="88" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="88" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G88" s="36"/>
     </row>
-    <row r="90" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="90" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G90" s="36"/>
     </row>
   </sheetData>
@@ -41912,16 +41912,16 @@
       <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="32.29296875" customWidth="1"/>
-    <col min="3" max="3" width="15.41015625" customWidth="1"/>
-    <col min="4" max="4" width="20.29296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1171875" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>724</v>
       </c>
@@ -41938,7 +41938,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>346</v>
       </c>
@@ -41955,7 +41955,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>349</v>
       </c>
@@ -41972,7 +41972,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>349</v>
       </c>
@@ -41989,7 +41989,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>711</v>
       </c>
@@ -42006,7 +42006,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>711</v>
       </c>
@@ -42023,7 +42023,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>711</v>
       </c>
@@ -42040,7 +42040,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>712</v>
       </c>
@@ -42057,7 +42057,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>712</v>
       </c>
@@ -42074,7 +42074,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>712</v>
       </c>
@@ -42091,7 +42091,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>729</v>
       </c>
@@ -42108,7 +42108,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>729</v>
       </c>
@@ -42125,7 +42125,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>716</v>
       </c>
@@ -42142,7 +42142,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>716</v>
       </c>
@@ -42159,7 +42159,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>716</v>
       </c>
@@ -42176,7 +42176,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>720</v>
       </c>
@@ -42193,7 +42193,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>720</v>
       </c>
@@ -42210,7 +42210,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>720</v>
       </c>
@@ -42227,7 +42227,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
         <v>115</v>
       </c>
@@ -42247,7 +42247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
         <v>115</v>
       </c>
@@ -42264,7 +42264,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
         <v>115</v>
       </c>
@@ -42281,7 +42281,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>374</v>
       </c>
@@ -42298,7 +42298,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>374</v>
       </c>
@@ -42315,7 +42315,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>374</v>
       </c>
@@ -42332,7 +42332,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>374</v>
       </c>
@@ -42349,7 +42349,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>374</v>
       </c>
@@ -42366,7 +42366,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>386</v>
       </c>
@@ -42383,7 +42383,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>386</v>
       </c>
@@ -42400,7 +42400,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>392</v>
       </c>
@@ -42417,7 +42417,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>392</v>
       </c>
@@ -42434,7 +42434,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>392</v>
       </c>
@@ -42451,7 +42451,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>392</v>
       </c>
@@ -42468,7 +42468,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>392</v>
       </c>
@@ -42485,7 +42485,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>544</v>
       </c>
@@ -42502,7 +42502,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>544</v>
       </c>
@@ -42519,7 +42519,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>544</v>
       </c>
@@ -42536,7 +42536,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>544</v>
       </c>
@@ -42553,7 +42553,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>544</v>
       </c>
@@ -42570,7 +42570,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>404</v>
       </c>
@@ -42587,7 +42587,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>404</v>
       </c>
@@ -42604,7 +42604,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>404</v>
       </c>
@@ -42621,7 +42621,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>404</v>
       </c>
@@ -42638,7 +42638,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>404</v>
       </c>
@@ -42655,7 +42655,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>404</v>
       </c>
@@ -42672,7 +42672,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>404</v>
       </c>
@@ -42689,7 +42689,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>404</v>
       </c>
@@ -42706,7 +42706,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>404</v>
       </c>
@@ -42723,7 +42723,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>404</v>
       </c>
@@ -42743,7 +42743,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>404</v>
       </c>
@@ -42760,7 +42760,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>426</v>
       </c>
@@ -42777,7 +42777,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>426</v>
       </c>
@@ -42794,7 +42794,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>426</v>
       </c>
@@ -42811,7 +42811,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>426</v>
       </c>
@@ -42828,7 +42828,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>426</v>
       </c>
@@ -42845,7 +42845,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>426</v>
       </c>
@@ -42862,7 +42862,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>426</v>
       </c>
@@ -42879,7 +42879,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>426</v>
       </c>
@@ -42896,7 +42896,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>426</v>
       </c>
@@ -42913,7 +42913,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>426</v>
       </c>
@@ -42930,7 +42930,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>426</v>
       </c>
@@ -42947,7 +42947,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>426</v>
       </c>
@@ -42964,7 +42964,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>426</v>
       </c>
@@ -42981,7 +42981,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>426</v>
       </c>
@@ -42998,7 +42998,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>426</v>
       </c>
@@ -43015,7 +43015,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>426</v>
       </c>
@@ -43032,7 +43032,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>426</v>
       </c>
@@ -43049,7 +43049,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>452</v>
       </c>
@@ -43066,7 +43066,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>452</v>
       </c>
@@ -43083,7 +43083,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>452</v>
       </c>
@@ -43100,7 +43100,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>452</v>
       </c>
@@ -43117,7 +43117,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>452</v>
       </c>
@@ -43134,7 +43134,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>452</v>
       </c>
@@ -43151,7 +43151,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>452</v>
       </c>
@@ -43168,7 +43168,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>452</v>
       </c>
@@ -43185,7 +43185,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>452</v>
       </c>
@@ -43202,7 +43202,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>452</v>
       </c>
@@ -43219,7 +43219,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>452</v>
       </c>
@@ -43236,7 +43236,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>452</v>
       </c>
@@ -43253,7 +43253,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>452</v>
       </c>
@@ -43270,7 +43270,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>452</v>
       </c>
@@ -43287,7 +43287,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>452</v>
       </c>
@@ -43304,7 +43304,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>567</v>
       </c>
@@ -43321,7 +43321,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>567</v>
       </c>
@@ -43338,7 +43338,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>567</v>
       </c>
@@ -43355,7 +43355,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>567</v>
       </c>
@@ -43372,7 +43372,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>567</v>
       </c>
@@ -43389,7 +43389,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>567</v>
       </c>
@@ -43406,7 +43406,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>567</v>
       </c>
@@ -43423,7 +43423,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>567</v>
       </c>
@@ -43440,7 +43440,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>643</v>
       </c>
@@ -43457,7 +43457,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>643</v>
       </c>
@@ -43489,13 +43489,13 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="99" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>786</v>
       </c>
@@ -43503,7 +43503,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>785</v>
       </c>
@@ -43511,7 +43511,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>836</v>
       </c>
@@ -43532,22 +43532,22 @@
       <selection activeCell="A27" sqref="A27:A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.41015625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.76171875" customWidth="1"/>
-    <col min="4" max="4" width="22.5859375" customWidth="1"/>
-    <col min="5" max="5" width="11.41015625" customWidth="1"/>
-    <col min="6" max="6" width="68.3515625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="6.64453125" customWidth="1"/>
-    <col min="8" max="8" width="8.3515625" customWidth="1"/>
-    <col min="9" max="9" width="5.87890625" customWidth="1"/>
-    <col min="11" max="11" width="37.64453125" customWidth="1"/>
-    <col min="12" max="12" width="13.1171875" customWidth="1"/>
-    <col min="13" max="13" width="31.8203125" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="68.28515625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" customWidth="1"/>
+    <col min="11" max="11" width="37.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" customWidth="1"/>
+    <col min="13" max="13" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1034</v>
       </c>
@@ -43588,12 +43588,12 @@
         <v>795</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="57" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:13" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="56"/>
       <c r="F2" s="58"/>
       <c r="M2" s="58"/>
     </row>
-    <row r="3" spans="1:13" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1065</v>
       </c>
@@ -43612,7 +43612,7 @@
       </c>
       <c r="J3" s="47"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1065</v>
       </c>
@@ -43633,7 +43633,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1065</v>
       </c>
@@ -43657,7 +43657,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1065</v>
       </c>
@@ -43678,7 +43678,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1065</v>
       </c>
@@ -43699,7 +43699,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1065</v>
       </c>
@@ -43718,7 +43718,7 @@
       </c>
       <c r="J8" s="47"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1065</v>
       </c>
@@ -43739,7 +43739,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1065</v>
       </c>
@@ -43763,7 +43763,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1065</v>
       </c>
@@ -43784,7 +43784,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1065</v>
       </c>
@@ -43805,7 +43805,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1065</v>
       </c>
@@ -43824,7 +43824,7 @@
       </c>
       <c r="J13" s="47"/>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1065</v>
       </c>
@@ -43845,7 +43845,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1065</v>
       </c>
@@ -43869,7 +43869,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1065</v>
       </c>
@@ -43890,7 +43890,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1065</v>
       </c>
@@ -43911,7 +43911,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1065</v>
       </c>
@@ -43930,7 +43930,7 @@
       </c>
       <c r="J18" s="47"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1065</v>
       </c>
@@ -43951,7 +43951,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1065</v>
       </c>
@@ -43975,7 +43975,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1065</v>
       </c>
@@ -43996,7 +43996,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1065</v>
       </c>
@@ -44017,7 +44017,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1065</v>
       </c>
@@ -44036,7 +44036,7 @@
       </c>
       <c r="J23" s="47"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1065</v>
       </c>
@@ -44057,7 +44057,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1065</v>
       </c>
@@ -44081,7 +44081,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1065</v>
       </c>
@@ -44102,7 +44102,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1065</v>
       </c>
@@ -44123,7 +44123,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1065</v>
       </c>
@@ -44149,7 +44149,7 @@
       <c r="M28" s="69"/>
       <c r="N28" s="69"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1065</v>
       </c>
@@ -44177,7 +44177,7 @@
       <c r="M29" s="69"/>
       <c r="N29" s="69"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1065</v>
       </c>
@@ -44207,7 +44207,7 @@
       </c>
       <c r="N30" s="69"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1065</v>
       </c>
@@ -44235,7 +44235,7 @@
       <c r="M31" s="69"/>
       <c r="N31" s="69"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1065</v>
       </c>
@@ -44263,17 +44263,17 @@
       <c r="M32" s="69"/>
       <c r="N32" s="69"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="47"/>
       <c r="C33" s="47"/>
       <c r="J33" s="47"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
       <c r="J34" s="47"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="47"/>
       <c r="C35" s="47"/>
       <c r="J35" s="47"/>
@@ -44336,6 +44336,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Description0 xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">Data and Metadata documentation will explain structure and content any QC manipulations that have been done to the data.</Description0>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EA3DD6FD0640724CAC6A104AA4040E53" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aa00e2aeb63565fd4988f3bc7c97b371">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3dc215b4-4765-4137-95ef-e24fb8216673" xmlns:ns3="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7822c03c227bdc5bd9644e8b1fc3509a" ns2:_="" ns3:_="">
     <xsd:import namespace="3dc215b4-4765-4137-95ef-e24fb8216673"/>
@@ -44560,31 +44577,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Description0 xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">Data and Metadata documentation will explain structure and content any QC manipulations that have been done to the data.</Description0>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8B241BC-5CCF-40E8-9E25-51335C653516}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39B37AC5-F5A3-4EF7-AC4D-767671B87A49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3dc215b4-4765-4137-95ef-e24fb8216673"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C6799E1-5149-42BC-9D7A-BBF77829A244}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C6799E1-5149-42BC-9D7A-BBF77829A244}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39B37AC5-F5A3-4EF7-AC4D-767671B87A49}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8B241BC-5CCF-40E8-9E25-51335C653516}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3dc215b4-4765-4137-95ef-e24fb8216673"/>
+    <ds:schemaRef ds:uri="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/BC Curation Template.xlsx
+++ b/BC Curation Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linda\Documents\CDISC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DD2F81-7F34-49EB-8862-F021A39FD60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE51D823-3938-48AA-B169-F59A63D71702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{FA29263D-F7AA-4D0C-AE9B-6B008D3B18BE}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="3" xr2:uid="{FA29263D-F7AA-4D0C-AE9B-6B008D3B18BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Conceptual VS BC" sheetId="6" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13267" uniqueCount="1278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13283" uniqueCount="1280">
   <si>
     <t>C164634</t>
   </si>
@@ -3928,6 +3928,12 @@
   </si>
   <si>
     <t>3-87</t>
+  </si>
+  <si>
+    <t>sdtmig_end_version</t>
+  </si>
+  <si>
+    <t>An ordinal measurement of glucose present in a sample (placeholder)</t>
   </si>
 </sst>
 </file>
@@ -4148,7 +4154,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4354,12 +4360,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4677,14 +4686,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B92937E-F1B4-4F44-9F47-44A7FBEED699}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="12" style="90" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" style="89" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.64453125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.234375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.9375" style="2" bestFit="1" customWidth="1"/>
@@ -4702,26 +4711,26 @@
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="92" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A1" s="91" t="s">
+    <row r="1" spans="1:15" s="91" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A1" s="90" t="s">
         <v>1194</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="91" t="s">
         <v>1034</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="91" t="s">
         <v>788</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="91" t="s">
         <v>789</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="91" t="s">
         <v>790</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="91" t="s">
         <v>1101</v>
       </c>
-      <c r="G1" s="92" t="s">
+      <c r="G1" s="91" t="s">
         <v>796</v>
       </c>
       <c r="H1" s="10" t="s">
@@ -4733,16 +4742,16 @@
       <c r="J1" s="10" t="s">
         <v>875</v>
       </c>
-      <c r="K1" s="92" t="s">
+      <c r="K1" s="91" t="s">
         <v>876</v>
       </c>
-      <c r="L1" s="92" t="s">
+      <c r="L1" s="91" t="s">
         <v>792</v>
       </c>
-      <c r="M1" s="92" t="s">
+      <c r="M1" s="91" t="s">
         <v>793</v>
       </c>
-      <c r="N1" s="92" t="s">
+      <c r="N1" s="91" t="s">
         <v>794</v>
       </c>
       <c r="O1" s="10" t="s">
@@ -4750,7 +4759,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -4791,7 +4800,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -4817,7 +4826,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -4846,7 +4855,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -4879,7 +4888,7 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -4908,7 +4917,7 @@
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -4934,7 +4943,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -4954,7 +4963,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="86" x14ac:dyDescent="0.3">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -4998,7 +5007,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" s="9" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -5043,7 +5052,7 @@
       <c r="O10" s="16"/>
     </row>
     <row r="11" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -5073,7 +5082,7 @@
       <c r="O11" s="16"/>
     </row>
     <row r="12" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -5105,7 +5114,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -5137,7 +5146,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -5169,7 +5178,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" s="9" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -5201,7 +5210,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" s="9" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -5235,7 +5244,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" s="9" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -5280,7 +5289,7 @@
       <c r="O17" s="16"/>
     </row>
     <row r="18" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -5310,7 +5319,7 @@
       <c r="O18" s="16"/>
     </row>
     <row r="19" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="90" t="s">
+      <c r="A19" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -5342,7 +5351,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="90" t="s">
+      <c r="A20" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -5374,7 +5383,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -5406,7 +5415,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" s="9" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -5438,7 +5447,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" s="9" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
-      <c r="A23" s="90" t="s">
+      <c r="A23" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -5470,7 +5479,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="43" x14ac:dyDescent="0.5">
-      <c r="A24" s="90" t="s">
+      <c r="A24" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -5496,7 +5505,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A25" s="90" t="s">
+      <c r="A25" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -5522,7 +5531,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A26" s="90" t="s">
+      <c r="A26" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -5551,7 +5560,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A27" s="90" t="s">
+      <c r="A27" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -5580,7 +5589,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -5609,7 +5618,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A29" s="90" t="s">
+      <c r="A29" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -5638,7 +5647,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="57.35" x14ac:dyDescent="0.5">
-      <c r="A30" s="90" t="s">
+      <c r="A30" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -5667,7 +5676,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A31" s="90" t="s">
+      <c r="A31" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -5699,7 +5708,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A32" s="90" t="s">
+      <c r="A32" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -5722,7 +5731,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A33" s="90" t="s">
+      <c r="A33" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -5748,7 +5757,7 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="90" t="s">
+      <c r="A34" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -5771,7 +5780,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A35" s="90" t="s">
+      <c r="A35" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -5800,7 +5809,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A36" s="90" t="s">
+      <c r="A36" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -5832,7 +5841,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A37" s="90" t="s">
+      <c r="A37" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -5858,7 +5867,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A38" s="90" t="s">
+      <c r="A38" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -5887,7 +5896,7 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A39" s="90" t="s">
+      <c r="A39" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -5916,7 +5925,7 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A40" s="90" t="s">
+      <c r="A40" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -5945,7 +5954,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A41" s="90" t="s">
+      <c r="A41" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -5974,7 +5983,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" ht="57.35" x14ac:dyDescent="0.5">
-      <c r="A42" s="90" t="s">
+      <c r="A42" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -6003,7 +6012,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A43" s="90" t="s">
+      <c r="A43" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -6038,7 +6047,7 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A44" s="90" t="s">
+      <c r="A44" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -6064,7 +6073,7 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A45" s="90" t="s">
+      <c r="A45" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -6093,7 +6102,7 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A46" s="90" t="s">
+      <c r="A46" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -6122,7 +6131,7 @@
       </c>
     </row>
     <row r="47" spans="1:15" ht="57.35" x14ac:dyDescent="0.5">
-      <c r="A47" s="90" t="s">
+      <c r="A47" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -6151,7 +6160,7 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A48" s="90" t="s">
+      <c r="A48" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -6174,7 +6183,7 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A49" s="90" t="s">
+      <c r="A49" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -6197,7 +6206,7 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A50" s="90" t="s">
+      <c r="A50" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -6223,7 +6232,7 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A51" s="90" t="s">
+      <c r="A51" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -6255,7 +6264,7 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A52" s="90" t="s">
+      <c r="A52" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -6281,7 +6290,7 @@
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A53" s="90" t="s">
+      <c r="A53" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -16426,13 +16435,13 @@
   <dimension ref="A1:O68"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="12" style="90" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" style="89" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.9375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.87890625" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.76171875" style="2" customWidth="1"/>
@@ -16450,26 +16459,26 @@
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="92" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A1" s="91" t="s">
+    <row r="1" spans="1:15" s="91" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A1" s="90" t="s">
         <v>1194</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="91" t="s">
         <v>1034</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="91" t="s">
         <v>788</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="91" t="s">
         <v>789</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="91" t="s">
         <v>790</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="91" t="s">
         <v>1101</v>
       </c>
-      <c r="G1" s="92" t="s">
+      <c r="G1" s="91" t="s">
         <v>796</v>
       </c>
       <c r="H1" s="10" t="s">
@@ -16481,16 +16490,16 @@
       <c r="J1" s="10" t="s">
         <v>875</v>
       </c>
-      <c r="K1" s="92" t="s">
+      <c r="K1" s="91" t="s">
         <v>876</v>
       </c>
-      <c r="L1" s="92" t="s">
+      <c r="L1" s="91" t="s">
         <v>792</v>
       </c>
-      <c r="M1" s="92" t="s">
+      <c r="M1" s="91" t="s">
         <v>793</v>
       </c>
-      <c r="N1" s="92" t="s">
+      <c r="N1" s="91" t="s">
         <v>794</v>
       </c>
       <c r="O1" s="10" t="s">
@@ -16498,7 +16507,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="30" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B2" s="66" t="s">
@@ -16522,7 +16531,7 @@
       <c r="O2" s="32"/>
     </row>
     <row r="3" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B3" s="66" t="s">
@@ -16549,7 +16558,7 @@
       <c r="O3" s="32"/>
     </row>
     <row r="4" spans="1:15" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B4" s="66" t="s">
@@ -16575,7 +16584,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B5" s="66" t="s">
@@ -16603,7 +16612,7 @@
       <c r="O5" s="16"/>
     </row>
     <row r="6" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B6" s="66" t="s">
@@ -16631,7 +16640,7 @@
       <c r="O6" s="16"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B7" s="66" t="s">
@@ -16661,7 +16670,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B8" s="66" t="s">
@@ -16691,7 +16700,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B9" s="66" t="s">
@@ -16717,7 +16726,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B10" s="66" t="s">
@@ -16745,7 +16754,7 @@
       <c r="O10" s="16"/>
     </row>
     <row r="11" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B11" s="66" t="s">
@@ -16773,7 +16782,7 @@
       <c r="O11" s="16"/>
     </row>
     <row r="12" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B12" s="66" t="s">
@@ -16801,7 +16810,7 @@
       <c r="O12" s="16"/>
     </row>
     <row r="13" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B13" s="66" t="s">
@@ -16831,7 +16840,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B14" s="66" t="s">
@@ -16857,7 +16866,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B15" s="66" t="s">
@@ -16885,7 +16894,7 @@
       <c r="O15" s="16"/>
     </row>
     <row r="16" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B16" s="66" t="s">
@@ -16913,7 +16922,7 @@
       <c r="O16" s="16"/>
     </row>
     <row r="17" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B17" s="66" t="s">
@@ -16943,7 +16952,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B18" s="66" t="s">
@@ -16973,7 +16982,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="90" t="s">
+      <c r="A19" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B19" s="66" t="s">
@@ -17010,7 +17019,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="90" t="s">
+      <c r="A20" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B20" s="66" t="s">
@@ -17036,7 +17045,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B21" s="66" t="s">
@@ -17062,7 +17071,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B22" s="66" t="s">
@@ -17091,7 +17100,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="90" t="s">
+      <c r="A23" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B23" s="66" t="s">
@@ -17120,7 +17129,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="90" t="s">
+      <c r="A24" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B24" s="66" t="s">
@@ -17143,7 +17152,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" s="9" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A25" s="90" t="s">
+      <c r="A25" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B25" s="66" t="s">
@@ -17168,7 +17177,7 @@
       <c r="J25" s="16"/>
     </row>
     <row r="26" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="90" t="s">
+      <c r="A26" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B26" s="66" t="s">
@@ -17189,7 +17198,9 @@
       <c r="G26" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="H26" s="16"/>
+      <c r="H26" s="92" t="s">
+        <v>1279</v>
+      </c>
       <c r="I26" s="50" t="s">
         <v>878</v>
       </c>
@@ -17210,7 +17221,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="90" t="s">
+      <c r="A27" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B27" s="66" t="s">
@@ -17236,7 +17247,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B28" s="66" t="s">
@@ -17262,7 +17273,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="90" t="s">
+      <c r="A29" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B29" s="66" t="s">
@@ -17294,7 +17305,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="90" t="s">
+      <c r="A30" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B30" s="66" t="s">
@@ -17323,7 +17334,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="90" t="s">
+      <c r="A31" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B31" s="66" t="s">
@@ -17348,7 +17359,7 @@
       <c r="J31" s="16"/>
     </row>
     <row r="32" spans="1:15" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="90" t="s">
+      <c r="A32" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B32" s="66" t="s">
@@ -17383,7 +17394,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="90" t="s">
+      <c r="A33" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B33" s="66" t="s">
@@ -17411,7 +17422,7 @@
       <c r="O33" s="16"/>
     </row>
     <row r="34" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="90" t="s">
+      <c r="A34" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B34" s="66" t="s">
@@ -17439,7 +17450,7 @@
       <c r="O34" s="16"/>
     </row>
     <row r="35" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="90" t="s">
+      <c r="A35" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B35" s="66" t="s">
@@ -17469,7 +17480,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="90" t="s">
+      <c r="A36" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B36" s="66" t="s">
@@ -17499,7 +17510,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="90" t="s">
+      <c r="A37" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B37" s="66" t="s">
@@ -17534,7 +17545,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="90" t="s">
+      <c r="A38" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B38" s="66" t="s">
@@ -17562,7 +17573,7 @@
       <c r="O38" s="16"/>
     </row>
     <row r="39" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="90" t="s">
+      <c r="A39" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B39" s="66" t="s">
@@ -17590,7 +17601,7 @@
       <c r="O39" s="16"/>
     </row>
     <row r="40" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="90" t="s">
+      <c r="A40" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B40" s="66" t="s">
@@ -17620,7 +17631,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="90" t="s">
+      <c r="A41" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B41" s="66" t="s">
@@ -17650,7 +17661,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="90" t="s">
+      <c r="A42" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B42" s="66" t="s">
@@ -17688,7 +17699,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="90" t="s">
+      <c r="A43" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B43" s="66" t="s">
@@ -17717,7 +17728,7 @@
       <c r="O43" s="16"/>
     </row>
     <row r="44" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="90" t="s">
+      <c r="A44" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B44" s="66" t="s">
@@ -17745,7 +17756,7 @@
       <c r="O44" s="16"/>
     </row>
     <row r="45" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="90" t="s">
+      <c r="A45" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B45" s="66" t="s">
@@ -17775,7 +17786,7 @@
       </c>
     </row>
     <row r="46" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="90" t="s">
+      <c r="A46" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B46" s="66" t="s">
@@ -17805,7 +17816,7 @@
       </c>
     </row>
     <row r="47" spans="1:15" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="90" t="s">
+      <c r="A47" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B47" s="66" t="s">
@@ -17835,7 +17846,7 @@
       </c>
     </row>
     <row r="48" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="90" t="s">
+      <c r="A48" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B48" s="66" t="s">
@@ -17864,7 +17875,7 @@
       <c r="O48" s="16"/>
     </row>
     <row r="49" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="90" t="s">
+      <c r="A49" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B49" s="66" t="s">
@@ -17892,7 +17903,7 @@
       <c r="O49" s="16"/>
     </row>
     <row r="50" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A50" s="90" t="s">
+      <c r="A50" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B50" s="66" t="s">
@@ -17922,7 +17933,7 @@
       </c>
     </row>
     <row r="51" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="90" t="s">
+      <c r="A51" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B51" s="66" t="s">
@@ -17952,7 +17963,7 @@
       </c>
     </row>
     <row r="52" spans="1:15" s="7" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A52" s="90" t="s">
+      <c r="A52" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B52" s="66" t="s">
@@ -17979,7 +17990,7 @@
       <c r="O52" s="9"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A53" s="90" t="s">
+      <c r="A53" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B53" s="66" t="s">
@@ -18014,6 +18025,9 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A54" s="89" t="s">
+        <v>1195</v>
+      </c>
       <c r="B54" s="66" t="s">
         <v>1085</v>
       </c>
@@ -18041,7 +18055,9 @@
       <c r="O54" s="9"/>
     </row>
     <row r="55" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="90"/>
+      <c r="A55" s="89" t="s">
+        <v>1195</v>
+      </c>
       <c r="B55" s="66" t="s">
         <v>1085</v>
       </c>
@@ -18070,7 +18086,9 @@
       <c r="O55" s="9"/>
     </row>
     <row r="56" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="90"/>
+      <c r="A56" s="89" t="s">
+        <v>1195</v>
+      </c>
       <c r="B56" s="66" t="s">
         <v>1085</v>
       </c>
@@ -18101,7 +18119,9 @@
       </c>
     </row>
     <row r="57" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A57" s="90"/>
+      <c r="A57" s="89" t="s">
+        <v>1195</v>
+      </c>
       <c r="B57" s="66" t="s">
         <v>1085</v>
       </c>
@@ -18132,7 +18152,9 @@
       </c>
     </row>
     <row r="58" spans="1:15" s="7" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A58" s="90"/>
+      <c r="A58" s="89" t="s">
+        <v>1195</v>
+      </c>
       <c r="B58" s="66" t="s">
         <v>1085</v>
       </c>
@@ -18159,7 +18181,9 @@
       <c r="O58" s="9"/>
     </row>
     <row r="59" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="90"/>
+      <c r="A59" s="89" t="s">
+        <v>1195</v>
+      </c>
       <c r="B59" s="66" t="s">
         <v>1085</v>
       </c>
@@ -18196,7 +18220,9 @@
       <c r="O59" s="9"/>
     </row>
     <row r="60" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="90"/>
+      <c r="A60" s="89" t="s">
+        <v>1195</v>
+      </c>
       <c r="B60" s="66" t="s">
         <v>1085</v>
       </c>
@@ -18226,7 +18252,9 @@
       <c r="O60" s="16"/>
     </row>
     <row r="61" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A61" s="90"/>
+      <c r="A61" s="89" t="s">
+        <v>1195</v>
+      </c>
       <c r="B61" s="66" t="s">
         <v>1085</v>
       </c>
@@ -18256,7 +18284,9 @@
       <c r="O61" s="16"/>
     </row>
     <row r="62" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="90"/>
+      <c r="A62" s="89" t="s">
+        <v>1195</v>
+      </c>
       <c r="B62" s="66" t="s">
         <v>1085</v>
       </c>
@@ -18288,7 +18318,9 @@
       </c>
     </row>
     <row r="63" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A63" s="90"/>
+      <c r="A63" s="89" t="s">
+        <v>1195</v>
+      </c>
       <c r="B63" s="66" t="s">
         <v>1085</v>
       </c>
@@ -18320,6 +18352,9 @@
       </c>
     </row>
     <row r="64" spans="1:15" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A64" s="89" t="s">
+        <v>1195</v>
+      </c>
       <c r="B64" s="66" t="s">
         <v>1085</v>
       </c>
@@ -18355,7 +18390,9 @@
       </c>
     </row>
     <row r="65" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="90"/>
+      <c r="A65" s="89" t="s">
+        <v>1195</v>
+      </c>
       <c r="B65" s="66" t="s">
         <v>1085</v>
       </c>
@@ -18382,7 +18419,9 @@
       <c r="O65" s="16"/>
     </row>
     <row r="66" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="90"/>
+      <c r="A66" s="89" t="s">
+        <v>1195</v>
+      </c>
       <c r="B66" s="66" t="s">
         <v>1085</v>
       </c>
@@ -18408,7 +18447,9 @@
       <c r="O66" s="16"/>
     </row>
     <row r="67" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A67" s="90"/>
+      <c r="A67" s="89" t="s">
+        <v>1195</v>
+      </c>
       <c r="B67" s="66" t="s">
         <v>1085</v>
       </c>
@@ -18436,7 +18477,9 @@
       </c>
     </row>
     <row r="68" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A68" s="90"/>
+      <c r="A68" s="89" t="s">
+        <v>1195</v>
+      </c>
       <c r="B68" s="66" t="s">
         <v>1085</v>
       </c>
@@ -18574,13 +18617,13 @@
   <dimension ref="A1:AH90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="12" style="90" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" style="89" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.8203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.52734375" customWidth="1"/>
     <col min="4" max="4" width="8.05859375" style="43" customWidth="1"/>
@@ -18626,7 +18669,7 @@
         <v>797</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>798</v>
+        <v>1278</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>799</v>
@@ -18714,7 +18757,7 @@
       </c>
     </row>
     <row r="2" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B2" s="36" t="s">
@@ -18788,7 +18831,7 @@
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B3" t="s">
@@ -18862,7 +18905,7 @@
       </c>
     </row>
     <row r="4" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B4" s="36" t="s">
@@ -18942,7 +18985,7 @@
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B5" t="s">
@@ -19022,7 +19065,7 @@
       </c>
     </row>
     <row r="6" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B6" s="36" t="s">
@@ -19096,7 +19139,7 @@
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B7" t="s">
@@ -19170,7 +19213,7 @@
       </c>
     </row>
     <row r="8" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B8" s="36" t="s">
@@ -19235,7 +19278,7 @@
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B9" t="s">
@@ -19294,7 +19337,7 @@
       </c>
     </row>
     <row r="10" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B10" s="36" t="s">
@@ -19350,7 +19393,7 @@
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B11" t="s">
@@ -19421,7 +19464,7 @@
       </c>
     </row>
     <row r="12" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B12" s="36" t="s">
@@ -19483,7 +19526,7 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B13" t="s">
@@ -19557,7 +19600,7 @@
       </c>
     </row>
     <row r="14" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B14" s="36" t="s">
@@ -19631,7 +19674,7 @@
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B15" t="s">
@@ -19696,7 +19739,7 @@
       </c>
     </row>
     <row r="16" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B16" s="36" t="s">
@@ -19773,7 +19816,7 @@
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B17" t="s">
@@ -19853,7 +19896,7 @@
       </c>
     </row>
     <row r="18" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B18" s="36" t="s">
@@ -19933,7 +19976,7 @@
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A19" s="90" t="s">
+      <c r="A19" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B19" t="s">
@@ -20016,7 +20059,7 @@
       </c>
     </row>
     <row r="20" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="90" t="s">
+      <c r="A20" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B20" s="36" t="s">
@@ -20087,7 +20130,7 @@
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B21" t="s">
@@ -20158,7 +20201,7 @@
       </c>
     </row>
     <row r="22" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B22" s="36" t="s">
@@ -20229,7 +20272,7 @@
       </c>
     </row>
     <row r="23" spans="1:34" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A23" s="90" t="s">
+      <c r="A23" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B23" t="s">
@@ -20312,7 +20355,7 @@
       </c>
     </row>
     <row r="24" spans="1:34" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A24" s="90" t="s">
+      <c r="A24" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B24" s="36" t="s">
@@ -20374,7 +20417,7 @@
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A25" s="90" t="s">
+      <c r="A25" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B25" t="s">
@@ -20433,7 +20476,7 @@
       </c>
     </row>
     <row r="26" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="90" t="s">
+      <c r="A26" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B26" s="36" t="s">
@@ -20510,7 +20553,7 @@
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A27" s="90" t="s">
+      <c r="A27" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B27" t="s">
@@ -20587,7 +20630,7 @@
       </c>
     </row>
     <row r="28" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B28" s="36" t="s">
@@ -20667,7 +20710,7 @@
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A29" s="90" t="s">
+      <c r="A29" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B29" t="s">
@@ -20750,7 +20793,7 @@
       </c>
     </row>
     <row r="30" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="90" t="s">
+      <c r="A30" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B30" s="36" t="s">
@@ -20821,7 +20864,7 @@
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A31" s="90" t="s">
+      <c r="A31" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B31" t="s">
@@ -20892,7 +20935,7 @@
       </c>
     </row>
     <row r="32" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="90" t="s">
+      <c r="A32" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B32" s="36" t="s">
@@ -20963,7 +21006,7 @@
       </c>
     </row>
     <row r="33" spans="1:34" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A33" s="90" t="s">
+      <c r="A33" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B33" t="s">
@@ -21046,7 +21089,7 @@
       </c>
     </row>
     <row r="34" spans="1:34" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A34" s="90" t="s">
+      <c r="A34" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B34" s="36" t="s">
@@ -21108,7 +21151,7 @@
       </c>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A35" s="90" t="s">
+      <c r="A35" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B35" t="s">
@@ -21170,7 +21213,7 @@
       </c>
     </row>
     <row r="36" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="90" t="s">
+      <c r="A36" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B36" s="36" t="s">
@@ -21247,7 +21290,7 @@
       </c>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A37" s="90" t="s">
+      <c r="A37" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B37" t="s">
@@ -21324,7 +21367,7 @@
       </c>
     </row>
     <row r="38" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="90" t="s">
+      <c r="A38" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B38" s="36" t="s">
@@ -21404,7 +21447,7 @@
       </c>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A39" s="90" t="s">
+      <c r="A39" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B39" t="s">
@@ -21487,7 +21530,7 @@
       </c>
     </row>
     <row r="40" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="90" t="s">
+      <c r="A40" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B40" s="36" t="s">
@@ -21558,7 +21601,7 @@
       </c>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A41" s="90" t="s">
+      <c r="A41" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B41" t="s">
@@ -21629,7 +21672,7 @@
       </c>
     </row>
     <row r="42" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="90" t="s">
+      <c r="A42" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B42" s="36" t="s">
@@ -21700,7 +21743,7 @@
       </c>
     </row>
     <row r="43" spans="1:34" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A43" s="90" t="s">
+      <c r="A43" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B43" t="s">
@@ -21786,7 +21829,7 @@
       </c>
     </row>
     <row r="44" spans="1:34" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A44" s="90" t="s">
+      <c r="A44" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B44" s="36" t="s">
@@ -21848,7 +21891,7 @@
       </c>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A45" s="90" t="s">
+      <c r="A45" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B45" t="s">
@@ -21910,7 +21953,7 @@
       </c>
     </row>
     <row r="46" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="90" t="s">
+      <c r="A46" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B46" s="36" t="s">
@@ -21987,7 +22030,7 @@
       </c>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A47" s="90" t="s">
+      <c r="A47" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B47" t="s">
@@ -22064,7 +22107,7 @@
       </c>
     </row>
     <row r="48" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="90" t="s">
+      <c r="A48" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B48" s="36" t="s">
@@ -22144,7 +22187,7 @@
       </c>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A49" s="90" t="s">
+      <c r="A49" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B49" t="s">
@@ -22224,7 +22267,7 @@
       </c>
     </row>
     <row r="50" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A50" s="90" t="s">
+      <c r="A50" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B50" s="36" t="s">
@@ -22298,7 +22341,7 @@
       </c>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A51" s="90" t="s">
+      <c r="A51" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B51" t="s">
@@ -22372,7 +22415,7 @@
       </c>
     </row>
     <row r="52" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A52" s="90" t="s">
+      <c r="A52" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B52" s="36" t="s">
@@ -22437,7 +22480,7 @@
       </c>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A53" s="90" t="s">
+      <c r="A53" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B53" t="s">
@@ -22514,7 +22557,7 @@
       </c>
     </row>
     <row r="54" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="90" t="s">
+      <c r="A54" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B54" s="36" t="s">
@@ -22594,7 +22637,7 @@
       </c>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A55" s="90" t="s">
+      <c r="A55" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B55" t="s">
@@ -22683,7 +22726,7 @@
       </c>
     </row>
     <row r="56" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="90" t="s">
+      <c r="A56" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B56" s="36" t="s">
@@ -22760,7 +22803,7 @@
       </c>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A57" s="90" t="s">
+      <c r="A57" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B57" t="s">
@@ -22837,7 +22880,7 @@
       </c>
     </row>
     <row r="58" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="90" t="s">
+      <c r="A58" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B58" s="36" t="s">
@@ -22917,7 +22960,7 @@
       </c>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A59" s="90" t="s">
+      <c r="A59" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B59" t="s">
@@ -22997,7 +23040,7 @@
       </c>
     </row>
     <row r="60" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="90" t="s">
+      <c r="A60" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B60" s="36" t="s">
@@ -23080,7 +23123,7 @@
       </c>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A61" s="90" t="s">
+      <c r="A61" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B61" t="s">
@@ -23151,7 +23194,7 @@
       </c>
     </row>
     <row r="62" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="90" t="s">
+      <c r="A62" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B62" s="36" t="s">
@@ -23222,7 +23265,7 @@
       </c>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A63" s="90" t="s">
+      <c r="A63" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B63" t="s">
@@ -23293,7 +23336,7 @@
       </c>
     </row>
     <row r="64" spans="1:34" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A64" s="90" t="s">
+      <c r="A64" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B64" s="36" t="s">
@@ -23376,7 +23419,7 @@
       </c>
     </row>
     <row r="65" spans="1:34" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A65" s="90" t="s">
+      <c r="A65" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B65" t="s">
@@ -23435,7 +23478,7 @@
       </c>
     </row>
     <row r="66" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="90" t="s">
+      <c r="A66" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B66" s="36" t="s">
@@ -23494,7 +23537,7 @@
       </c>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A67" s="90" t="s">
+      <c r="A67" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B67" t="s">
@@ -23571,7 +23614,7 @@
       </c>
     </row>
     <row r="68" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A68" s="90" t="s">
+      <c r="A68" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B68" s="36" t="s">
@@ -23648,7 +23691,7 @@
       </c>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A69" s="90" t="s">
+      <c r="A69" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B69" t="s">
@@ -23731,7 +23774,7 @@
       </c>
     </row>
     <row r="70" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A70" s="90" t="s">
+      <c r="A70" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B70" s="36" t="s">
@@ -23814,7 +23857,7 @@
       </c>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A71" s="90" t="s">
+      <c r="A71" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B71" t="s">
@@ -23888,7 +23931,7 @@
       </c>
     </row>
     <row r="72" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A72" s="90" t="s">
+      <c r="A72" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B72" s="36" t="s">
@@ -23962,7 +24005,7 @@
       </c>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A73" s="90" t="s">
+      <c r="A73" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B73" t="s">
@@ -24027,7 +24070,7 @@
       </c>
     </row>
     <row r="74" spans="1:34" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A74" s="90" t="s">
+      <c r="A74" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B74" s="36" t="s">
@@ -24086,7 +24129,7 @@
       </c>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A75" s="90" t="s">
+      <c r="A75" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B75" t="s">
@@ -24163,7 +24206,7 @@
       </c>
     </row>
     <row r="76" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A76" s="90" t="s">
+      <c r="A76" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B76" s="36" t="s">
@@ -24243,7 +24286,7 @@
       </c>
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A77" s="90" t="s">
+      <c r="A77" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B77" t="s">
@@ -24326,7 +24369,7 @@
       </c>
     </row>
     <row r="78" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A78" s="90" t="s">
+      <c r="A78" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B78" s="36" t="s">
@@ -24409,7 +24452,7 @@
       </c>
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A79" s="90" t="s">
+      <c r="A79" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B79" t="s">
@@ -24483,7 +24526,7 @@
       </c>
     </row>
     <row r="80" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A80" s="90" t="s">
+      <c r="A80" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B80" s="36" t="s">
@@ -24557,7 +24600,7 @@
       </c>
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.5">
-      <c r="A81" s="90" t="s">
+      <c r="A81" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B81" t="s">
@@ -24622,7 +24665,7 @@
       </c>
     </row>
     <row r="82" spans="1:32" s="36" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A82" s="90" t="s">
+      <c r="A82" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B82" s="36" t="s">
@@ -24684,7 +24727,7 @@
       </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.5">
-      <c r="A83" s="90" t="s">
+      <c r="A83" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B83" t="s">
@@ -24755,7 +24798,7 @@
       </c>
     </row>
     <row r="84" spans="1:32" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A84" s="90" t="s">
+      <c r="A84" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B84" s="36" t="s">
@@ -24829,7 +24872,7 @@
       </c>
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.5">
-      <c r="A85" s="90" t="s">
+      <c r="A85" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B85" t="s">
@@ -24903,7 +24946,7 @@
       </c>
     </row>
     <row r="86" spans="1:32" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A86" s="90" t="s">
+      <c r="A86" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B86" s="36" t="s">
@@ -24980,7 +25023,7 @@
       </c>
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.5">
-      <c r="A87" s="90" t="s">
+      <c r="A87" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B87" t="s">
@@ -25051,7 +25094,7 @@
       </c>
     </row>
     <row r="88" spans="1:32" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A88" s="90" t="s">
+      <c r="A88" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B88" s="36" t="s">
@@ -25122,7 +25165,7 @@
       </c>
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.5">
-      <c r="A89" s="90" t="s">
+      <c r="A89" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B89" t="s">
@@ -25193,7 +25236,7 @@
       </c>
     </row>
     <row r="90" spans="1:32" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A90" s="90"/>
+      <c r="A90" s="89"/>
       <c r="D90" s="55"/>
       <c r="T90" s="49"/>
       <c r="U90" s="49"/>
@@ -25215,14 +25258,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70420D1-4B98-4304-9553-608A7E3461D6}">
   <dimension ref="A1:AG232"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D235" sqref="D235"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="12" style="90" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" style="89" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.8203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.234375" customWidth="1"/>
     <col min="4" max="4" width="6.9375" style="43" customWidth="1"/>
@@ -25269,7 +25312,7 @@
         <v>797</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>798</v>
+        <v>1278</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>799</v>
@@ -25357,7 +25400,7 @@
       </c>
     </row>
     <row r="2" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -25431,7 +25474,7 @@
       </c>
     </row>
     <row r="3" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -25511,7 +25554,7 @@
       </c>
     </row>
     <row r="4" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -25588,7 +25631,7 @@
       </c>
     </row>
     <row r="5" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -25671,7 +25714,7 @@
       </c>
     </row>
     <row r="6" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -25749,7 +25792,7 @@
       </c>
     </row>
     <row r="7" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -25827,7 +25870,7 @@
       </c>
     </row>
     <row r="8" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -25905,7 +25948,7 @@
       </c>
     </row>
     <row r="9" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -25977,7 +26020,7 @@
       </c>
     </row>
     <row r="10" spans="1:33" s="6" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -26051,7 +26094,7 @@
       </c>
     </row>
     <row r="11" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -26128,7 +26171,7 @@
       </c>
     </row>
     <row r="12" spans="1:33" s="6" customFormat="1" ht="15.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -26190,7 +26233,7 @@
       </c>
     </row>
     <row r="13" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B13" s="17" t="s">
@@ -26268,7 +26311,7 @@
       </c>
     </row>
     <row r="14" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B14" s="17" t="s">
@@ -26349,7 +26392,7 @@
       </c>
     </row>
     <row r="15" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -26427,7 +26470,7 @@
       </c>
     </row>
     <row r="16" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B16" s="17" t="s">
@@ -26511,7 +26554,7 @@
       </c>
     </row>
     <row r="17" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B17" s="17" t="s">
@@ -26588,7 +26631,7 @@
       </c>
     </row>
     <row r="18" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B18" s="17" t="s">
@@ -26662,7 +26705,7 @@
       </c>
     </row>
     <row r="19" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="90" t="s">
+      <c r="A19" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B19" s="17" t="s">
@@ -26736,7 +26779,7 @@
       </c>
     </row>
     <row r="20" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="90" t="s">
+      <c r="A20" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -26804,7 +26847,7 @@
       </c>
     </row>
     <row r="21" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B21" s="17" t="s">
@@ -26878,7 +26921,7 @@
       </c>
     </row>
     <row r="22" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B22" s="17" t="s">
@@ -26958,7 +27001,7 @@
       </c>
     </row>
     <row r="23" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="90" t="s">
+      <c r="A23" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B23" s="17" t="s">
@@ -27020,7 +27063,7 @@
       </c>
     </row>
     <row r="24" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="90" t="s">
+      <c r="A24" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -27097,7 +27140,7 @@
       </c>
     </row>
     <row r="25" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="90" t="s">
+      <c r="A25" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -27177,7 +27220,7 @@
       </c>
     </row>
     <row r="26" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="90" t="s">
+      <c r="A26" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -27254,7 +27297,7 @@
       </c>
     </row>
     <row r="27" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="90" t="s">
+      <c r="A27" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -27337,7 +27380,7 @@
       </c>
     </row>
     <row r="28" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -27414,7 +27457,7 @@
       </c>
     </row>
     <row r="29" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="90" t="s">
+      <c r="A29" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -27488,7 +27531,7 @@
       </c>
     </row>
     <row r="30" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="90" t="s">
+      <c r="A30" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -27562,7 +27605,7 @@
       </c>
     </row>
     <row r="31" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="90" t="s">
+      <c r="A31" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -27631,7 +27674,7 @@
       </c>
     </row>
     <row r="32" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="90" t="s">
+      <c r="A32" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -27706,7 +27749,7 @@
       </c>
     </row>
     <row r="33" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="90" t="s">
+      <c r="A33" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -27784,7 +27827,7 @@
       </c>
     </row>
     <row r="34" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="90" t="s">
+      <c r="A34" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -27844,7 +27887,7 @@
       </c>
     </row>
     <row r="35" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="90" t="s">
+      <c r="A35" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B35" s="17" t="s">
@@ -27922,7 +27965,7 @@
       </c>
     </row>
     <row r="36" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="90" t="s">
+      <c r="A36" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B36" s="17" t="s">
@@ -28000,7 +28043,7 @@
       </c>
     </row>
     <row r="37" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="90" t="s">
+      <c r="A37" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B37" s="17" t="s">
@@ -28081,7 +28124,7 @@
       </c>
     </row>
     <row r="38" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="90" t="s">
+      <c r="A38" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B38" s="17" t="s">
@@ -28164,7 +28207,7 @@
       </c>
     </row>
     <row r="39" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="90" t="s">
+      <c r="A39" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B39" s="17" t="s">
@@ -28244,7 +28287,7 @@
       </c>
     </row>
     <row r="40" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="90" t="s">
+      <c r="A40" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B40" s="17" t="s">
@@ -28318,7 +28361,7 @@
       </c>
     </row>
     <row r="41" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="90" t="s">
+      <c r="A41" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B41" s="17" t="s">
@@ -28392,7 +28435,7 @@
       </c>
     </row>
     <row r="42" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="90" t="s">
+      <c r="A42" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B42" s="17" t="s">
@@ -28463,7 +28506,7 @@
       </c>
     </row>
     <row r="43" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="90" t="s">
+      <c r="A43" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B43" s="17" t="s">
@@ -28525,7 +28568,7 @@
       </c>
     </row>
     <row r="44" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="90" t="s">
+      <c r="A44" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B44" s="17" t="s">
@@ -28602,7 +28645,7 @@
       </c>
     </row>
     <row r="45" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="90" t="s">
+      <c r="A45" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B45" s="17" t="s">
@@ -28677,7 +28720,7 @@
       </c>
     </row>
     <row r="46" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="90" t="s">
+      <c r="A46" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -28754,7 +28797,7 @@
       </c>
     </row>
     <row r="47" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="90" t="s">
+      <c r="A47" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -28834,7 +28877,7 @@
       </c>
     </row>
     <row r="48" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="90" t="s">
+      <c r="A48" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -28911,7 +28954,7 @@
       </c>
     </row>
     <row r="49" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="90" t="s">
+      <c r="A49" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -28994,7 +29037,7 @@
       </c>
     </row>
     <row r="50" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A50" s="90" t="s">
+      <c r="A50" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -29072,7 +29115,7 @@
       </c>
     </row>
     <row r="51" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="90" t="s">
+      <c r="A51" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -29147,7 +29190,7 @@
       </c>
     </row>
     <row r="52" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A52" s="90" t="s">
+      <c r="A52" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -29222,7 +29265,7 @@
       </c>
     </row>
     <row r="53" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A53" s="90" t="s">
+      <c r="A53" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -29291,7 +29334,7 @@
       </c>
     </row>
     <row r="54" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="90" t="s">
+      <c r="A54" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -29366,7 +29409,7 @@
       </c>
     </row>
     <row r="55" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="90" t="s">
+      <c r="A55" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -29443,7 +29486,7 @@
       </c>
     </row>
     <row r="56" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="90" t="s">
+      <c r="A56" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -29502,7 +29545,7 @@
       </c>
     </row>
     <row r="57" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A57" s="90" t="s">
+      <c r="A57" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B57" s="17" t="s">
@@ -29580,7 +29623,7 @@
       </c>
     </row>
     <row r="58" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="90" t="s">
+      <c r="A58" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B58" s="17" t="s">
@@ -29661,7 +29704,7 @@
       </c>
     </row>
     <row r="59" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="90" t="s">
+      <c r="A59" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B59" s="17" t="s">
@@ -29739,7 +29782,7 @@
       </c>
     </row>
     <row r="60" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="90" t="s">
+      <c r="A60" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B60" s="17" t="s">
@@ -29823,7 +29866,7 @@
       </c>
     </row>
     <row r="61" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A61" s="90" t="s">
+      <c r="A61" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B61" s="17" t="s">
@@ -29901,7 +29944,7 @@
       </c>
     </row>
     <row r="62" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="90" t="s">
+      <c r="A62" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B62" s="17" t="s">
@@ -29976,7 +30019,7 @@
       </c>
     </row>
     <row r="63" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A63" s="90" t="s">
+      <c r="A63" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B63" s="17" t="s">
@@ -30051,7 +30094,7 @@
       </c>
     </row>
     <row r="64" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A64" s="90" t="s">
+      <c r="A64" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B64" s="17" t="s">
@@ -30120,7 +30163,7 @@
       </c>
     </row>
     <row r="65" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="90" t="s">
+      <c r="A65" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B65" s="17" t="s">
@@ -30195,7 +30238,7 @@
       </c>
     </row>
     <row r="66" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="90" t="s">
+      <c r="A66" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B66" s="17" t="s">
@@ -30273,7 +30316,7 @@
       </c>
     </row>
     <row r="67" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A67" s="90" t="s">
+      <c r="A67" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B67" s="17" t="s">
@@ -30333,7 +30376,7 @@
       </c>
     </row>
     <row r="68" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A68" s="90" t="s">
+      <c r="A68" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B68" s="7" t="s">
@@ -30411,7 +30454,7 @@
       </c>
     </row>
     <row r="69" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A69" s="90" t="s">
+      <c r="A69" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B69" s="7" t="s">
@@ -30492,7 +30535,7 @@
       </c>
     </row>
     <row r="70" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A70" s="90" t="s">
+      <c r="A70" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B70" s="7" t="s">
@@ -30567,7 +30610,7 @@
       </c>
     </row>
     <row r="71" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A71" s="90" t="s">
+      <c r="A71" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B71" s="7" t="s">
@@ -30645,7 +30688,7 @@
       </c>
     </row>
     <row r="72" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A72" s="90" t="s">
+      <c r="A72" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B72" s="7" t="s">
@@ -30720,7 +30763,7 @@
       </c>
     </row>
     <row r="73" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="90" t="s">
+      <c r="A73" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B73" s="7" t="s">
@@ -30792,7 +30835,7 @@
       </c>
     </row>
     <row r="74" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A74" s="90" t="s">
+      <c r="A74" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B74" s="7" t="s">
@@ -30864,7 +30907,7 @@
       </c>
     </row>
     <row r="75" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A75" s="90" t="s">
+      <c r="A75" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B75" s="7" t="s">
@@ -30933,7 +30976,7 @@
       </c>
     </row>
     <row r="76" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A76" s="90" t="s">
+      <c r="A76" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B76" s="7" t="s">
@@ -31005,7 +31048,7 @@
       </c>
     </row>
     <row r="77" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A77" s="90" t="s">
+      <c r="A77" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B77" s="7" t="s">
@@ -31080,7 +31123,7 @@
       </c>
     </row>
     <row r="78" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A78" s="90" t="s">
+      <c r="A78" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B78" s="7" t="s">
@@ -31140,7 +31183,7 @@
       </c>
     </row>
     <row r="79" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A79" s="90" t="s">
+      <c r="A79" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B79" s="26" t="s">
@@ -31218,7 +31261,7 @@
       </c>
     </row>
     <row r="80" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A80" s="90" t="s">
+      <c r="A80" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B80" s="26" t="s">
@@ -31299,7 +31342,7 @@
       </c>
     </row>
     <row r="81" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A81" s="90" t="s">
+      <c r="A81" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B81" s="26" t="s">
@@ -31374,7 +31417,7 @@
       </c>
     </row>
     <row r="82" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A82" s="90" t="s">
+      <c r="A82" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B82" s="26" t="s">
@@ -31452,7 +31495,7 @@
       </c>
     </row>
     <row r="83" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A83" s="90" t="s">
+      <c r="A83" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B83" s="26" t="s">
@@ -31527,7 +31570,7 @@
       </c>
     </row>
     <row r="84" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A84" s="90" t="s">
+      <c r="A84" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B84" s="26" t="s">
@@ -31599,7 +31642,7 @@
       </c>
     </row>
     <row r="85" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A85" s="90" t="s">
+      <c r="A85" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B85" s="26" t="s">
@@ -31671,7 +31714,7 @@
       </c>
     </row>
     <row r="86" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A86" s="90" t="s">
+      <c r="A86" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B86" s="26" t="s">
@@ -31740,7 +31783,7 @@
       </c>
     </row>
     <row r="87" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A87" s="90" t="s">
+      <c r="A87" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B87" s="26" t="s">
@@ -31812,7 +31855,7 @@
       </c>
     </row>
     <row r="88" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A88" s="90" t="s">
+      <c r="A88" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B88" s="26" t="s">
@@ -31887,7 +31930,7 @@
       </c>
     </row>
     <row r="89" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A89" s="90" t="s">
+      <c r="A89" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B89" s="26" t="s">
@@ -31947,7 +31990,7 @@
       </c>
     </row>
     <row r="90" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A90" s="90" t="s">
+      <c r="A90" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B90" s="26" t="s">
@@ -32004,7 +32047,7 @@
       </c>
     </row>
     <row r="91" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A91" s="90" t="s">
+      <c r="A91" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B91" s="6" t="s">
@@ -32070,7 +32113,7 @@
       </c>
     </row>
     <row r="92" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A92" s="90" t="s">
+      <c r="A92" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B92" s="6" t="s">
@@ -32133,7 +32176,7 @@
       </c>
     </row>
     <row r="93" spans="1:32" s="6" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A93" s="90" t="s">
+      <c r="A93" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B93" s="6" t="s">
@@ -32190,7 +32233,7 @@
       </c>
     </row>
     <row r="94" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A94" s="90" t="s">
+      <c r="A94" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B94" s="6" t="s">
@@ -32262,7 +32305,7 @@
       </c>
     </row>
     <row r="95" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A95" s="90" t="s">
+      <c r="A95" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B95" s="6" t="s">
@@ -32334,7 +32377,7 @@
       </c>
     </row>
     <row r="96" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A96" s="90" t="s">
+      <c r="A96" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B96" s="6" t="s">
@@ -32391,7 +32434,7 @@
       </c>
     </row>
     <row r="97" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A97" s="90" t="s">
+      <c r="A97" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B97" s="6" t="s">
@@ -32454,7 +32497,7 @@
       </c>
     </row>
     <row r="98" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A98" s="90" t="s">
+      <c r="A98" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B98" s="6" t="s">
@@ -32514,7 +32557,7 @@
       </c>
     </row>
     <row r="99" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A99" s="90" t="s">
+      <c r="A99" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B99" s="6" t="s">
@@ -32571,7 +32614,7 @@
       </c>
     </row>
     <row r="100" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A100" s="90" t="s">
+      <c r="A100" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B100" s="17" t="s">
@@ -32634,7 +32677,7 @@
       </c>
     </row>
     <row r="101" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A101" s="90" t="s">
+      <c r="A101" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B101" s="17" t="s">
@@ -32715,7 +32758,7 @@
       </c>
     </row>
     <row r="102" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A102" s="90" t="s">
+      <c r="A102" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B102" s="17" t="s">
@@ -32793,7 +32836,7 @@
       </c>
     </row>
     <row r="103" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A103" s="90" t="s">
+      <c r="A103" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B103" s="17" t="s">
@@ -32877,7 +32920,7 @@
       </c>
     </row>
     <row r="104" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A104" s="90" t="s">
+      <c r="A104" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B104" s="17" t="s">
@@ -32955,7 +32998,7 @@
       </c>
     </row>
     <row r="105" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A105" s="90" t="s">
+      <c r="A105" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B105" s="17" t="s">
@@ -33033,7 +33076,7 @@
       </c>
     </row>
     <row r="106" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A106" s="90" t="s">
+      <c r="A106" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B106" s="17" t="s">
@@ -33111,7 +33154,7 @@
       </c>
     </row>
     <row r="107" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A107" s="90" t="s">
+      <c r="A107" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B107" s="17" t="s">
@@ -33183,7 +33226,7 @@
       </c>
     </row>
     <row r="108" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A108" s="90" t="s">
+      <c r="A108" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B108" s="17" t="s">
@@ -33258,7 +33301,7 @@
       </c>
     </row>
     <row r="109" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A109" s="90" t="s">
+      <c r="A109" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B109" s="17" t="s">
@@ -33336,7 +33379,7 @@
       </c>
     </row>
     <row r="110" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A110" s="90" t="s">
+      <c r="A110" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B110" s="17" t="s">
@@ -33396,7 +33439,7 @@
       </c>
     </row>
     <row r="111" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A111" s="90" t="s">
+      <c r="A111" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B111" s="6" t="s">
@@ -33474,7 +33517,7 @@
       </c>
     </row>
     <row r="112" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A112" s="90" t="s">
+      <c r="A112" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B112" s="6" t="s">
@@ -33555,7 +33598,7 @@
       </c>
     </row>
     <row r="113" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A113" s="90" t="s">
+      <c r="A113" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B113" s="6" t="s">
@@ -33633,7 +33676,7 @@
       </c>
     </row>
     <row r="114" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A114" s="90" t="s">
+      <c r="A114" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B114" s="6" t="s">
@@ -33717,7 +33760,7 @@
       </c>
     </row>
     <row r="115" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A115" s="90" t="s">
+      <c r="A115" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B115" s="6" t="s">
@@ -33795,7 +33838,7 @@
       </c>
     </row>
     <row r="116" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A116" s="90" t="s">
+      <c r="A116" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B116" s="6" t="s">
@@ -33873,7 +33916,7 @@
       </c>
     </row>
     <row r="117" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A117" s="90" t="s">
+      <c r="A117" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B117" s="6" t="s">
@@ -33951,7 +33994,7 @@
       </c>
     </row>
     <row r="118" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A118" s="90" t="s">
+      <c r="A118" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B118" s="6" t="s">
@@ -34023,7 +34066,7 @@
       </c>
     </row>
     <row r="119" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A119" s="90" t="s">
+      <c r="A119" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B119" s="6" t="s">
@@ -34098,7 +34141,7 @@
       </c>
     </row>
     <row r="120" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A120" s="90" t="s">
+      <c r="A120" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B120" s="6" t="s">
@@ -34176,7 +34219,7 @@
       </c>
     </row>
     <row r="121" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A121" s="90" t="s">
+      <c r="A121" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B121" s="6" t="s">
@@ -34236,7 +34279,7 @@
       </c>
     </row>
     <row r="122" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A122" s="90" t="s">
+      <c r="A122" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B122" s="17" t="s">
@@ -34311,7 +34354,7 @@
       </c>
     </row>
     <row r="123" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A123" s="90" t="s">
+      <c r="A123" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B123" s="17" t="s">
@@ -34389,7 +34432,7 @@
       </c>
     </row>
     <row r="124" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A124" s="90" t="s">
+      <c r="A124" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B124" s="17" t="s">
@@ -34467,7 +34510,7 @@
       </c>
     </row>
     <row r="125" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A125" s="90" t="s">
+      <c r="A125" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B125" s="17" t="s">
@@ -34551,7 +34594,7 @@
       </c>
     </row>
     <row r="126" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A126" s="90" t="s">
+      <c r="A126" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B126" s="17" t="s">
@@ -34629,7 +34672,7 @@
       </c>
     </row>
     <row r="127" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A127" s="90" t="s">
+      <c r="A127" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B127" s="17" t="s">
@@ -34695,7 +34738,7 @@
       </c>
     </row>
     <row r="128" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A128" s="90" t="s">
+      <c r="A128" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B128" s="17" t="s">
@@ -34761,7 +34804,7 @@
       </c>
     </row>
     <row r="129" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A129" s="90" t="s">
+      <c r="A129" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B129" s="17" t="s">
@@ -34833,7 +34876,7 @@
       </c>
     </row>
     <row r="130" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A130" s="90" t="s">
+      <c r="A130" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B130" s="17" t="s">
@@ -34911,7 +34954,7 @@
       </c>
     </row>
     <row r="131" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A131" s="90" t="s">
+      <c r="A131" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B131" s="17" t="s">
@@ -34989,7 +35032,7 @@
       </c>
     </row>
     <row r="132" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A132" s="90" t="s">
+      <c r="A132" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B132" s="17" t="s">
@@ -35052,7 +35095,7 @@
       </c>
     </row>
     <row r="133" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A133" s="90" t="s">
+      <c r="A133" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B133" s="17" t="s">
@@ -35112,7 +35155,7 @@
       </c>
     </row>
     <row r="134" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A134" s="90" t="s">
+      <c r="A134" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B134" s="6" t="s">
@@ -35190,7 +35233,7 @@
       </c>
     </row>
     <row r="135" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A135" s="90" t="s">
+      <c r="A135" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B135" s="6" t="s">
@@ -35265,7 +35308,7 @@
       </c>
     </row>
     <row r="136" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A136" s="90" t="s">
+      <c r="A136" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B136" s="6" t="s">
@@ -35346,7 +35389,7 @@
       </c>
     </row>
     <row r="137" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A137" s="90" t="s">
+      <c r="A137" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B137" s="6" t="s">
@@ -35424,7 +35467,7 @@
       </c>
     </row>
     <row r="138" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A138" s="90" t="s">
+      <c r="A138" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B138" s="6" t="s">
@@ -35511,7 +35554,7 @@
       </c>
     </row>
     <row r="139" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A139" s="90" t="s">
+      <c r="A139" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B139" s="6" t="s">
@@ -35583,7 +35626,7 @@
       </c>
     </row>
     <row r="140" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A140" s="90" t="s">
+      <c r="A140" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B140" s="6" t="s">
@@ -35661,7 +35704,7 @@
       </c>
     </row>
     <row r="141" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A141" s="90" t="s">
+      <c r="A141" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B141" s="6" t="s">
@@ -35748,7 +35791,7 @@
       </c>
     </row>
     <row r="142" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A142" s="90" t="s">
+      <c r="A142" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B142" s="6" t="s">
@@ -35811,7 +35854,7 @@
       </c>
     </row>
     <row r="143" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A143" s="90" t="s">
+      <c r="A143" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B143" s="6" t="s">
@@ -35889,7 +35932,7 @@
       </c>
     </row>
     <row r="144" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A144" s="90" t="s">
+      <c r="A144" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B144" s="6" t="s">
@@ -35958,7 +36001,7 @@
       </c>
     </row>
     <row r="145" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A145" s="90" t="s">
+      <c r="A145" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B145" s="17" t="s">
@@ -36036,7 +36079,7 @@
       </c>
     </row>
     <row r="146" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A146" s="90" t="s">
+      <c r="A146" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B146" s="17" t="s">
@@ -36117,7 +36160,7 @@
       </c>
     </row>
     <row r="147" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A147" s="90" t="s">
+      <c r="A147" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B147" s="17" t="s">
@@ -36195,7 +36238,7 @@
       </c>
     </row>
     <row r="148" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A148" s="90" t="s">
+      <c r="A148" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B148" s="17" t="s">
@@ -36279,7 +36322,7 @@
       </c>
     </row>
     <row r="149" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A149" s="90" t="s">
+      <c r="A149" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B149" s="17" t="s">
@@ -36357,7 +36400,7 @@
       </c>
     </row>
     <row r="150" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A150" s="90" t="s">
+      <c r="A150" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B150" s="17" t="s">
@@ -36432,7 +36475,7 @@
       </c>
     </row>
     <row r="151" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A151" s="90" t="s">
+      <c r="A151" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B151" s="17" t="s">
@@ -36507,7 +36550,7 @@
       </c>
     </row>
     <row r="152" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A152" s="90" t="s">
+      <c r="A152" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B152" s="17" t="s">
@@ -36576,7 +36619,7 @@
       </c>
     </row>
     <row r="153" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A153" s="90" t="s">
+      <c r="A153" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B153" s="17" t="s">
@@ -36651,7 +36694,7 @@
       </c>
     </row>
     <row r="154" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A154" s="90" t="s">
+      <c r="A154" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B154" s="17" t="s">
@@ -36729,7 +36772,7 @@
       </c>
     </row>
     <row r="155" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A155" s="90" t="s">
+      <c r="A155" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B155" s="17" t="s">
@@ -36789,7 +36832,7 @@
       </c>
     </row>
     <row r="156" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A156" s="90" t="s">
+      <c r="A156" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B156" s="6" t="s">
@@ -36867,7 +36910,7 @@
       </c>
     </row>
     <row r="157" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A157" s="90" t="s">
+      <c r="A157" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B157" s="6" t="s">
@@ -36948,7 +36991,7 @@
       </c>
     </row>
     <row r="158" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A158" s="90" t="s">
+      <c r="A158" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B158" s="6" t="s">
@@ -37026,7 +37069,7 @@
       </c>
     </row>
     <row r="159" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A159" s="90" t="s">
+      <c r="A159" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B159" s="6" t="s">
@@ -37110,7 +37153,7 @@
       </c>
     </row>
     <row r="160" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A160" s="90" t="s">
+      <c r="A160" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B160" s="6" t="s">
@@ -37188,7 +37231,7 @@
       </c>
     </row>
     <row r="161" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A161" s="90" t="s">
+      <c r="A161" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B161" s="6" t="s">
@@ -37263,7 +37306,7 @@
       </c>
     </row>
     <row r="162" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A162" s="90" t="s">
+      <c r="A162" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B162" s="6" t="s">
@@ -37338,7 +37381,7 @@
       </c>
     </row>
     <row r="163" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A163" s="90" t="s">
+      <c r="A163" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B163" s="6" t="s">
@@ -37407,7 +37450,7 @@
       </c>
     </row>
     <row r="164" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A164" s="90" t="s">
+      <c r="A164" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B164" s="6" t="s">
@@ -37482,7 +37525,7 @@
       </c>
     </row>
     <row r="165" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A165" s="90" t="s">
+      <c r="A165" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B165" s="6" t="s">
@@ -37560,7 +37603,7 @@
       </c>
     </row>
     <row r="166" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A166" s="90" t="s">
+      <c r="A166" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B166" s="6" t="s">
@@ -37620,7 +37663,7 @@
       </c>
     </row>
     <row r="167" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A167" s="90" t="s">
+      <c r="A167" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B167" s="17" t="s">
@@ -37698,7 +37741,7 @@
       </c>
     </row>
     <row r="168" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A168" s="90" t="s">
+      <c r="A168" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B168" s="17" t="s">
@@ -37779,7 +37822,7 @@
       </c>
     </row>
     <row r="169" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A169" s="90" t="s">
+      <c r="A169" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B169" s="17" t="s">
@@ -37857,7 +37900,7 @@
       </c>
     </row>
     <row r="170" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A170" s="90" t="s">
+      <c r="A170" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B170" s="17" t="s">
@@ -37941,7 +37984,7 @@
       </c>
     </row>
     <row r="171" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A171" s="90" t="s">
+      <c r="A171" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B171" s="17" t="s">
@@ -38019,7 +38062,7 @@
       </c>
     </row>
     <row r="172" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A172" s="90" t="s">
+      <c r="A172" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B172" s="17" t="s">
@@ -38097,7 +38140,7 @@
       </c>
     </row>
     <row r="173" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A173" s="90" t="s">
+      <c r="A173" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B173" s="17" t="s">
@@ -38175,7 +38218,7 @@
       </c>
     </row>
     <row r="174" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A174" s="90" t="s">
+      <c r="A174" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B174" s="17" t="s">
@@ -38247,7 +38290,7 @@
       </c>
     </row>
     <row r="175" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A175" s="90" t="s">
+      <c r="A175" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B175" s="17" t="s">
@@ -38322,7 +38365,7 @@
       </c>
     </row>
     <row r="176" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A176" s="90" t="s">
+      <c r="A176" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B176" s="17" t="s">
@@ -38400,7 +38443,7 @@
       </c>
     </row>
     <row r="177" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A177" s="90" t="s">
+      <c r="A177" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B177" s="17" t="s">
@@ -38460,7 +38503,7 @@
       </c>
     </row>
     <row r="178" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A178" s="90" t="s">
+      <c r="A178" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B178" s="6" t="s">
@@ -38539,7 +38582,7 @@
       </c>
     </row>
     <row r="179" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A179" s="90" t="s">
+      <c r="A179" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B179" s="6" t="s">
@@ -38620,7 +38663,7 @@
       </c>
     </row>
     <row r="180" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A180" s="90" t="s">
+      <c r="A180" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B180" s="6" t="s">
@@ -38698,7 +38741,7 @@
       </c>
     </row>
     <row r="181" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A181" s="90" t="s">
+      <c r="A181" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B181" s="6" t="s">
@@ -38782,7 +38825,7 @@
       </c>
     </row>
     <row r="182" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A182" s="90" t="s">
+      <c r="A182" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B182" s="6" t="s">
@@ -38860,7 +38903,7 @@
       </c>
     </row>
     <row r="183" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A183" s="90" t="s">
+      <c r="A183" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B183" s="6" t="s">
@@ -38938,7 +38981,7 @@
       </c>
     </row>
     <row r="184" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A184" s="90" t="s">
+      <c r="A184" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B184" s="6" t="s">
@@ -39016,7 +39059,7 @@
       </c>
     </row>
     <row r="185" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A185" s="90" t="s">
+      <c r="A185" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B185" s="6" t="s">
@@ -39088,7 +39131,7 @@
       </c>
     </row>
     <row r="186" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A186" s="90" t="s">
+      <c r="A186" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B186" s="6" t="s">
@@ -39163,7 +39206,7 @@
       </c>
     </row>
     <row r="187" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A187" s="90" t="s">
+      <c r="A187" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B187" s="6" t="s">
@@ -39241,7 +39284,7 @@
       </c>
     </row>
     <row r="188" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A188" s="90" t="s">
+      <c r="A188" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B188" s="6" t="s">
@@ -39301,7 +39344,7 @@
       </c>
     </row>
     <row r="189" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A189" s="90" t="s">
+      <c r="A189" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B189" s="17" t="s">
@@ -39379,7 +39422,7 @@
       </c>
     </row>
     <row r="190" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A190" s="90" t="s">
+      <c r="A190" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B190" s="17" t="s">
@@ -39460,7 +39503,7 @@
       </c>
     </row>
     <row r="191" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A191" s="90" t="s">
+      <c r="A191" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B191" s="17" t="s">
@@ -39538,7 +39581,7 @@
       </c>
     </row>
     <row r="192" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A192" s="90" t="s">
+      <c r="A192" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B192" s="17" t="s">
@@ -39622,7 +39665,7 @@
       </c>
     </row>
     <row r="193" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A193" s="90" t="s">
+      <c r="A193" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B193" s="17" t="s">
@@ -39700,7 +39743,7 @@
       </c>
     </row>
     <row r="194" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A194" s="90" t="s">
+      <c r="A194" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B194" s="17" t="s">
@@ -39778,7 +39821,7 @@
       </c>
     </row>
     <row r="195" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A195" s="90" t="s">
+      <c r="A195" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B195" s="17" t="s">
@@ -39856,7 +39899,7 @@
       </c>
     </row>
     <row r="196" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A196" s="90" t="s">
+      <c r="A196" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B196" s="17" t="s">
@@ -39928,7 +39971,7 @@
       </c>
     </row>
     <row r="197" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A197" s="90" t="s">
+      <c r="A197" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B197" s="17" t="s">
@@ -40003,7 +40046,7 @@
       </c>
     </row>
     <row r="198" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A198" s="90" t="s">
+      <c r="A198" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B198" s="17" t="s">
@@ -40081,7 +40124,7 @@
       </c>
     </row>
     <row r="199" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A199" s="90" t="s">
+      <c r="A199" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B199" s="17" t="s">
@@ -40141,7 +40184,7 @@
       </c>
     </row>
     <row r="200" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A200" s="90" t="s">
+      <c r="A200" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B200" s="6" t="s">
@@ -40219,7 +40262,7 @@
       </c>
     </row>
     <row r="201" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A201" s="90" t="s">
+      <c r="A201" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B201" s="6" t="s">
@@ -40300,7 +40343,7 @@
       </c>
     </row>
     <row r="202" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A202" s="90" t="s">
+      <c r="A202" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B202" s="6" t="s">
@@ -40378,7 +40421,7 @@
       </c>
     </row>
     <row r="203" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A203" s="90" t="s">
+      <c r="A203" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B203" s="6" t="s">
@@ -40462,7 +40505,7 @@
       </c>
     </row>
     <row r="204" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A204" s="90" t="s">
+      <c r="A204" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B204" s="6" t="s">
@@ -40540,7 +40583,7 @@
       </c>
     </row>
     <row r="205" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A205" s="90" t="s">
+      <c r="A205" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B205" s="6" t="s">
@@ -40618,7 +40661,7 @@
       </c>
     </row>
     <row r="206" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A206" s="90" t="s">
+      <c r="A206" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B206" s="6" t="s">
@@ -40696,7 +40739,7 @@
       </c>
     </row>
     <row r="207" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A207" s="90" t="s">
+      <c r="A207" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B207" s="6" t="s">
@@ -40768,7 +40811,7 @@
       </c>
     </row>
     <row r="208" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A208" s="90" t="s">
+      <c r="A208" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B208" s="6" t="s">
@@ -40840,7 +40883,7 @@
       </c>
     </row>
     <row r="209" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A209" s="90" t="s">
+      <c r="A209" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B209" s="6" t="s">
@@ -40918,7 +40961,7 @@
       </c>
     </row>
     <row r="210" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A210" s="90" t="s">
+      <c r="A210" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B210" s="6" t="s">
@@ -40978,7 +41021,7 @@
       </c>
     </row>
     <row r="211" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A211" s="90" t="s">
+      <c r="A211" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B211" s="17" t="s">
@@ -41056,7 +41099,7 @@
       </c>
     </row>
     <row r="212" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A212" s="90" t="s">
+      <c r="A212" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B212" s="17" t="s">
@@ -41137,7 +41180,7 @@
       </c>
     </row>
     <row r="213" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A213" s="90" t="s">
+      <c r="A213" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B213" s="17" t="s">
@@ -41215,7 +41258,7 @@
       </c>
     </row>
     <row r="214" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A214" s="90" t="s">
+      <c r="A214" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B214" s="17" t="s">
@@ -41299,7 +41342,7 @@
       </c>
     </row>
     <row r="215" spans="1:33" s="17" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A215" s="90" t="s">
+      <c r="A215" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B215" s="17" t="s">
@@ -41377,7 +41420,7 @@
       </c>
     </row>
     <row r="216" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A216" s="90" t="s">
+      <c r="A216" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B216" s="17" t="s">
@@ -41455,7 +41498,7 @@
       </c>
     </row>
     <row r="217" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A217" s="90" t="s">
+      <c r="A217" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B217" s="17" t="s">
@@ -41533,7 +41576,7 @@
       </c>
     </row>
     <row r="218" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A218" s="90" t="s">
+      <c r="A218" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B218" s="17" t="s">
@@ -41605,7 +41648,7 @@
       </c>
     </row>
     <row r="219" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A219" s="90" t="s">
+      <c r="A219" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B219" s="17" t="s">
@@ -41680,7 +41723,7 @@
       </c>
     </row>
     <row r="220" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A220" s="90" t="s">
+      <c r="A220" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B220" s="17" t="s">
@@ -41758,7 +41801,7 @@
       </c>
     </row>
     <row r="221" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A221" s="90" t="s">
+      <c r="A221" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B221" s="17" t="s">
@@ -41818,7 +41861,7 @@
       </c>
     </row>
     <row r="222" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A222" s="90" t="s">
+      <c r="A222" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B222" s="6" t="s">
@@ -41896,7 +41939,7 @@
       </c>
     </row>
     <row r="223" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A223" s="90" t="s">
+      <c r="A223" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B223" s="6" t="s">
@@ -41977,7 +42020,7 @@
       </c>
     </row>
     <row r="224" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A224" s="90" t="s">
+      <c r="A224" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B224" s="6" t="s">
@@ -42055,7 +42098,7 @@
       </c>
     </row>
     <row r="225" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A225" s="90" t="s">
+      <c r="A225" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B225" s="6" t="s">
@@ -42139,7 +42182,7 @@
       </c>
     </row>
     <row r="226" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A226" s="90" t="s">
+      <c r="A226" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B226" s="6" t="s">
@@ -42217,7 +42260,7 @@
       </c>
     </row>
     <row r="227" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A227" s="90" t="s">
+      <c r="A227" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B227" s="6" t="s">
@@ -42295,7 +42338,7 @@
       </c>
     </row>
     <row r="228" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A228" s="90" t="s">
+      <c r="A228" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B228" s="6" t="s">
@@ -42373,7 +42416,7 @@
       </c>
     </row>
     <row r="229" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A229" s="90" t="s">
+      <c r="A229" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B229" s="6" t="s">
@@ -42445,7 +42488,7 @@
       </c>
     </row>
     <row r="230" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A230" s="90" t="s">
+      <c r="A230" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B230" s="6" t="s">
@@ -42520,7 +42563,7 @@
       </c>
     </row>
     <row r="231" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A231" s="90" t="s">
+      <c r="A231" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B231" s="6" t="s">
@@ -42598,7 +42641,7 @@
       </c>
     </row>
     <row r="232" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A232" s="90" t="s">
+      <c r="A232" s="89" t="s">
         <v>1195</v>
       </c>
       <c r="B232" s="6" t="s">
@@ -49752,10 +49795,10 @@
       <c r="F28" s="70" t="s">
         <v>1069</v>
       </c>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="93"/>
       <c r="K28" s="69"/>
       <c r="L28" s="69"/>
       <c r="M28" s="69"/>
@@ -49774,8 +49817,8 @@
       </c>
       <c r="E29" s="69"/>
       <c r="F29" s="70"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
       <c r="I29" s="69"/>
       <c r="J29" s="47" t="s">
         <v>857</v>
@@ -49802,8 +49845,8 @@
       </c>
       <c r="E30" s="69"/>
       <c r="F30" s="70"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
       <c r="I30" s="69"/>
       <c r="J30" s="47" t="s">
         <v>995</v>
@@ -49832,8 +49875,8 @@
       </c>
       <c r="E31" s="69"/>
       <c r="F31" s="70"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
       <c r="I31" s="69"/>
       <c r="J31" s="47" t="s">
         <v>998</v>
@@ -49860,8 +49903,8 @@
       </c>
       <c r="E32" s="69"/>
       <c r="F32" s="70"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
       <c r="I32" s="69"/>
       <c r="J32" s="47" t="s">
         <v>1000</v>
@@ -50190,13 +50233,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A74BE6FB-E381-48E9-AFEA-0E3F4988ACEE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3E06F1B-2DC0-499B-831C-0AF867B66031}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEB72D98-24B2-438A-8EBB-0825914E34A5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AFDF3A5-2895-433F-8B05-7DDEB0AEB8C3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7401B04-B25C-4D32-ADB7-897552C61E69}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59F9E161-C85A-46D0-A8DD-56AF016D0B1A}"/>
 </file>
--- a/BC Curation Template.xlsx
+++ b/BC Curation Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48804EC8-0D87-454B-9E63-EF8A88462A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C867DE-32D9-4D35-874A-E0D84E6D4EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="2" xr2:uid="{FA29263D-F7AA-4D0C-AE9B-6B008D3B18BE}"/>
   </bookViews>
@@ -18362,7 +18362,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N50" sqref="N50"/>
+      <selection pane="bottomLeft" activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21958,10 +21958,10 @@
         <v>104</v>
       </c>
       <c r="L49" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="M49" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="N49" t="s">
         <v>729</v>
@@ -49959,20 +49959,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Description0 xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">Data and Metadata documentation will explain structure and content any QC manipulations that have been done to the data.</Description0>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Description0 xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">Data and Metadata documentation will explain structure and content any QC manipulations that have been done to the data.</Description0>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49995,14 +49995,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AFDF3A5-2895-433F-8B05-7DDEB0AEB8C3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59F9E161-C85A-46D0-A8DD-56AF016D0B1A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -50010,4 +50002,12 @@
     <ds:schemaRef ds:uri="3dc215b4-4765-4137-95ef-e24fb8216673"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AFDF3A5-2895-433F-8B05-7DDEB0AEB8C3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>